--- a/Data/Export/Common/BuildingType_建筑类型.xlsx
+++ b/Data/Export/Common/BuildingType_建筑类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A18F3B-C020-489E-A1A0-B380BACC1292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D266049C-0C55-43A0-ABF6-CB686591A6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -1520,10 +1520,10 @@
   <dimension ref="A1:AG120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AA31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AD45" sqref="AD45"/>
+      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/Data/Export/Common/BuildingType_建筑类型.xlsx
+++ b/Data/Export/Common/BuildingType_建筑类型.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\sango_infinity\Data\Export\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D266049C-0C55-43A0-ABF6-CB686591A6CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226E4059-D508-4035-90F8-179665B25210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="25704" windowHeight="13476" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -1013,11 +1013,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{class:"BuildingImproveGoldGain", value:50, kinds:[32]}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{class:"BuildingImproveFoodGain", value:50, kinds:[33]}]</t>
+    <t>[{class:"BuildingImproveGoldGain", value:50, kinds:[32], bound:0}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{class:"BuildingImproveFoodGain", value:50, kinds:[33], bound:0}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,41 +1520,41 @@
   <dimension ref="A1:AG120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AA31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomRight" activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="5" width="16.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.77734375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="19.44140625" style="2" customWidth="1"/>
+    <col min="3" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="19.5" style="2" customWidth="1"/>
     <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="17" max="18" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.21875" style="2" customWidth="1"/>
-    <col min="23" max="23" width="10.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="71.88671875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="37.88671875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="102.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.25" style="2" customWidth="1"/>
+    <col min="23" max="23" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="71.875" style="2" customWidth="1"/>
+    <col min="26" max="26" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="37.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="37.875" style="2" customWidth="1"/>
+    <col min="29" max="29" width="37.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="102.625" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1641,7 +1641,7 @@
       <c r="AF1" s="9"/>
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1678,7 +1678,7 @@
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
     </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1771,7 +1771,7 @@
       <c r="AF3" s="8"/>
       <c r="AG3" s="8"/>
     </row>
-    <row r="4" spans="1:33" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1930,7 +1930,7 @@
       <c r="Z5" s="4"/>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1998,7 +1998,7 @@
       <c r="Z6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -2065,7 +2065,7 @@
       <c r="Z7" s="4"/>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="AF10" s="4"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="AF11" s="4"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="AF12" s="4"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="AF13" s="4"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2565,7 +2565,7 @@
       </c>
       <c r="AF14" s="4"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="AF15" s="4"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2695,7 +2695,7 @@
       </c>
       <c r="AF16" s="4"/>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2760,7 +2760,7 @@
       </c>
       <c r="AF17" s="4"/>
     </row>
-    <row r="18" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="AF18" s="4"/>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -2886,7 +2886,7 @@
       <c r="Z19" s="4"/>
       <c r="AF19" s="4"/>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2947,7 +2947,7 @@
       <c r="Z20" s="4"/>
       <c r="AF20" s="4"/>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="AF21" s="4"/>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -3142,7 +3142,7 @@
       </c>
       <c r="AF23" s="4"/>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -3207,7 +3207,7 @@
       </c>
       <c r="AF24" s="4"/>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="AF25" s="4"/>
     </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -3402,7 +3402,7 @@
       </c>
       <c r="AF27" s="4"/>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -3463,7 +3463,7 @@
       <c r="Z28" s="4"/>
       <c r="AF28" s="4"/>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="Z29" s="4"/>
       <c r="AF29" s="4"/>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="Z30" s="4"/>
       <c r="AF30" s="4"/>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -3644,7 +3644,7 @@
       <c r="Z31" s="4"/>
       <c r="AF31" s="4"/>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="Z32" s="4"/>
       <c r="AF32" s="4"/>
     </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -3764,7 +3764,7 @@
       <c r="Z33" s="4"/>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="Z34" s="4"/>
       <c r="AF34" s="4"/>
     </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -3890,7 +3890,7 @@
       <c r="Z35" s="4"/>
       <c r="AF35" s="4"/>
     </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="AF36" s="4"/>
     </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="AF37" s="4"/>
     </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>42</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -5145,7 +5145,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -5436,7 +5436,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -5509,7 +5509,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -5579,7 +5579,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -5650,7 +5650,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -5718,7 +5718,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B61" s="4">
         <v>57</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>58</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>59</v>
       </c>
@@ -5929,7 +5929,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:30" x14ac:dyDescent="0.15">
       <c r="B64" s="4">
         <v>60</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>61</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>62</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>63</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>64</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
@@ -6295,7 +6295,7 @@
       <c r="Y69" s="4"/>
       <c r="AF69" s="4"/>
     </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -6313,7 +6313,7 @@
       <c r="Y70" s="4"/>
       <c r="AF70" s="4"/>
     </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -6329,7 +6329,7 @@
       <c r="Y71" s="4"/>
       <c r="AF71" s="4"/>
     </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -6345,7 +6345,7 @@
       <c r="Y72" s="4"/>
       <c r="AF72" s="4"/>
     </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -6361,7 +6361,7 @@
       <c r="Y73" s="4"/>
       <c r="AF73" s="4"/>
     </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -6377,7 +6377,7 @@
       <c r="Y74" s="4"/>
       <c r="AF74" s="4"/>
     </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -6393,7 +6393,7 @@
       <c r="Y75" s="4"/>
       <c r="AF75" s="4"/>
     </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -6409,7 +6409,7 @@
       <c r="Y76" s="4"/>
       <c r="AF76" s="4"/>
     </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -6425,7 +6425,7 @@
       <c r="Y77" s="4"/>
       <c r="AF77" s="4"/>
     </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6441,7 +6441,7 @@
       <c r="Y78" s="4"/>
       <c r="AF78" s="4"/>
     </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -6457,7 +6457,7 @@
       <c r="Y79" s="4"/>
       <c r="AF79" s="4"/>
     </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -6473,7 +6473,7 @@
       <c r="Y80" s="4"/>
       <c r="AF80" s="4"/>
     </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -6489,7 +6489,7 @@
       <c r="Y81" s="4"/>
       <c r="AF81" s="4"/>
     </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -6505,7 +6505,7 @@
       <c r="Y82" s="4"/>
       <c r="AF82" s="4"/>
     </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -6521,7 +6521,7 @@
       <c r="Y83" s="4"/>
       <c r="AF83" s="4"/>
     </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -6537,7 +6537,7 @@
       <c r="Y84" s="4"/>
       <c r="AF84" s="4"/>
     </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -6553,7 +6553,7 @@
       <c r="Y85" s="4"/>
       <c r="AF85" s="4"/>
     </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -6569,7 +6569,7 @@
       <c r="Y86" s="4"/>
       <c r="AF86" s="4"/>
     </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -6585,7 +6585,7 @@
       <c r="Y87" s="4"/>
       <c r="AF87" s="4"/>
     </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -6601,7 +6601,7 @@
       <c r="Y88" s="4"/>
       <c r="AF88" s="4"/>
     </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -6617,7 +6617,7 @@
       <c r="Y89" s="4"/>
       <c r="AF89" s="4"/>
     </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -6633,7 +6633,7 @@
       <c r="Y90" s="4"/>
       <c r="AF90" s="4"/>
     </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -6649,7 +6649,7 @@
       <c r="Y91" s="4"/>
       <c r="AF91" s="4"/>
     </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -6665,7 +6665,7 @@
       <c r="Y92" s="4"/>
       <c r="AF92" s="4"/>
     </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -6678,7 +6678,7 @@
       <c r="Y93" s="4"/>
       <c r="AF93" s="4"/>
     </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:32" x14ac:dyDescent="0.15">
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="P94" s="6"/>
@@ -6691,7 +6691,7 @@
       <c r="Y94" s="4"/>
       <c r="AF94" s="4"/>
     </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:32" x14ac:dyDescent="0.15">
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="P95" s="6"/>
@@ -6704,7 +6704,7 @@
       <c r="Y95" s="4"/>
       <c r="AF95" s="4"/>
     </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:32" x14ac:dyDescent="0.15">
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="P96" s="6"/>
@@ -6717,7 +6717,7 @@
       <c r="Y96" s="4"/>
       <c r="AF96" s="4"/>
     </row>
-    <row r="97" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="P97" s="6"/>
@@ -6730,7 +6730,7 @@
       <c r="Y97" s="4"/>
       <c r="AF97" s="4"/>
     </row>
-    <row r="98" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="P98" s="6"/>
@@ -6743,7 +6743,7 @@
       <c r="Y98" s="4"/>
       <c r="AF98" s="4"/>
     </row>
-    <row r="99" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="P99" s="6"/>
@@ -6756,7 +6756,7 @@
       <c r="Y99" s="4"/>
       <c r="AF99" s="4"/>
     </row>
-    <row r="100" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="P100" s="6"/>
@@ -6769,7 +6769,7 @@
       <c r="Y100" s="4"/>
       <c r="AF100" s="4"/>
     </row>
-    <row r="101" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="P101" s="6"/>
@@ -6782,7 +6782,7 @@
       <c r="Y101" s="4"/>
       <c r="AF101" s="4"/>
     </row>
-    <row r="102" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="P102" s="6"/>
@@ -6795,7 +6795,7 @@
       <c r="Y102" s="4"/>
       <c r="AF102" s="4"/>
     </row>
-    <row r="103" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="Q103" s="4"/>
@@ -6806,7 +6806,7 @@
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
     </row>
-    <row r="104" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="Q104" s="4"/>
@@ -6817,7 +6817,7 @@
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
     </row>
-    <row r="105" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="Q105" s="4"/>
@@ -6828,7 +6828,7 @@
       <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
     </row>
-    <row r="106" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="Q106" s="4"/>
@@ -6839,7 +6839,7 @@
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
     </row>
-    <row r="107" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="Q107" s="4"/>
@@ -6850,7 +6850,7 @@
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
     </row>
-    <row r="108" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="Q108" s="4"/>
@@ -6861,7 +6861,7 @@
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
     </row>
-    <row r="109" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="Q109" s="4"/>
@@ -6872,7 +6872,7 @@
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
     </row>
-    <row r="110" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="Q110" s="4"/>
@@ -6883,7 +6883,7 @@
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
     </row>
-    <row r="111" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="Q111" s="4"/>
@@ -6894,7 +6894,7 @@
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
     </row>
-    <row r="112" spans="5:32" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="Q112" s="4"/>
@@ -6905,7 +6905,7 @@
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
     </row>
-    <row r="113" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="Q113" s="4"/>
@@ -6916,7 +6916,7 @@
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
     </row>
-    <row r="114" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="Q114" s="4"/>
@@ -6927,7 +6927,7 @@
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
     </row>
-    <row r="115" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="Q115" s="4"/>
@@ -6938,7 +6938,7 @@
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
     </row>
-    <row r="116" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="Q116" s="4"/>
@@ -6949,7 +6949,7 @@
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
     </row>
-    <row r="117" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="Q117" s="4"/>
@@ -6960,7 +6960,7 @@
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
     </row>
-    <row r="118" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="118" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="Q118" s="4"/>
@@ -6971,7 +6971,7 @@
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
     </row>
-    <row r="119" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="119" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="Q119" s="4"/>
@@ -6982,7 +6982,7 @@
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
     </row>
-    <row r="120" spans="5:25" x14ac:dyDescent="0.25">
+    <row r="120" spans="5:25" x14ac:dyDescent="0.15">
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="Q120" s="4"/>

--- a/Data/Export/Common/BuildingType_建筑类型.xlsx
+++ b/Data/Export/Common/BuildingType_建筑类型.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226E4059-D508-4035-90F8-179665B25210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9ABB27-672E-4C96-B3C5-DA8079A26EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="279">
   <si>
     <t>0</t>
   </si>
@@ -1018,6 +1018,10 @@
   </si>
   <si>
     <t>[{class:"BuildingImproveFoodGain", value:50, kinds:[33], bound:0}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aobj</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1520,10 +1524,10 @@
   <dimension ref="A1:AG120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AA31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AD43" sqref="AD43"/>
+      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1860,7 +1864,7 @@
         <v>5</v>
       </c>
       <c r="AD4" s="11" t="s">
-        <v>5</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.15">

--- a/Data/Export/Common/BuildingType_建筑类型.xlsx
+++ b/Data/Export/Common/BuildingType_建筑类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9ABB27-672E-4C96-B3C5-DA8079A26EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB5A88B-9B3F-4710-9A95-755A475FCEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6615" yWindow="1335" windowWidth="16620" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -1524,7 +1524,7 @@
   <dimension ref="A1:AG120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AA5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="AA26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>

--- a/Data/Export/Common/BuildingType_建筑类型.xlsx
+++ b/Data/Export/Common/BuildingType_建筑类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB5A88B-9B3F-4710-9A95-755A475FCEBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0DD4D6-D349-474D-83F2-0F40E2DDEE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="1335" windowWidth="16620" windowHeight="11385" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="298">
   <si>
     <t>0</t>
   </si>
@@ -177,9 +177,6 @@
     <t>符节台</t>
   </si>
   <si>
-    <t>军事府</t>
-  </si>
-  <si>
     <t>人材府</t>
   </si>
   <si>
@@ -382,18 +379,6 @@
     <t>农场效果提高1.5倍</t>
   </si>
   <si>
-    <t>行动力回复量增加５、一部份俘虏的忠诚变得容易下降</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>军事的所需行动力减半，并可以少额的资金设置军事设施、障碍物、陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>探索人材、登庸武将的所需行动力减半，并可缩短研究技巧的期间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外交的所需行动力减半，用于亲善的必要资金也减半。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,9 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>训练的效果增大，造船的生产期间缩短</t>
-  </si>
-  <si>
     <t>市场２倍的资金收入</t>
   </si>
   <si>
@@ -1022,6 +1004,109 @@
   </si>
   <si>
     <t>aobj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectAttrType</t>
+  </si>
+  <si>
+    <t>product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>workerLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productItems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8,9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出物
+-1 士兵
+-2 治安
+-3 气力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出影响属性
+0:统率
+1:武力
+2:智力
+3:政治
+4:魅力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可训练士兵气力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可自动探索人材、登庸武将</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可巡视领地增加治安，并可以少额的资金设置军事设施、障碍物、陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可使部份俘虏的忠诚变得容易下降,并且尝试招募俘虏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡查局</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,7 +1239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1211,6 +1296,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1521,13 +1609,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AG120"/>
+  <dimension ref="A1:AK120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="AA26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="Z28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1542,23 +1630,24 @@
     <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="15" width="19.5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17" style="2" customWidth="1"/>
-    <col min="17" max="18" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.25" style="2" customWidth="1"/>
-    <col min="23" max="23" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="71.875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="37.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="37.875" style="2" customWidth="1"/>
-    <col min="29" max="29" width="37.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="102.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="2"/>
+    <col min="16" max="19" width="17" style="2" customWidth="1"/>
+    <col min="20" max="21" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.25" style="2" customWidth="1"/>
+    <col min="26" max="26" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="71.875" style="2" customWidth="1"/>
+    <col min="30" max="30" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="37.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37.875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="37.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="102.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:37" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1568,84 +1657,96 @@
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="14" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="K1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="T1" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="U1" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z1" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="7"/>
-    </row>
-    <row r="2" spans="1:33" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AF1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="7"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="7"/>
+    </row>
+    <row r="2" spans="1:37" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1664,25 +1765,29 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2"/>
-      <c r="R2"/>
-      <c r="S2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="V2" s="19"/>
+      <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
-    </row>
-    <row r="3" spans="1:33" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1693,89 +1798,101 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="L3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M3" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="N3" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="N3" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="O3" s="8" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>116</v>
+        <v>278</v>
       </c>
       <c r="R3" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="T3" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="W3" s="8" t="s">
-        <v>229</v>
+        <v>103</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="Y3" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA3" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AD3" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="AA3" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-    </row>
-    <row r="4" spans="1:33" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AB3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD3" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF3" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG3" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH3" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+    </row>
+    <row r="4" spans="1:37" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1786,10 +1903,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>8</v>
@@ -1801,7 +1918,7 @@
         <v>8</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>8</v>
@@ -1819,55 +1936,67 @@
         <v>8</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>121</v>
+      <c r="Q4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="T4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="U4" s="15" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="V4" s="15" t="s">
-        <v>207</v>
+        <v>8</v>
       </c>
       <c r="W4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="X4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AB4" s="11" t="s">
+      <c r="AF4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="11" t="s">
+      <c r="AG4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AD4" s="11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AH4" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -1885,56 +2014,60 @@
         <v>1</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="J5" s="4">
-        <v>0</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="P5" s="6"/>
-      <c r="Q5" s="4">
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="4">
         <v>600</v>
       </c>
-      <c r="R5" s="4">
+      <c r="U5" s="4">
         <v>5600</v>
       </c>
-      <c r="S5" s="4">
-        <v>0</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>1</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="V5" s="4"/>
       <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z5" s="4">
         <v>250</v>
       </c>
-      <c r="X5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y5" s="4"/>
-      <c r="Z5" s="4"/>
-      <c r="AF5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AJ5" s="4"/>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -1953,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J6" s="4">
         <v>0</v>
@@ -1962,52 +2095,56 @@
         <v>0</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="P6" s="6"/>
-      <c r="Q6" s="4">
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="4">
         <v>300</v>
       </c>
-      <c r="R6" s="4">
+      <c r="U6" s="4">
         <v>2800</v>
       </c>
-      <c r="S6" s="4">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="V6" s="4"/>
       <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z6" s="4">
         <v>100</v>
       </c>
-      <c r="X6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-      <c r="AF6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AJ6" s="4"/>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
@@ -2020,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J7" s="4">
         <v>0</v>
@@ -2029,52 +2166,56 @@
         <v>0</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>1</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="P7" s="6"/>
-      <c r="Q7" s="4">
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="4">
         <v>300</v>
       </c>
-      <c r="R7" s="4">
+      <c r="U7" s="4">
         <v>2800</v>
       </c>
-      <c r="S7" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="T7" s="4">
-        <v>0</v>
-      </c>
-      <c r="U7" s="4">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>123</v>
-      </c>
+      <c r="V7" s="4"/>
       <c r="W7" s="4">
+        <v>0</v>
+      </c>
+      <c r="X7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z7" s="4">
         <v>50</v>
       </c>
-      <c r="X7" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AF7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AJ7" s="4"/>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -2087,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
@@ -2096,7 +2237,7 @@
         <v>1500</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>1</v>
@@ -2105,50 +2246,54 @@
         <v>1</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P8" s="6"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T8" s="4">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4">
         <v>600</v>
       </c>
-      <c r="U8" s="4">
-        <v>0</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W8" s="4">
-        <v>0</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC8" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ8" s="4"/>
+    </row>
+    <row r="9" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -2161,7 +2306,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J9" s="4">
         <v>26</v>
@@ -2170,7 +2315,7 @@
         <v>2000</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>1</v>
@@ -2179,50 +2324,54 @@
         <v>1</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P9" s="6"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T9" s="4">
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4">
         <v>900</v>
       </c>
-      <c r="U9" s="4">
-        <v>0</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W9" s="4">
-        <v>0</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="X9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ9" s="4"/>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -2235,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J10" s="4">
         <v>27</v>
@@ -2244,7 +2393,7 @@
         <v>2500</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>1</v>
@@ -2253,50 +2402,56 @@
         <v>1</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="P10" s="6"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="T10" s="4">
+      <c r="Q10" s="6">
+        <v>1</v>
+      </c>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4">
         <v>1200</v>
       </c>
-      <c r="U10" s="4">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W10" s="4">
-        <v>0</v>
-      </c>
-      <c r="X10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="X10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AJ10" s="4"/>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -2309,7 +2464,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
@@ -2321,51 +2476,57 @@
         <v>1</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
-      <c r="T11" s="4">
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4">
         <v>600</v>
       </c>
-      <c r="U11" s="4">
-        <v>0</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W11" s="4">
-        <v>0</v>
-      </c>
-      <c r="X11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="X11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE11" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ11" s="4"/>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2383,7 +2544,7 @@
         <v>2</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J12" s="4">
         <v>26</v>
@@ -2395,56 +2556,62 @@
         <v>1</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P12" s="6"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4">
-        <v>0</v>
-      </c>
-      <c r="T12" s="4">
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4">
         <v>600</v>
       </c>
-      <c r="U12" s="4">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W12" s="4">
-        <v>0</v>
-      </c>
-      <c r="X12" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="AF12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="X12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE12" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="AF12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AJ12" s="4"/>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D13" s="4">
         <v>2</v>
@@ -2457,7 +2624,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
@@ -2475,36 +2642,38 @@
         <v>1</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4">
-        <v>0</v>
-      </c>
-      <c r="T13" s="4">
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4">
         <v>300</v>
       </c>
-      <c r="U13" s="4">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W13" s="4">
-        <v>0</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF13" s="4"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="X13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AJ13" s="4"/>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2522,7 +2691,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J14" s="4">
         <v>22</v>
@@ -2540,36 +2709,38 @@
         <v>1</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P14" s="6"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4">
-        <v>0</v>
-      </c>
-      <c r="T14" s="4">
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4">
         <v>300</v>
       </c>
-      <c r="U14" s="4">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W14" s="4">
-        <v>0</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="AF14" s="4"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="X14" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ14" s="4"/>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2587,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J15" s="4">
         <v>23</v>
@@ -2602,39 +2773,45 @@
         <v>1</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P15" s="6"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4">
-        <v>0</v>
-      </c>
-      <c r="T15" s="4">
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4">
         <v>800</v>
       </c>
-      <c r="U15" s="4">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W15" s="4">
-        <v>0</v>
-      </c>
-      <c r="X15" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF15" s="4"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.15">
+      <c r="X15" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ15" s="4"/>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2652,7 +2829,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J16" s="4">
         <v>0</v>
@@ -2670,36 +2847,42 @@
         <v>1</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P16" s="6"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4">
-        <v>0</v>
-      </c>
-      <c r="T16" s="4">
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4">
         <v>500</v>
       </c>
-      <c r="U16" s="4">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W16" s="4">
-        <v>0</v>
-      </c>
-      <c r="X16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF16" s="4"/>
-    </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="X16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ16" s="4"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2717,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J17" s="4">
         <v>0</v>
@@ -2735,36 +2918,42 @@
         <v>1</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P17" s="6"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T17" s="4">
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4">
         <v>800</v>
       </c>
-      <c r="U17" s="4">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W17" s="4">
-        <v>0</v>
-      </c>
-      <c r="X17" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF17" s="4"/>
-    </row>
-    <row r="18" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X17" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ17" s="4"/>
+    </row>
+    <row r="18" spans="2:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2782,7 +2971,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J18" s="4">
         <v>22</v>
@@ -2800,41 +2989,47 @@
         <v>1</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P18" s="6"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T18" s="4">
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4">
         <v>1200</v>
       </c>
-      <c r="U18" s="4">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W18" s="4">
-        <v>0</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF18" s="4"/>
-    </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="X18" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AJ18" s="4"/>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -2847,7 +3042,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
@@ -2865,32 +3060,34 @@
         <v>1</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P19" s="6"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4">
-        <v>0.2</v>
-      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
       <c r="T19" s="4"/>
-      <c r="U19" s="4">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W19" s="4">
-        <v>0</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AF19" s="4"/>
-    </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+      <c r="AJ19" s="4"/>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -2908,7 +3105,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J20" s="4">
         <v>0</v>
@@ -2926,37 +3123,39 @@
         <v>1</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P20" s="6"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
       <c r="T20" s="4"/>
-      <c r="U20" s="4">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W20" s="4">
-        <v>0</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AF20" s="4"/>
-    </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AJ20" s="4"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
@@ -2969,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J21" s="4">
         <v>0</v>
@@ -2987,41 +3186,43 @@
         <v>1</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P21" s="6"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4">
         <v>200</v>
       </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AF21" s="4"/>
-    </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="X21" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AJ21" s="4"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D22" s="4">
         <v>3</v>
@@ -3034,7 +3235,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J22" s="4">
         <v>31</v>
@@ -3052,36 +3253,38 @@
         <v>1</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P22" s="6"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4">
-        <v>0</v>
-      </c>
-      <c r="T22" s="4">
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4">
         <v>200</v>
       </c>
-      <c r="U22" s="4">
-        <v>0</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W22" s="4">
-        <v>0</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AF22" s="4"/>
-    </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="X22" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AJ22" s="4"/>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -3099,7 +3302,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J23" s="4">
         <v>0</v>
@@ -3117,36 +3320,38 @@
         <v>1</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P23" s="6"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4">
-        <v>0</v>
-      </c>
-      <c r="T23" s="4">
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4">
         <v>200</v>
       </c>
-      <c r="U23" s="4">
-        <v>0</v>
-      </c>
-      <c r="V23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W23" s="4">
-        <v>0</v>
-      </c>
-      <c r="X23" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AF23" s="4"/>
-    </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="X23" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AJ23" s="4"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -3164,7 +3369,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J24" s="4">
         <v>31</v>
@@ -3182,36 +3387,38 @@
         <v>1</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P24" s="6"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4">
-        <v>0</v>
-      </c>
-      <c r="T24" s="4">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4">
         <v>200</v>
       </c>
-      <c r="U24" s="4">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W24" s="4">
-        <v>0</v>
-      </c>
-      <c r="X24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF24" s="4"/>
-    </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="X24" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AJ24" s="4"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -3229,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J25" s="4">
         <v>0</v>
@@ -3247,36 +3454,38 @@
         <v>1</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P25" s="6"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4">
-        <v>0</v>
-      </c>
-      <c r="T25" s="4">
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4">
         <v>200</v>
       </c>
-      <c r="U25" s="4">
-        <v>0</v>
-      </c>
-      <c r="V25" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W25" s="4">
-        <v>0</v>
-      </c>
-      <c r="X25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF25" s="4"/>
-    </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="X25" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ25" s="4"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -3294,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J26" s="4">
         <v>32</v>
@@ -3312,41 +3521,43 @@
         <v>1</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P26" s="6"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T26" s="4">
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4">
         <v>200</v>
       </c>
-      <c r="U26" s="4">
-        <v>0</v>
-      </c>
-      <c r="V26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W26" s="4">
-        <v>0</v>
-      </c>
-      <c r="X26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="AF26" s="4"/>
-    </row>
-    <row r="27" spans="2:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="X26" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AJ26" s="4"/>
+    </row>
+    <row r="27" spans="2:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="D27" s="4">
         <v>3</v>
@@ -3359,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J27" s="4">
         <v>32</v>
@@ -3377,36 +3588,38 @@
         <v>1</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P27" s="6"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="T27" s="4">
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4">
         <v>200</v>
       </c>
-      <c r="U27" s="4">
-        <v>0</v>
-      </c>
-      <c r="V27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W27" s="4">
-        <v>0</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF27" s="4"/>
-    </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="X27" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ27" s="4"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -3424,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J28" s="4">
         <v>0</v>
@@ -3442,32 +3655,34 @@
         <v>1</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P28" s="6"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4">
-        <v>0.2</v>
-      </c>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
       <c r="T28" s="4"/>
-      <c r="U28" s="4">
-        <v>0</v>
-      </c>
-      <c r="V28" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W28" s="4">
-        <v>0</v>
-      </c>
-      <c r="X28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AF28" s="4"/>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AJ28" s="4"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -3485,7 +3700,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J29" s="4">
         <v>0</v>
@@ -3503,32 +3718,34 @@
         <v>1</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P29" s="6"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
       <c r="T29" s="4"/>
-      <c r="U29" s="4">
-        <v>0</v>
-      </c>
-      <c r="V29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W29" s="4">
-        <v>0</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AF29" s="4"/>
-    </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AJ29" s="4"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -3546,7 +3763,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J30" s="4">
         <v>0</v>
@@ -3562,32 +3779,34 @@
         <v>1</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P30" s="6"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
       <c r="T30" s="4"/>
-      <c r="U30" s="4">
-        <v>0</v>
-      </c>
-      <c r="V30" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W30" s="4">
-        <v>0</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AF30" s="4"/>
-    </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AJ30" s="4"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -3605,7 +3824,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J31" s="4">
         <v>0</v>
@@ -3623,32 +3842,34 @@
         <v>1</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P31" s="6"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
       <c r="T31" s="4"/>
-      <c r="U31" s="4">
-        <v>0</v>
-      </c>
-      <c r="V31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W31" s="4">
-        <v>0</v>
-      </c>
-      <c r="X31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AF31" s="4"/>
-    </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AJ31" s="4"/>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -3666,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J32" s="4">
         <v>0</v>
@@ -3682,32 +3903,34 @@
         <v>1</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P32" s="6"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
       <c r="T32" s="4"/>
-      <c r="U32" s="4">
-        <v>0</v>
-      </c>
-      <c r="V32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="W32" s="4">
-        <v>0</v>
-      </c>
-      <c r="X32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AF32" s="4"/>
-    </row>
-    <row r="33" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AJ32" s="4"/>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -3725,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J33" s="4">
         <v>0</v>
@@ -3743,32 +3966,34 @@
         <v>1</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P33" s="6"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
       <c r="T33" s="4"/>
-      <c r="U33" s="4">
-        <v>0</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W33" s="4">
-        <v>0</v>
-      </c>
-      <c r="X33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AF33" s="4"/>
-    </row>
-    <row r="34" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AJ33" s="4"/>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -3786,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J34" s="4">
         <v>0</v>
@@ -3804,32 +4029,34 @@
         <v>1</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4">
-        <v>0</v>
-      </c>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
       <c r="T34" s="4"/>
-      <c r="U34" s="4">
-        <v>0</v>
-      </c>
-      <c r="V34" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W34" s="4">
-        <v>0</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AF34" s="4"/>
-    </row>
-    <row r="35" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AJ34" s="4"/>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -3847,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="J35" s="4">
         <v>0</v>
@@ -3865,41 +4092,43 @@
         <v>1</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P35" s="6"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4">
-        <v>0</v>
-      </c>
-      <c r="T35" s="4">
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4">
         <v>1500</v>
       </c>
-      <c r="U35" s="4">
-        <v>0</v>
-      </c>
-      <c r="V35" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W35" s="4">
+      <c r="X35" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z35" s="4">
         <v>100</v>
       </c>
-      <c r="X35" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y35" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z35" s="4"/>
-      <c r="AF35" s="4"/>
-    </row>
-    <row r="36" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC35" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD35" s="4"/>
+      <c r="AJ35" s="4"/>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>32</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D36" s="4">
         <v>4</v>
@@ -3914,7 +4143,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J36" s="4">
         <v>0</v>
@@ -3932,54 +4161,60 @@
         <v>1</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P36" s="6"/>
-      <c r="Q36" s="4">
+      <c r="Q36" s="6">
+        <v>1</v>
+      </c>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="4">
         <v>75</v>
       </c>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4">
-        <v>0</v>
-      </c>
-      <c r="T36" s="4">
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4">
         <v>200</v>
       </c>
-      <c r="U36" s="4">
-        <v>0</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W36" s="4">
+      <c r="X36" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z36" s="4">
         <v>30</v>
       </c>
-      <c r="X36" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="Y36" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z36" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AB36" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC36" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF36" s="4"/>
-    </row>
-    <row r="37" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA36" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC36" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE36" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG36" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ36" s="4"/>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="D37" s="4">
         <v>4</v>
@@ -3994,7 +4229,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J37" s="4">
         <v>0</v>
@@ -4012,54 +4247,60 @@
         <v>1</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="P37" s="6"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4">
+      <c r="Q37" s="6">
+        <v>1</v>
+      </c>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4">
         <v>1000</v>
       </c>
-      <c r="S37" s="4">
-        <v>0</v>
-      </c>
-      <c r="T37" s="4">
+      <c r="V37" s="4"/>
+      <c r="W37" s="4">
         <v>200</v>
       </c>
-      <c r="U37" s="4">
-        <v>0</v>
-      </c>
-      <c r="V37" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W37" s="4">
+      <c r="X37" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z37" s="4">
         <v>30</v>
       </c>
-      <c r="X37" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y37" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z37" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB37" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC37" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF37" s="4"/>
-    </row>
-    <row r="38" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA37" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB37" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC37" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE37" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG37" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AJ37" s="4"/>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>34</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D38" s="4">
         <v>4</v>
@@ -4068,13 +4309,13 @@
         <v>34</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H38" s="4">
         <v>1</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J38" s="4">
         <v>0</v>
@@ -4092,47 +4333,59 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="T38" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="W38" s="4">
         <v>300</v>
       </c>
-      <c r="U38" s="4">
-        <v>0</v>
-      </c>
-      <c r="V38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W38" s="4">
+      <c r="X38" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z38" s="4">
         <v>30</v>
       </c>
-      <c r="X38" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y38" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z38" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB38" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC38" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="39" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA38" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB38" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC38" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD38" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AF38" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG38" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>35</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="D39" s="4">
         <v>4</v>
@@ -4141,13 +4394,13 @@
         <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H39" s="4">
         <v>1</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J39" s="4">
         <v>0</v>
@@ -4165,47 +4418,59 @@
         <v>0</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
-      <c r="T39" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="W39" s="4">
         <v>300</v>
       </c>
-      <c r="U39" s="4">
-        <v>0</v>
-      </c>
-      <c r="V39" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W39" s="4">
+      <c r="X39" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z39" s="4">
         <v>30</v>
       </c>
-      <c r="X39" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y39" s="4" t="s">
+      <c r="AA39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC39" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD39" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE39" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="Z39" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AB39" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC39" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AF39" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG39" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>36</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D40" s="4">
         <v>4</v>
@@ -4214,13 +4479,13 @@
         <v>36</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H40" s="4">
         <v>1</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J40" s="4">
         <v>0</v>
@@ -4238,47 +4503,59 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q40" s="4"/>
-      <c r="R40" s="4"/>
-      <c r="T40" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="W40" s="4">
         <v>300</v>
       </c>
-      <c r="U40" s="4">
-        <v>0</v>
-      </c>
-      <c r="V40" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W40" s="4">
+      <c r="X40" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z40" s="4">
         <v>30</v>
       </c>
-      <c r="X40" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y40" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z40" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AB40" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC40" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="41" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC40" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD40" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE40" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF40" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG40" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>37</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="D41" s="4">
         <v>4</v>
@@ -4287,13 +4564,13 @@
         <v>37</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H41" s="4">
         <v>1</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J41" s="4">
         <v>0</v>
@@ -4311,47 +4588,59 @@
         <v>0</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="T41" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="W41" s="4">
         <v>300</v>
       </c>
-      <c r="U41" s="4">
-        <v>0</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W41" s="4">
+      <c r="X41" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z41" s="4">
         <v>30</v>
       </c>
-      <c r="X41" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y41" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z41" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB41" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC41" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA41" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB41" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC41" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE41" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF41" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG41" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>38</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D42" s="4">
         <v>4</v>
@@ -4360,13 +4649,13 @@
         <v>38</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H42" s="4">
         <v>1</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J42" s="4">
         <v>0</v>
@@ -4384,42 +4673,54 @@
         <v>0</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="T42" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R42" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="W42" s="4">
         <v>300</v>
       </c>
-      <c r="U42" s="4">
-        <v>0</v>
-      </c>
-      <c r="V42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W42" s="4">
+      <c r="X42" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z42" s="4">
         <v>30</v>
       </c>
-      <c r="X42" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y42" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="Z42" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB42" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC42" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="43" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA42" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB42" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC42" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE42" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG42" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -4436,7 +4737,7 @@
         <v>1</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J43" s="4">
         <v>0</v>
@@ -4454,48 +4755,54 @@
         <v>0</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="T43" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="W43" s="4">
         <v>400</v>
       </c>
-      <c r="U43" s="4">
-        <v>0</v>
-      </c>
-      <c r="V43" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W43" s="4">
+      <c r="X43" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z43" s="4">
         <v>30</v>
       </c>
-      <c r="X43" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA43" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="AB43" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC43" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="AA43" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB43" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC43" s="4"/>
       <c r="AD43" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="44" spans="2:32" x14ac:dyDescent="0.15">
+        <v>152</v>
+      </c>
+      <c r="AE43" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF43" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG43" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH43" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>40</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D44" s="4">
         <v>4</v>
@@ -4507,7 +4814,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J44" s="4">
         <v>0</v>
@@ -4525,43 +4832,49 @@
         <v>0</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
-      <c r="T44" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="W44" s="4">
         <v>400</v>
       </c>
-      <c r="U44" s="4">
-        <v>0</v>
-      </c>
-      <c r="V44" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W44" s="4">
+      <c r="X44" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z44" s="4">
         <v>30</v>
       </c>
-      <c r="X44" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB44" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC44" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="AA44" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB44" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC44" s="4"/>
       <c r="AD44" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="45" spans="2:32" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+      <c r="AE44" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF44" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG44" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH44" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -4578,7 +4891,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J45" s="4">
         <v>0</v>
@@ -4596,50 +4909,56 @@
         <v>0</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
-      <c r="T45" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="W45" s="4">
         <v>200</v>
       </c>
-      <c r="U45" s="4">
-        <v>0</v>
-      </c>
-      <c r="V45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W45" s="4">
+      <c r="X45" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z45" s="4">
         <v>30</v>
       </c>
-      <c r="X45" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="Y45" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z45" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB45" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC45" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="46" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA45" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB45" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="AC45" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF45" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG45" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>42</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>34</v>
+        <v>297</v>
       </c>
       <c r="D46" s="4">
         <v>4</v>
@@ -4651,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J46" s="4">
         <v>0</v>
@@ -4669,50 +4988,62 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="T46" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="W46" s="4">
         <v>200</v>
       </c>
-      <c r="U46" s="4">
-        <v>0</v>
-      </c>
-      <c r="V46" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W46" s="4">
+      <c r="X46" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z46" s="4">
         <v>30</v>
       </c>
-      <c r="X46" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y46" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z46" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB46" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC46" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="47" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB46" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC46" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF46" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG46" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>43</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D47" s="4">
         <v>4</v>
@@ -4724,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J47" s="4">
         <v>0</v>
@@ -4742,50 +5073,59 @@
         <v>0</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="T47" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="W47" s="4">
         <v>200</v>
       </c>
-      <c r="U47" s="4">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W47" s="4">
+      <c r="X47" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z47" s="4">
         <v>30</v>
       </c>
-      <c r="X47" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y47" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z47" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB47" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC47" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="48" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA47" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="AC47" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE47" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF47" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG47" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>44</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D48" s="4">
         <v>4</v>
@@ -4797,7 +5137,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J48" s="4">
         <v>0</v>
@@ -4815,50 +5155,56 @@
         <v>0</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
-      <c r="T48" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="W48" s="4">
         <v>200</v>
       </c>
-      <c r="U48" s="4">
-        <v>0</v>
-      </c>
-      <c r="V48" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W48" s="4">
+      <c r="X48" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z48" s="4">
         <v>30</v>
       </c>
-      <c r="X48" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y48" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z48" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA48" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="AB48" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC48" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA48" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC48" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD48" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE48" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AF48" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG48" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>45</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49" s="4">
         <v>4</v>
@@ -4870,7 +5216,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J49" s="4">
         <v>0</v>
@@ -4888,50 +5234,56 @@
         <v>0</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
-      <c r="T49" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="W49" s="4">
         <v>200</v>
       </c>
-      <c r="U49" s="4">
-        <v>0</v>
-      </c>
-      <c r="V49" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W49" s="4">
+      <c r="X49" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z49" s="4">
         <v>30</v>
       </c>
-      <c r="X49" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y49" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z49" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB49" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC49" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="50" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA49" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC49" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE49" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG49" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>46</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D50" s="4">
         <v>4</v>
@@ -4943,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J50" s="4">
         <v>0</v>
@@ -4961,50 +5313,62 @@
         <v>0</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="4"/>
-      <c r="T50" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="W50" s="4">
         <v>200</v>
       </c>
-      <c r="U50" s="4">
-        <v>0</v>
-      </c>
-      <c r="V50" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W50" s="4">
+      <c r="X50" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z50" s="4">
         <v>30</v>
       </c>
-      <c r="X50" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="Y50" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z50" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="AB50" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC50" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="51" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AC50" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD50" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE50" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF50" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG50" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>47</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D51" s="4">
         <v>4</v>
@@ -5016,7 +5380,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J51" s="4">
         <v>0</v>
@@ -5034,52 +5398,58 @@
         <v>0</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q51" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T51" s="4">
         <v>240</v>
       </c>
-      <c r="R51" s="4"/>
-      <c r="T51" s="4">
+      <c r="U51" s="4"/>
+      <c r="W51" s="4">
         <v>400</v>
       </c>
-      <c r="U51" s="4">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W51" s="4">
+      <c r="X51" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z51" s="4">
         <v>30</v>
       </c>
-      <c r="X51" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="Y51" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="Z51" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="AB51" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC51" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="52" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA51" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC51" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="AD51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE51" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF51" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG51" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>48</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D52" s="4">
         <v>4</v>
@@ -5091,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J52" s="4">
         <v>0</v>
@@ -5109,52 +5479,58 @@
         <v>0</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q52" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T52" s="4">
         <v>180</v>
       </c>
-      <c r="R52" s="4"/>
-      <c r="T52" s="4">
+      <c r="U52" s="4"/>
+      <c r="W52" s="4">
         <v>400</v>
       </c>
-      <c r="U52" s="4">
-        <v>0</v>
-      </c>
-      <c r="V52" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W52" s="4">
+      <c r="X52" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z52" s="4">
         <v>30</v>
       </c>
-      <c r="X52" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y52" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="Z52" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AA52" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB52" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC52" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="53" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA52" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC52" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD52" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE52" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF52" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG52" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>49</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D53" s="4">
         <v>4</v>
@@ -5166,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J53" s="4">
         <v>0</v>
@@ -5184,47 +5560,53 @@
         <v>0</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q53" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T53" s="4">
         <v>60</v>
       </c>
-      <c r="R53" s="4"/>
-      <c r="T53" s="4">
+      <c r="U53" s="4"/>
+      <c r="W53" s="4">
         <v>50</v>
       </c>
-      <c r="U53" s="4">
-        <v>0</v>
-      </c>
-      <c r="V53" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W53" s="4">
-        <v>0</v>
-      </c>
-      <c r="X53" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB53" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC53" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="54" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="X53" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE53" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AF53" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG53" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>50</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D54" s="4">
         <v>4</v>
@@ -5236,7 +5618,7 @@
         <v>1</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J54" s="4">
         <v>0</v>
@@ -5254,55 +5636,61 @@
         <v>0</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4">
+        <v>122</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4">
         <v>1600</v>
       </c>
-      <c r="T54" s="4">
+      <c r="W54" s="4">
         <v>400</v>
       </c>
-      <c r="U54" s="4">
-        <v>0</v>
-      </c>
-      <c r="V54" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W54" s="4">
+      <c r="X54" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z54" s="4">
         <v>30</v>
       </c>
-      <c r="X54" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y54" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z54" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="AB54" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC54" s="2" t="s">
-        <v>256</v>
+      <c r="AA54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC54" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="55" spans="2:30" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+      <c r="AE54" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF54" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG54" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH54" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="55" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>51</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D55" s="4">
         <v>4</v>
@@ -5311,13 +5699,13 @@
         <v>32</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H55" s="4">
         <v>2</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J55" s="4">
         <v>0</v>
@@ -5335,47 +5723,53 @@
         <v>0</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q55" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T55" s="4">
         <v>90</v>
       </c>
-      <c r="R55" s="4"/>
-      <c r="T55" s="4">
+      <c r="U55" s="4"/>
+      <c r="W55" s="4">
         <v>200</v>
       </c>
-      <c r="U55" s="4">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W55" s="4">
+      <c r="X55" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z55" s="4">
         <v>20</v>
       </c>
-      <c r="X55" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA55" s="2" t="s">
+      <c r="AA55" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE55" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF55" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AB55" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC55" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="56" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AG55" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
         <v>52</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D56" s="4">
         <v>4</v>
@@ -5387,7 +5781,7 @@
         <v>3</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J56" s="4">
         <v>0</v>
@@ -5405,47 +5799,53 @@
         <v>0</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q56" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T56" s="4">
         <v>120</v>
       </c>
-      <c r="R56" s="4"/>
-      <c r="T56" s="4">
+      <c r="U56" s="4"/>
+      <c r="W56" s="4">
         <v>200</v>
       </c>
-      <c r="U56" s="4">
-        <v>0</v>
-      </c>
-      <c r="V56" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W56" s="4">
+      <c r="X56" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z56" s="4">
         <v>20</v>
       </c>
-      <c r="X56" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AA56" s="2" t="s">
+      <c r="AA56" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB56" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE56" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AF56" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AB56" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC56" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AG56" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>53</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D57" s="4">
         <v>4</v>
@@ -5454,13 +5854,13 @@
         <v>33</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H57" s="4">
         <v>2</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J57" s="4">
         <v>0</v>
@@ -5478,47 +5878,53 @@
         <v>0</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4">
         <v>1200</v>
       </c>
-      <c r="T57" s="4">
+      <c r="W57" s="4">
         <v>200</v>
       </c>
-      <c r="U57" s="4">
-        <v>0</v>
-      </c>
-      <c r="V57" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W57" s="4">
+      <c r="X57" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z57" s="4">
         <v>20</v>
       </c>
-      <c r="X57" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA57" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB57" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC57" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="58" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA57" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE57" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF57" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG57" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
         <v>54</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D58" s="4">
         <v>4</v>
@@ -5530,7 +5936,7 @@
         <v>3</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J58" s="4">
         <v>0</v>
@@ -5548,47 +5954,53 @@
         <v>0</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4">
         <v>1600</v>
       </c>
-      <c r="T58" s="4">
+      <c r="W58" s="4">
         <v>200</v>
       </c>
-      <c r="U58" s="4">
-        <v>0</v>
-      </c>
-      <c r="V58" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W58" s="4">
+      <c r="X58" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z58" s="4">
         <v>20</v>
       </c>
-      <c r="X58" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA58" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="AB58" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC58" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="59" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA58" s="4">
+        <v>3</v>
+      </c>
+      <c r="AB58" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE58" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF58" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG58" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>55</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59" s="4">
         <v>4</v>
@@ -5597,13 +6009,13 @@
         <v>34</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H59" s="4">
         <v>2</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J59" s="4">
         <v>0</v>
@@ -5621,45 +6033,57 @@
         <v>0</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
-      <c r="T59" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="W59" s="4">
         <v>200</v>
       </c>
-      <c r="U59" s="4">
-        <v>0</v>
-      </c>
-      <c r="V59" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W59" s="4">
+      <c r="X59" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z59" s="4">
         <v>20</v>
       </c>
-      <c r="X59" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA59" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB59" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC59" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="60" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA59" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB59" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE59" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF59" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG59" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>56</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D60" s="4">
         <v>4</v>
@@ -5671,7 +6095,7 @@
         <v>3</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J60" s="4">
         <v>0</v>
@@ -5689,45 +6113,57 @@
         <v>0</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="T60" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="W60" s="4">
         <v>200</v>
       </c>
-      <c r="U60" s="4">
-        <v>0</v>
-      </c>
-      <c r="V60" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W60" s="4">
+      <c r="X60" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z60" s="4">
         <v>20</v>
       </c>
-      <c r="X60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA60" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB60" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC60" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="61" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA60" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB60" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AE60" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF60" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG60" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B61" s="4">
         <v>57</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D61" s="4">
         <v>4</v>
@@ -5736,13 +6172,13 @@
         <v>35</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H61" s="4">
         <v>2</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J61" s="4">
         <v>0</v>
@@ -5760,45 +6196,57 @@
         <v>0</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="T61" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="W61" s="4">
         <v>200</v>
       </c>
-      <c r="U61" s="4">
-        <v>0</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W61" s="4">
+      <c r="X61" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z61" s="4">
         <v>20</v>
       </c>
-      <c r="X61" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA61" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB61" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC61" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA61" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE61" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF61" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG61" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>58</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D62" s="4">
         <v>4</v>
@@ -5810,7 +6258,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J62" s="4">
         <v>0</v>
@@ -5828,45 +6276,57 @@
         <v>0</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="T62" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="W62" s="4">
         <v>200</v>
       </c>
-      <c r="U62" s="4">
-        <v>0</v>
-      </c>
-      <c r="V62" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W62" s="4">
+      <c r="X62" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z62" s="4">
         <v>20</v>
       </c>
-      <c r="X62" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA62" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="AB62" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC62" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="63" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA62" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB62" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE62" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF62" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG62" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>59</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D63" s="4">
         <v>4</v>
@@ -5881,7 +6341,7 @@
         <v>2</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J63" s="4">
         <v>0</v>
@@ -5899,46 +6359,58 @@
         <v>0</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4">
         <v>200</v>
       </c>
-      <c r="U63" s="4">
-        <v>0</v>
-      </c>
-      <c r="V63" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W63" s="4">
+      <c r="X63" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z63" s="4">
         <v>20</v>
       </c>
-      <c r="X63" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA63" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB63" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC63" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="64" spans="2:30" x14ac:dyDescent="0.15">
+      <c r="AA63" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB63" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE63" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF63" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG63" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B64" s="4">
         <v>60</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D64" s="4">
         <v>4</v>
@@ -5951,7 +6423,7 @@
         <v>3</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J64" s="4">
         <v>0</v>
@@ -5969,46 +6441,58 @@
         <v>0</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q64" s="4"/>
-      <c r="R64" s="4"/>
-      <c r="S64" s="4"/>
-      <c r="T64" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4">
         <v>200</v>
       </c>
-      <c r="U64" s="4">
-        <v>0</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W64" s="4">
+      <c r="X64" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z64" s="4">
         <v>20</v>
       </c>
-      <c r="X64" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y64" s="4"/>
-      <c r="Z64" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA64" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="AB64" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC64" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="65" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA64" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB64" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF64" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG64" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>61</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D65" s="4">
         <v>4</v>
@@ -6017,13 +6501,13 @@
         <v>37</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H65" s="4">
         <v>2</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J65" s="4">
         <v>0</v>
@@ -6041,45 +6525,57 @@
         <v>0</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="T65" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="W65" s="4">
         <v>200</v>
       </c>
-      <c r="U65" s="4">
-        <v>0</v>
-      </c>
-      <c r="V65" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W65" s="4">
+      <c r="X65" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z65" s="4">
         <v>30</v>
       </c>
-      <c r="X65" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA65" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB65" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC65" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA65" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB65" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE65" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF65" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG65" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>62</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D66" s="4">
         <v>4</v>
@@ -6091,7 +6587,7 @@
         <v>3</v>
       </c>
       <c r="I66" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J66" s="4">
         <v>0</v>
@@ -6109,45 +6605,57 @@
         <v>0</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="T66" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="W66" s="4">
         <v>200</v>
       </c>
-      <c r="U66" s="4">
-        <v>0</v>
-      </c>
-      <c r="V66" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W66" s="4">
+      <c r="X66" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z66" s="4">
         <v>30</v>
       </c>
-      <c r="X66" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA66" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="AB66" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC66" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="67" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA66" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB66" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE66" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF66" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG66" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D67" s="4">
         <v>4</v>
@@ -6156,13 +6664,13 @@
         <v>38</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H67" s="4">
         <v>2</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J67" s="4">
         <v>0</v>
@@ -6180,45 +6688,57 @@
         <v>0</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="T67" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="W67" s="4">
         <v>200</v>
       </c>
-      <c r="U67" s="4">
-        <v>0</v>
-      </c>
-      <c r="V67" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W67" s="4">
+      <c r="X67" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z67" s="4">
         <v>30</v>
       </c>
-      <c r="X67" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA67" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB67" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC67" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="68" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA67" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB67" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE67" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF67" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG67" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>64</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D68" s="4">
         <v>4</v>
@@ -6230,7 +6750,7 @@
         <v>3</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="J68" s="4">
         <v>0</v>
@@ -6248,58 +6768,68 @@
         <v>0</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="T68" s="4">
+        <v>222</v>
+      </c>
+      <c r="Q68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="S68" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="W68" s="4">
         <v>200</v>
       </c>
-      <c r="U68" s="4">
-        <v>0</v>
-      </c>
-      <c r="V68" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="W68" s="4">
+      <c r="X68" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Z68" s="4">
         <v>30</v>
       </c>
-      <c r="X68" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AA68" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB68" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC68" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="69" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AA68" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB68" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE68" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF68" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG68" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="4"/>
-      <c r="R69" s="4"/>
-      <c r="S69" s="4"/>
+      <c r="K69" s="4"/>
       <c r="T69" s="4"/>
       <c r="U69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
-      <c r="Y69" s="4"/>
-      <c r="AF69" s="4"/>
-    </row>
-    <row r="70" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+    </row>
+    <row r="70" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -6307,695 +6837,792 @@
       <c r="F70" s="4"/>
       <c r="J70" s="4"/>
       <c r="P70" s="6"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
       <c r="T70" s="4"/>
       <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="AF70" s="4"/>
-    </row>
-    <row r="71" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AJ70" s="4"/>
+    </row>
+    <row r="71" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="P71" s="6"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
       <c r="T71" s="4"/>
       <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
       <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="AF71" s="4"/>
-    </row>
-    <row r="72" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AJ71" s="4"/>
+    </row>
+    <row r="72" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="P72" s="6"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
       <c r="T72" s="4"/>
       <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
       <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="AF72" s="4"/>
-    </row>
-    <row r="73" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AJ72" s="4"/>
+    </row>
+    <row r="73" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="P73" s="6"/>
-      <c r="Q73" s="4"/>
-      <c r="R73" s="4"/>
-      <c r="S73" s="4"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
       <c r="T73" s="4"/>
       <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
       <c r="X73" s="4"/>
-      <c r="Y73" s="4"/>
-      <c r="AF73" s="4"/>
-    </row>
-    <row r="74" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AJ73" s="4"/>
+    </row>
+    <row r="74" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="P74" s="6"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
       <c r="T74" s="4"/>
       <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
       <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="AF74" s="4"/>
-    </row>
-    <row r="75" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AJ74" s="4"/>
+    </row>
+    <row r="75" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="P75" s="6"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
       <c r="T75" s="4"/>
       <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
       <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="AF75" s="4"/>
-    </row>
-    <row r="76" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AJ75" s="4"/>
+    </row>
+    <row r="76" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="P76" s="6"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
       <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="AF76" s="4"/>
-    </row>
-    <row r="77" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AJ76" s="4"/>
+    </row>
+    <row r="77" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="P77" s="6"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
       <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="AF77" s="4"/>
-    </row>
-    <row r="78" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AJ77" s="4"/>
+    </row>
+    <row r="78" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="P78" s="6"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
       <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="AF78" s="4"/>
-    </row>
-    <row r="79" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AJ78" s="4"/>
+    </row>
+    <row r="79" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="P79" s="6"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
       <c r="T79" s="4"/>
       <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
       <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="AF79" s="4"/>
-    </row>
-    <row r="80" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AJ79" s="4"/>
+    </row>
+    <row r="80" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="P80" s="6"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
       <c r="T80" s="4"/>
       <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
       <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="AF80" s="4"/>
-    </row>
-    <row r="81" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AJ80" s="4"/>
+    </row>
+    <row r="81" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="P81" s="6"/>
-      <c r="Q81" s="4"/>
-      <c r="R81" s="4"/>
-      <c r="S81" s="4"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
       <c r="T81" s="4"/>
       <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
       <c r="X81" s="4"/>
-      <c r="Y81" s="4"/>
-      <c r="AF81" s="4"/>
-    </row>
-    <row r="82" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AJ81" s="4"/>
+    </row>
+    <row r="82" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="P82" s="6"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
       <c r="T82" s="4"/>
       <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
       <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="AF82" s="4"/>
-    </row>
-    <row r="83" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AJ82" s="4"/>
+    </row>
+    <row r="83" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="P83" s="6"/>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-      <c r="S83" s="4"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
       <c r="T83" s="4"/>
       <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
       <c r="X83" s="4"/>
-      <c r="Y83" s="4"/>
-      <c r="AF83" s="4"/>
-    </row>
-    <row r="84" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AJ83" s="4"/>
+    </row>
+    <row r="84" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="P84" s="6"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
       <c r="T84" s="4"/>
       <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
       <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="AF84" s="4"/>
-    </row>
-    <row r="85" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+      <c r="AJ84" s="4"/>
+    </row>
+    <row r="85" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="P85" s="6"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
       <c r="T85" s="4"/>
       <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
       <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="AF85" s="4"/>
-    </row>
-    <row r="86" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+      <c r="AJ85" s="4"/>
+    </row>
+    <row r="86" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="P86" s="6"/>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-      <c r="S86" s="4"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
       <c r="T86" s="4"/>
       <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
       <c r="X86" s="4"/>
-      <c r="Y86" s="4"/>
-      <c r="AF86" s="4"/>
-    </row>
-    <row r="87" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB86" s="4"/>
+      <c r="AC86" s="4"/>
+      <c r="AJ86" s="4"/>
+    </row>
+    <row r="87" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="P87" s="6"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
       <c r="T87" s="4"/>
       <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
       <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="AF87" s="4"/>
-    </row>
-    <row r="88" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+      <c r="AJ87" s="4"/>
+    </row>
+    <row r="88" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="P88" s="6"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
       <c r="T88" s="4"/>
       <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
       <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="AF88" s="4"/>
-    </row>
-    <row r="89" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB88" s="4"/>
+      <c r="AC88" s="4"/>
+      <c r="AJ88" s="4"/>
+    </row>
+    <row r="89" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="P89" s="6"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
       <c r="T89" s="4"/>
       <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
       <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="AF89" s="4"/>
-    </row>
-    <row r="90" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+      <c r="AJ89" s="4"/>
+    </row>
+    <row r="90" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="P90" s="6"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
       <c r="T90" s="4"/>
       <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
       <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="AF90" s="4"/>
-    </row>
-    <row r="91" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="4"/>
+      <c r="AJ90" s="4"/>
+    </row>
+    <row r="91" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="P91" s="6"/>
-      <c r="Q91" s="4"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="4"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
       <c r="T91" s="4"/>
       <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
       <c r="X91" s="4"/>
-      <c r="Y91" s="4"/>
-      <c r="AF91" s="4"/>
-    </row>
-    <row r="92" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AJ91" s="4"/>
+    </row>
+    <row r="92" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="P92" s="6"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
       <c r="T92" s="4"/>
       <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
       <c r="X92" s="4"/>
-      <c r="Y92" s="4"/>
-      <c r="AF92" s="4"/>
-    </row>
-    <row r="93" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AJ92" s="4"/>
+    </row>
+    <row r="93" spans="2:36" x14ac:dyDescent="0.15">
       <c r="B93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
       <c r="T93" s="4"/>
       <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
       <c r="X93" s="4"/>
-      <c r="Y93" s="4"/>
-      <c r="AF93" s="4"/>
-    </row>
-    <row r="94" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+      <c r="AJ93" s="4"/>
+    </row>
+    <row r="94" spans="2:36" x14ac:dyDescent="0.15">
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="P94" s="6"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
       <c r="T94" s="4"/>
       <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
       <c r="X94" s="4"/>
-      <c r="Y94" s="4"/>
-      <c r="AF94" s="4"/>
-    </row>
-    <row r="95" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+      <c r="AJ94" s="4"/>
+    </row>
+    <row r="95" spans="2:36" x14ac:dyDescent="0.15">
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="P95" s="6"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
       <c r="T95" s="4"/>
       <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
       <c r="X95" s="4"/>
-      <c r="Y95" s="4"/>
-      <c r="AF95" s="4"/>
-    </row>
-    <row r="96" spans="2:32" x14ac:dyDescent="0.15">
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AJ95" s="4"/>
+    </row>
+    <row r="96" spans="2:36" x14ac:dyDescent="0.15">
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="P96" s="6"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
       <c r="T96" s="4"/>
       <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
       <c r="X96" s="4"/>
-      <c r="Y96" s="4"/>
-      <c r="AF96" s="4"/>
-    </row>
-    <row r="97" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+      <c r="AJ96" s="4"/>
+    </row>
+    <row r="97" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="P97" s="6"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
       <c r="X97" s="4"/>
-      <c r="Y97" s="4"/>
-      <c r="AF97" s="4"/>
-    </row>
-    <row r="98" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+      <c r="AJ97" s="4"/>
+    </row>
+    <row r="98" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="P98" s="6"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
       <c r="X98" s="4"/>
-      <c r="Y98" s="4"/>
-      <c r="AF98" s="4"/>
-    </row>
-    <row r="99" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="4"/>
+      <c r="AJ98" s="4"/>
+    </row>
+    <row r="99" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="P99" s="6"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
       <c r="X99" s="4"/>
-      <c r="Y99" s="4"/>
-      <c r="AF99" s="4"/>
-    </row>
-    <row r="100" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+      <c r="AJ99" s="4"/>
+    </row>
+    <row r="100" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="P100" s="6"/>
-      <c r="Q100" s="4"/>
-      <c r="R100" s="4"/>
-      <c r="S100" s="4"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
       <c r="T100" s="4"/>
       <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
       <c r="X100" s="4"/>
-      <c r="Y100" s="4"/>
-      <c r="AF100" s="4"/>
-    </row>
-    <row r="101" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB100" s="4"/>
+      <c r="AC100" s="4"/>
+      <c r="AJ100" s="4"/>
+    </row>
+    <row r="101" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="P101" s="6"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
       <c r="T101" s="4"/>
       <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
       <c r="X101" s="4"/>
-      <c r="Y101" s="4"/>
-      <c r="AF101" s="4"/>
-    </row>
-    <row r="102" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB101" s="4"/>
+      <c r="AC101" s="4"/>
+      <c r="AJ101" s="4"/>
+    </row>
+    <row r="102" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="P102" s="6"/>
-      <c r="Q102" s="4"/>
-      <c r="R102" s="4"/>
-      <c r="S102" s="4"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
       <c r="T102" s="4"/>
       <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
       <c r="X102" s="4"/>
-      <c r="Y102" s="4"/>
-      <c r="AF102" s="4"/>
-    </row>
-    <row r="103" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB102" s="4"/>
+      <c r="AC102" s="4"/>
+      <c r="AJ102" s="4"/>
+    </row>
+    <row r="103" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
       <c r="T103" s="4"/>
       <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
       <c r="X103" s="4"/>
-      <c r="Y103" s="4"/>
-    </row>
-    <row r="104" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB103" s="4"/>
+      <c r="AC103" s="4"/>
+    </row>
+    <row r="104" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
       <c r="T104" s="4"/>
       <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
       <c r="X104" s="4"/>
-      <c r="Y104" s="4"/>
-    </row>
-    <row r="105" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB104" s="4"/>
+      <c r="AC104" s="4"/>
+    </row>
+    <row r="105" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
       <c r="T105" s="4"/>
       <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
       <c r="X105" s="4"/>
-      <c r="Y105" s="4"/>
-    </row>
-    <row r="106" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB105" s="4"/>
+      <c r="AC105" s="4"/>
+    </row>
+    <row r="106" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
       <c r="T106" s="4"/>
       <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
       <c r="X106" s="4"/>
-      <c r="Y106" s="4"/>
-    </row>
-    <row r="107" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB106" s="4"/>
+      <c r="AC106" s="4"/>
+    </row>
+    <row r="107" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="Q107" s="4"/>
-      <c r="R107" s="4"/>
-      <c r="S107" s="4"/>
       <c r="T107" s="4"/>
       <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
       <c r="X107" s="4"/>
-      <c r="Y107" s="4"/>
-    </row>
-    <row r="108" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB107" s="4"/>
+      <c r="AC107" s="4"/>
+    </row>
+    <row r="108" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
       <c r="T108" s="4"/>
       <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
       <c r="X108" s="4"/>
-      <c r="Y108" s="4"/>
-    </row>
-    <row r="109" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB108" s="4"/>
+      <c r="AC108" s="4"/>
+    </row>
+    <row r="109" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4"/>
-      <c r="S109" s="4"/>
       <c r="T109" s="4"/>
       <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
       <c r="X109" s="4"/>
-      <c r="Y109" s="4"/>
-    </row>
-    <row r="110" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB109" s="4"/>
+      <c r="AC109" s="4"/>
+    </row>
+    <row r="110" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
-      <c r="S110" s="4"/>
       <c r="T110" s="4"/>
       <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
       <c r="X110" s="4"/>
-      <c r="Y110" s="4"/>
-    </row>
-    <row r="111" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB110" s="4"/>
+      <c r="AC110" s="4"/>
+    </row>
+    <row r="111" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
-      <c r="S111" s="4"/>
       <c r="T111" s="4"/>
       <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
       <c r="X111" s="4"/>
-      <c r="Y111" s="4"/>
-    </row>
-    <row r="112" spans="5:32" x14ac:dyDescent="0.15">
+      <c r="AB111" s="4"/>
+      <c r="AC111" s="4"/>
+    </row>
+    <row r="112" spans="5:36" x14ac:dyDescent="0.15">
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
-      <c r="S112" s="4"/>
       <c r="T112" s="4"/>
       <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
       <c r="X112" s="4"/>
-      <c r="Y112" s="4"/>
-    </row>
-    <row r="113" spans="5:25" x14ac:dyDescent="0.15">
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+    </row>
+    <row r="113" spans="5:29" x14ac:dyDescent="0.15">
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
-      <c r="S113" s="4"/>
       <c r="T113" s="4"/>
       <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
       <c r="X113" s="4"/>
-      <c r="Y113" s="4"/>
-    </row>
-    <row r="114" spans="5:25" x14ac:dyDescent="0.15">
+      <c r="AB113" s="4"/>
+      <c r="AC113" s="4"/>
+    </row>
+    <row r="114" spans="5:29" x14ac:dyDescent="0.15">
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="Q114" s="4"/>
-      <c r="R114" s="4"/>
-      <c r="S114" s="4"/>
       <c r="T114" s="4"/>
       <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
       <c r="X114" s="4"/>
-      <c r="Y114" s="4"/>
-    </row>
-    <row r="115" spans="5:25" x14ac:dyDescent="0.15">
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
+    </row>
+    <row r="115" spans="5:29" x14ac:dyDescent="0.15">
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4"/>
-      <c r="S115" s="4"/>
       <c r="T115" s="4"/>
       <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
       <c r="X115" s="4"/>
-      <c r="Y115" s="4"/>
-    </row>
-    <row r="116" spans="5:25" x14ac:dyDescent="0.15">
+      <c r="AB115" s="4"/>
+      <c r="AC115" s="4"/>
+    </row>
+    <row r="116" spans="5:29" x14ac:dyDescent="0.15">
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="Q116" s="4"/>
-      <c r="R116" s="4"/>
-      <c r="S116" s="4"/>
       <c r="T116" s="4"/>
       <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
       <c r="X116" s="4"/>
-      <c r="Y116" s="4"/>
-    </row>
-    <row r="117" spans="5:25" x14ac:dyDescent="0.15">
+      <c r="AB116" s="4"/>
+      <c r="AC116" s="4"/>
+    </row>
+    <row r="117" spans="5:29" x14ac:dyDescent="0.15">
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="Q117" s="4"/>
-      <c r="R117" s="4"/>
-      <c r="S117" s="4"/>
       <c r="T117" s="4"/>
       <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
       <c r="X117" s="4"/>
-      <c r="Y117" s="4"/>
-    </row>
-    <row r="118" spans="5:25" x14ac:dyDescent="0.15">
+      <c r="AB117" s="4"/>
+      <c r="AC117" s="4"/>
+    </row>
+    <row r="118" spans="5:29" x14ac:dyDescent="0.15">
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
       <c r="T118" s="4"/>
       <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
       <c r="X118" s="4"/>
-      <c r="Y118" s="4"/>
-    </row>
-    <row r="119" spans="5:25" x14ac:dyDescent="0.15">
+      <c r="AB118" s="4"/>
+      <c r="AC118" s="4"/>
+    </row>
+    <row r="119" spans="5:29" x14ac:dyDescent="0.15">
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="Q119" s="4"/>
-      <c r="R119" s="4"/>
-      <c r="S119" s="4"/>
       <c r="T119" s="4"/>
       <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
       <c r="X119" s="4"/>
-      <c r="Y119" s="4"/>
-    </row>
-    <row r="120" spans="5:25" x14ac:dyDescent="0.15">
+      <c r="AB119" s="4"/>
+      <c r="AC119" s="4"/>
+    </row>
+    <row r="120" spans="5:29" x14ac:dyDescent="0.15">
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="Q120" s="4"/>
-      <c r="R120" s="4"/>
-      <c r="S120" s="4"/>
       <c r="T120" s="4"/>
       <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
       <c r="X120" s="4"/>
-      <c r="Y120" s="4"/>
+      <c r="AB120" s="4"/>
+      <c r="AC120" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/Export/Common/BuildingType_建筑类型.xlsx
+++ b/Data/Export/Common/BuildingType_建筑类型.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0DD4D6-D349-474D-83F2-0F40E2DDEE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0A63FE-08B7-4450-8B9D-8BC9120A863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="312">
   <si>
     <t>0</t>
   </si>
@@ -1023,18 +1023,6 @@
   </si>
   <si>
     <t>workerLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1107,6 +1095,74 @@
   </si>
   <si>
     <t>巡查局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>165</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>productFactor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1609,45 +1665,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AK120"/>
+  <dimension ref="A1:AM120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="Z28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="P29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomRight" activeCell="U45" sqref="U45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="5" width="16.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="19.5" style="2" customWidth="1"/>
-    <col min="16" max="19" width="17" style="2" customWidth="1"/>
-    <col min="20" max="21" width="10.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="10.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="71.875" style="2" customWidth="1"/>
-    <col min="30" max="30" width="21.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="37.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="37.875" style="2" customWidth="1"/>
-    <col min="33" max="33" width="37.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="102.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="16.08984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.6328125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.7265625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="19.453125" style="2" customWidth="1"/>
+    <col min="16" max="21" width="17" style="2" customWidth="1"/>
+    <col min="22" max="23" width="10.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.26953125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="71.90625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="37.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="37.90625" style="2" customWidth="1"/>
+    <col min="35" max="35" width="37.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="102.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:39" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1697,56 +1753,62 @@
         <v>276</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="T1" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="AA1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="AA1" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="AD1" s="9" t="s">
+      <c r="AF1" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF1" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="AG1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="7"/>
+      <c r="AH1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="7"/>
-    </row>
-    <row r="2" spans="1:37" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="7"/>
+    </row>
+    <row r="2" spans="1:39" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1768,26 +1830,28 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2"/>
-      <c r="U2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
       <c r="V2"/>
       <c r="W2"/>
       <c r="X2"/>
-      <c r="Y2" s="19"/>
+      <c r="Y2"/>
       <c r="Z2"/>
-      <c r="AA2"/>
+      <c r="AA2" s="19"/>
       <c r="AB2"/>
       <c r="AC2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
       <c r="AF2" s="2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
-    </row>
-    <row r="3" spans="1:37" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+    </row>
+    <row r="3" spans="1:39" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1841,58 +1905,64 @@
         <v>275</v>
       </c>
       <c r="S3" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="T3" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AD3" s="13" t="s">
+      <c r="AF3" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AH3" s="8" t="s">
+      <c r="AJ3" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
-    </row>
-    <row r="4" spans="1:37" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8"/>
+    </row>
+    <row r="4" spans="1:39" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1948,42 +2018,42 @@
         <v>8</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="T4" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="U4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="X4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AB4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AC4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="15" t="s">
+      <c r="AD4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AC4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="11" t="s">
+      <c r="AE4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AF4" s="11" t="s">
@@ -1993,10 +2063,16 @@
         <v>5</v>
       </c>
       <c r="AH4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ4" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -2038,36 +2114,40 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="4">
-        <v>600</v>
-      </c>
-      <c r="U5" s="4">
-        <v>5600</v>
-      </c>
-      <c r="V5" s="4"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4">
+        <v>200</v>
+      </c>
       <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="AB5" s="4">
         <v>250</v>
       </c>
-      <c r="AA5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="4" t="s">
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AJ5" s="4"/>
-    </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AL5" s="4"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -2110,36 +2190,40 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="4">
-        <v>300</v>
-      </c>
-      <c r="U6" s="4">
-        <v>2800</v>
-      </c>
-      <c r="V6" s="4"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6">
+        <v>1</v>
+      </c>
+      <c r="V6" s="4">
+        <v>80</v>
+      </c>
       <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="AB6" s="4">
         <v>100</v>
       </c>
-      <c r="AA6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AC6" s="4"/>
-      <c r="AD6" s="4"/>
-      <c r="AJ6" s="4"/>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AL6" s="4"/>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -2181,36 +2265,40 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="4">
-        <v>300</v>
-      </c>
-      <c r="U7" s="4">
-        <v>2800</v>
-      </c>
-      <c r="V7" s="4"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4">
+        <v>100</v>
+      </c>
       <c r="W7" s="4">
-        <v>0</v>
-      </c>
-      <c r="X7" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="AB7" s="4">
         <v>50</v>
       </c>
-      <c r="AA7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AC7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AC7" s="4"/>
-      <c r="AD7" s="4"/>
-      <c r="AJ7" s="4"/>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AL7" s="4"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -2252,43 +2340,47 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6">
+        <v>1</v>
+      </c>
       <c r="V8" s="4"/>
-      <c r="W8" s="4">
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4">
         <v>600</v>
       </c>
-      <c r="X8" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z8" s="4">
         <v>0</v>
       </c>
-      <c r="AA8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="4" t="s">
+      <c r="AA8" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AC8" s="4"/>
-      <c r="AD8" s="2" t="s">
+      <c r="AE8" s="4"/>
+      <c r="AF8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AI8" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AJ8" s="4"/>
-    </row>
-    <row r="9" spans="1:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL8" s="4"/>
+    </row>
+    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -2330,43 +2422,47 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6">
+        <v>1</v>
+      </c>
       <c r="V9" s="4"/>
-      <c r="W9" s="4">
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4">
         <v>900</v>
       </c>
-      <c r="X9" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z9" s="4">
         <v>0</v>
       </c>
-      <c r="AA9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="4" t="s">
+      <c r="AA9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AC9" s="4"/>
-      <c r="AD9" s="2" t="s">
+      <c r="AE9" s="4"/>
+      <c r="AF9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AG9" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AF9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AI9" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AJ9" s="4"/>
-    </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL9" s="4"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2410,43 +2506,47 @@
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6">
+        <v>1</v>
+      </c>
       <c r="V10" s="4"/>
-      <c r="W10" s="4">
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4">
         <v>1200</v>
       </c>
-      <c r="X10" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z10" s="4">
         <v>0</v>
       </c>
-      <c r="AA10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="4" t="s">
+      <c r="AA10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AC10" s="4"/>
-      <c r="AD10" s="2" t="s">
+      <c r="AE10" s="4"/>
+      <c r="AF10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AG10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AF10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AI10" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AJ10" s="4"/>
-    </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL10" s="4"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2490,43 +2590,47 @@
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6">
+        <v>1</v>
+      </c>
       <c r="V11" s="4"/>
-      <c r="W11" s="4">
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4">
         <v>600</v>
       </c>
-      <c r="X11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z11" s="4">
         <v>0</v>
       </c>
-      <c r="AA11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="4" t="s">
+      <c r="AA11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="2" t="s">
+      <c r="AE11" s="4"/>
+      <c r="AF11" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AJ11" s="4"/>
-    </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL11" s="4"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2570,43 +2674,47 @@
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6">
+        <v>1</v>
+      </c>
       <c r="V12" s="4"/>
-      <c r="W12" s="4">
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4">
         <v>600</v>
       </c>
-      <c r="X12" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z12" s="4">
         <v>0</v>
       </c>
-      <c r="AA12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="4" t="s">
+      <c r="AA12" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="2" t="s">
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AG12" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="AF12" s="2" t="s">
+      <c r="AH12" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AI12" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AJ12" s="4"/>
-    </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL12" s="4"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2648,32 +2756,36 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6">
+        <v>1</v>
+      </c>
       <c r="V13" s="4"/>
-      <c r="W13" s="4">
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4">
         <v>300</v>
       </c>
-      <c r="X13" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Z13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4" t="s">
+      <c r="AB13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="2" t="s">
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AJ13" s="4"/>
-    </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL13" s="4"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2715,32 +2827,36 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6">
+        <v>1</v>
+      </c>
       <c r="V14" s="4"/>
-      <c r="W14" s="4">
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4">
         <v>300</v>
       </c>
-      <c r="X14" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2" t="s">
+      <c r="Z14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4" t="s">
+      <c r="AB14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="2" t="s">
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AJ14" s="4"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL14" s="4"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2784,34 +2900,38 @@
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6">
+        <v>1</v>
+      </c>
       <c r="V15" s="4"/>
-      <c r="W15" s="4">
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4">
         <v>800</v>
       </c>
-      <c r="X15" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z15" s="4">
         <v>0</v>
       </c>
-      <c r="AA15" s="4">
+      <c r="AA15" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="4">
         <v>2</v>
       </c>
-      <c r="AB15" s="4" t="s">
+      <c r="AD15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="2" t="s">
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AJ15" s="4"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.15">
+      <c r="AL15" s="4"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2855,34 +2975,38 @@
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6">
+        <v>1</v>
+      </c>
       <c r="V16" s="4"/>
-      <c r="W16" s="4">
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4">
         <v>500</v>
       </c>
-      <c r="X16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z16" s="4">
         <v>0</v>
       </c>
-      <c r="AA16" s="4">
+      <c r="AA16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="4">
         <v>2</v>
       </c>
-      <c r="AB16" s="4" t="s">
+      <c r="AD16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="2" t="s">
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AJ16" s="4"/>
-    </row>
-    <row r="17" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AL16" s="4"/>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -2926,34 +3050,38 @@
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6">
+        <v>1</v>
+      </c>
       <c r="V17" s="4"/>
-      <c r="W17" s="4">
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4">
         <v>800</v>
       </c>
-      <c r="X17" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z17" s="4">
         <v>0</v>
       </c>
-      <c r="AA17" s="4">
+      <c r="AA17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="4">
         <v>2</v>
       </c>
-      <c r="AB17" s="4" t="s">
+      <c r="AD17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="2" t="s">
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AJ17" s="4"/>
-    </row>
-    <row r="18" spans="2:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL17" s="4"/>
+    </row>
+    <row r="18" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -2997,34 +3125,38 @@
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6">
+        <v>1</v>
+      </c>
       <c r="V18" s="4"/>
-      <c r="W18" s="4">
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4">
         <v>1200</v>
       </c>
-      <c r="X18" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2" t="s">
+      <c r="Z18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="4">
+      <c r="AB18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="4">
         <v>2</v>
       </c>
-      <c r="AB18" s="4" t="s">
+      <c r="AD18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="2" t="s">
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AJ18" s="4"/>
-    </row>
-    <row r="19" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AL18" s="4"/>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -3066,28 +3198,32 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6">
+        <v>1</v>
+      </c>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
       <c r="Z19" s="4">
         <v>0</v>
       </c>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4" t="s">
+      <c r="AA19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AJ19" s="4"/>
-    </row>
-    <row r="20" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
+      <c r="AL19" s="4"/>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -3129,28 +3265,32 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6">
+        <v>1</v>
+      </c>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
-      <c r="X20" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
       <c r="Z20" s="4">
         <v>0</v>
       </c>
-      <c r="AA20" s="4"/>
-      <c r="AB20" s="4" t="s">
+      <c r="AA20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4"/>
-      <c r="AJ20" s="4"/>
-    </row>
-    <row r="21" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AL20" s="4"/>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -3192,32 +3332,36 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6">
+        <v>1</v>
+      </c>
       <c r="V21" s="4"/>
-      <c r="W21" s="4">
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4">
         <v>200</v>
       </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z21" s="4">
         <v>0</v>
       </c>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4" t="s">
+      <c r="AA21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="2" t="s">
+      <c r="AE21" s="4"/>
+      <c r="AF21" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AJ21" s="4"/>
-    </row>
-    <row r="22" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AL21" s="4"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -3259,32 +3403,36 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6">
+        <v>1</v>
+      </c>
       <c r="V22" s="4"/>
-      <c r="W22" s="4">
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4">
         <v>200</v>
       </c>
-      <c r="X22" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z22" s="4">
         <v>0</v>
       </c>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4" t="s">
+      <c r="AA22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="2" t="s">
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AJ22" s="4"/>
-    </row>
-    <row r="23" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AL22" s="4"/>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -3326,32 +3474,36 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6">
+        <v>1</v>
+      </c>
       <c r="V23" s="4"/>
-      <c r="W23" s="4">
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4">
         <v>200</v>
       </c>
-      <c r="X23" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z23" s="4">
         <v>0</v>
       </c>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4" t="s">
+      <c r="AA23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="2" t="s">
+      <c r="AE23" s="4"/>
+      <c r="AF23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AJ23" s="4"/>
-    </row>
-    <row r="24" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AL23" s="4"/>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -3393,32 +3545,36 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6">
+        <v>1</v>
+      </c>
       <c r="V24" s="4"/>
-      <c r="W24" s="4">
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4">
         <v>200</v>
       </c>
-      <c r="X24" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z24" s="4">
         <v>0</v>
       </c>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4" t="s">
+      <c r="AA24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="2" t="s">
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AJ24" s="4"/>
-    </row>
-    <row r="25" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AL24" s="4"/>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -3460,32 +3616,36 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6">
+        <v>1</v>
+      </c>
       <c r="V25" s="4"/>
-      <c r="W25" s="4">
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4">
         <v>200</v>
       </c>
-      <c r="X25" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z25" s="4">
         <v>0</v>
       </c>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4" t="s">
+      <c r="AA25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="2" t="s">
+      <c r="AE25" s="4"/>
+      <c r="AF25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AJ25" s="4"/>
-    </row>
-    <row r="26" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AL25" s="4"/>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -3527,32 +3687,36 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6">
+        <v>1</v>
+      </c>
       <c r="V26" s="4"/>
-      <c r="W26" s="4">
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4">
         <v>200</v>
       </c>
-      <c r="X26" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z26" s="4">
         <v>0</v>
       </c>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4" t="s">
+      <c r="AA26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="2" t="s">
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AJ26" s="4"/>
-    </row>
-    <row r="27" spans="2:36" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL26" s="4"/>
+    </row>
+    <row r="27" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -3594,32 +3758,36 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6">
+        <v>1</v>
+      </c>
       <c r="V27" s="4"/>
-      <c r="W27" s="4">
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4">
         <v>200</v>
       </c>
-      <c r="X27" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z27" s="4">
         <v>0</v>
       </c>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4" t="s">
+      <c r="AA27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="2" t="s">
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AJ27" s="4"/>
-    </row>
-    <row r="28" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AL27" s="4"/>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -3661,28 +3829,32 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6">
+        <v>1</v>
+      </c>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
-      <c r="X28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="2" t="s">
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4" t="s">
+      <c r="AB28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AJ28" s="4"/>
-    </row>
-    <row r="29" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AL28" s="4"/>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -3724,28 +3896,32 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6">
+        <v>1</v>
+      </c>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-      <c r="X29" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="2" t="s">
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4" t="s">
+      <c r="AB29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AJ29" s="4"/>
-    </row>
-    <row r="30" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AL29" s="4"/>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -3785,28 +3961,32 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6">
+        <v>1</v>
+      </c>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-      <c r="X30" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="2" t="s">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4" t="s">
+      <c r="AB30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4"/>
-      <c r="AJ30" s="4"/>
-    </row>
-    <row r="31" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AL30" s="4"/>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -3848,28 +4028,32 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6">
+        <v>1</v>
+      </c>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-      <c r="X31" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="2" t="s">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4" t="s">
+      <c r="AB31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AJ31" s="4"/>
-    </row>
-    <row r="32" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AL31" s="4"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -3909,28 +4093,32 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6">
+        <v>1</v>
+      </c>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-      <c r="X32" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="2" t="s">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4" t="s">
+      <c r="AB32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AJ32" s="4"/>
-    </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AL32" s="4"/>
+    </row>
+    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -3972,28 +4160,32 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6">
+        <v>1</v>
+      </c>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-      <c r="X33" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
       <c r="Z33" s="4">
         <v>0</v>
       </c>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4" t="s">
+      <c r="AA33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AJ33" s="4"/>
-    </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AL33" s="4"/>
+    </row>
+    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -4035,28 +4227,32 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6">
+        <v>1</v>
+      </c>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-      <c r="X34" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="2" t="s">
-        <v>119</v>
-      </c>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
       <c r="Z34" s="4">
         <v>0</v>
       </c>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4" t="s">
+      <c r="AA34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AJ34" s="4"/>
-    </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AL34" s="4"/>
+    </row>
+    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -4098,32 +4294,36 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6">
+        <v>1</v>
+      </c>
       <c r="V35" s="4"/>
-      <c r="W35" s="4">
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4">
         <v>1500</v>
       </c>
-      <c r="X35" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB35" s="4">
         <v>100</v>
       </c>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4" t="s">
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AC35" s="4" t="s">
+      <c r="AE35" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AD35" s="4"/>
-      <c r="AJ35" s="4"/>
-    </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AF35" s="4"/>
+      <c r="AL35" s="4"/>
+    </row>
+    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -4169,47 +4369,51 @@
       </c>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="4">
-        <v>75</v>
-      </c>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4">
+      <c r="T36" s="6"/>
+      <c r="U36" s="6">
+        <v>1</v>
+      </c>
+      <c r="V36" s="4">
+        <v>25</v>
+      </c>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4">
         <v>200</v>
       </c>
-      <c r="X36" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB36" s="4">
         <v>30</v>
       </c>
-      <c r="AA36" s="4">
+      <c r="AC36" s="4">
         <v>3</v>
       </c>
-      <c r="AB36" s="4" t="s">
+      <c r="AD36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AC36" s="4" t="s">
+      <c r="AE36" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AD36" s="2" t="s">
+      <c r="AF36" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AE36" s="2" t="s">
+      <c r="AG36" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AF36" s="2" t="s">
+      <c r="AH36" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AG36" s="2" t="s">
+      <c r="AI36" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AJ36" s="4"/>
-    </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AL36" s="4"/>
+    </row>
+    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -4255,47 +4459,51 @@
       </c>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4">
-        <v>1000</v>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6">
+        <v>1</v>
       </c>
       <c r="V37" s="4"/>
       <c r="W37" s="4">
+        <v>110</v>
+      </c>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4">
         <v>200</v>
       </c>
-      <c r="X37" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB37" s="4">
         <v>30</v>
       </c>
-      <c r="AA37" s="4">
+      <c r="AC37" s="4">
         <v>3</v>
       </c>
-      <c r="AB37" s="4" t="s">
+      <c r="AD37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AC37" s="4" t="s">
+      <c r="AE37" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AD37" s="2" t="s">
+      <c r="AF37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AE37" s="2" t="s">
+      <c r="AG37" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AF37" s="2" t="s">
+      <c r="AH37" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AG37" s="2" t="s">
+      <c r="AI37" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AJ37" s="4"/>
-    </row>
-    <row r="38" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AL37" s="4"/>
+    </row>
+    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -4339,48 +4547,54 @@
         <v>122</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="W38" s="4">
+        <v>285</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="Y38" s="4">
         <v>300</v>
       </c>
-      <c r="X38" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB38" s="4">
         <v>30</v>
       </c>
-      <c r="AA38" s="4">
+      <c r="AC38" s="4">
         <v>4</v>
       </c>
-      <c r="AB38" s="4" t="s">
+      <c r="AD38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AC38" s="4" t="s">
+      <c r="AE38" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AD38" s="2" t="s">
+      <c r="AF38" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AE38" s="2" t="s">
+      <c r="AG38" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AF38" s="2" t="s">
+      <c r="AH38" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG38" s="2" t="s">
+      <c r="AI38" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -4424,48 +4638,54 @@
         <v>138</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>280</v>
+        <v>135</v>
       </c>
       <c r="S39" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="W39" s="4">
+        <v>281</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="Y39" s="4">
         <v>300</v>
       </c>
-      <c r="X39" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB39" s="4">
         <v>30</v>
       </c>
-      <c r="AA39" s="4">
+      <c r="AC39" s="4">
         <v>2</v>
       </c>
-      <c r="AB39" s="4" t="s">
+      <c r="AD39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AC39" s="4" t="s">
+      <c r="AE39" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AD39" s="2" t="s">
+      <c r="AF39" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AE39" s="2" t="s">
+      <c r="AG39" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AF39" s="2" t="s">
+      <c r="AH39" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG39" s="2" t="s">
+      <c r="AI39" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="40" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -4509,48 +4729,54 @@
         <v>122</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>280</v>
+        <v>134</v>
       </c>
       <c r="S40" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="T40" s="4"/>
-      <c r="U40" s="4"/>
-      <c r="W40" s="4">
+        <v>282</v>
+      </c>
+      <c r="T40" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="X40" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="2" t="s">
-        <v>119</v>
+      <c r="U40" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="Y40" s="4">
+        <v>300</v>
       </c>
       <c r="Z40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB40" s="4">
         <v>30</v>
       </c>
-      <c r="AA40" s="4">
+      <c r="AC40" s="4">
         <v>2</v>
       </c>
-      <c r="AB40" s="4" t="s">
+      <c r="AD40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AC40" s="4" t="s">
+      <c r="AE40" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AD40" s="2" t="s">
+      <c r="AF40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AE40" s="2" t="s">
+      <c r="AG40" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AF40" s="2" t="s">
+      <c r="AH40" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG40" s="2" t="s">
+      <c r="AI40" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="41" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -4594,48 +4820,54 @@
         <v>122</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="W41" s="4">
+        <v>283</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="Y41" s="4">
         <v>300</v>
       </c>
-      <c r="X41" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB41" s="4">
         <v>30</v>
       </c>
-      <c r="AA41" s="4">
+      <c r="AC41" s="4">
         <v>2</v>
       </c>
-      <c r="AB41" s="4" t="s">
+      <c r="AD41" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AC41" s="4" t="s">
+      <c r="AE41" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AD41" s="2" t="s">
+      <c r="AF41" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AE41" s="2" t="s">
+      <c r="AG41" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AF41" s="2" t="s">
+      <c r="AH41" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG41" s="2" t="s">
+      <c r="AI41" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="42" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -4679,48 +4911,54 @@
         <v>122</v>
       </c>
       <c r="R42" s="2" t="s">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="T42" s="4"/>
-      <c r="U42" s="4"/>
-      <c r="W42" s="4">
+        <v>284</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="Y42" s="4">
         <v>300</v>
       </c>
-      <c r="X42" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB42" s="4">
         <v>30</v>
       </c>
-      <c r="AA42" s="4">
+      <c r="AC42" s="4">
         <v>2</v>
       </c>
-      <c r="AB42" s="4" t="s">
+      <c r="AD42" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AC42" s="4" t="s">
+      <c r="AE42" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AD42" s="2" t="s">
+      <c r="AF42" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AE42" s="2" t="s">
+      <c r="AG42" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AF42" s="2" t="s">
+      <c r="AH42" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG42" s="2" t="s">
+      <c r="AI42" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="43" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -4760,44 +4998,47 @@
       <c r="Q43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="W43" s="4">
+      <c r="U43" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="Y43" s="4">
         <v>400</v>
       </c>
-      <c r="X43" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB43" s="4">
         <v>30</v>
       </c>
-      <c r="AA43" s="4">
+      <c r="AC43" s="4">
         <v>3</v>
       </c>
-      <c r="AB43" s="4" t="s">
+      <c r="AD43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="2" t="s">
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AE43" s="2" t="s">
+      <c r="AG43" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="AF43" s="2" t="s">
+      <c r="AH43" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG43" s="2" t="s">
+      <c r="AI43" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AH43" s="2" t="s">
+      <c r="AJ43" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -4837,44 +5078,47 @@
       <c r="Q44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="W44" s="4">
+      <c r="U44" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="Y44" s="4">
         <v>400</v>
       </c>
-      <c r="X44" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y44" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB44" s="4">
         <v>30</v>
       </c>
-      <c r="AA44" s="4">
+      <c r="AC44" s="4">
         <v>3</v>
       </c>
-      <c r="AB44" s="4" t="s">
+      <c r="AD44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AC44" s="4"/>
-      <c r="AD44" s="2" t="s">
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AE44" s="2" t="s">
+      <c r="AG44" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="AF44" s="2" t="s">
+      <c r="AH44" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG44" s="2" t="s">
+      <c r="AI44" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AH44" s="2" t="s">
+      <c r="AJ44" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -4917,48 +5161,51 @@
       <c r="Q45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="T45" s="4"/>
-      <c r="U45" s="4"/>
-      <c r="W45" s="4">
+      <c r="U45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="Y45" s="4">
         <v>200</v>
       </c>
-      <c r="X45" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB45" s="4">
         <v>30</v>
       </c>
-      <c r="AA45" s="4">
+      <c r="AC45" s="4">
         <v>2</v>
       </c>
-      <c r="AB45" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC45" s="4" t="s">
+      <c r="AD45" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="AE45" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AD45" s="2" t="s">
+      <c r="AF45" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AE45" s="2" t="s">
+      <c r="AG45" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="AF45" s="2" t="s">
+      <c r="AH45" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG45" s="2" t="s">
+      <c r="AI45" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B46" s="4">
         <v>42</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D46" s="4">
         <v>4</v>
@@ -5000,45 +5247,51 @@
         <v>139</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="W46" s="4">
+        <v>286</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="Y46" s="4">
         <v>200</v>
       </c>
-      <c r="X46" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB46" s="4">
         <v>30</v>
       </c>
-      <c r="AA46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="AC46" s="4" t="s">
+      <c r="AC46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE46" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AD46" s="2" t="s">
+      <c r="AF46" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AE46" s="2" t="s">
+      <c r="AG46" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="AF46" s="2" t="s">
+      <c r="AH46" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG46" s="2" t="s">
+      <c r="AI46" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="47" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -5084,43 +5337,46 @@
       <c r="R47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="W47" s="4">
+      <c r="U47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="Y47" s="4">
         <v>200</v>
       </c>
-      <c r="X47" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB47" s="4">
         <v>30</v>
       </c>
-      <c r="AA47" s="4">
+      <c r="AC47" s="4">
         <v>2</v>
       </c>
-      <c r="AB47" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="AC47" s="4" t="s">
+      <c r="AD47" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE47" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AD47" s="2" t="s">
+      <c r="AF47" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AE47" s="2" t="s">
+      <c r="AG47" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="AF47" s="2" t="s">
+      <c r="AH47" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG47" s="2" t="s">
+      <c r="AI47" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -5163,43 +5419,46 @@
       <c r="Q48" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="T48" s="4"/>
-      <c r="U48" s="4"/>
-      <c r="W48" s="4">
+      <c r="U48" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="Y48" s="4">
         <v>200</v>
       </c>
-      <c r="X48" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB48" s="4">
         <v>30</v>
       </c>
-      <c r="AA48" s="4">
+      <c r="AC48" s="4">
         <v>3</v>
       </c>
-      <c r="AB48" s="4" t="s">
+      <c r="AD48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AC48" s="4" t="s">
+      <c r="AE48" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AD48" s="2" t="s">
+      <c r="AF48" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AE48" s="2" t="s">
+      <c r="AG48" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="AF48" s="2" t="s">
+      <c r="AH48" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG48" s="2" t="s">
+      <c r="AI48" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -5242,43 +5501,46 @@
       <c r="Q49" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="T49" s="4"/>
-      <c r="U49" s="4"/>
-      <c r="W49" s="4">
+      <c r="U49" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="Y49" s="4">
         <v>200</v>
       </c>
-      <c r="X49" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB49" s="4">
         <v>30</v>
       </c>
-      <c r="AA49" s="4">
+      <c r="AC49" s="4">
         <v>2</v>
       </c>
-      <c r="AB49" s="4" t="s">
+      <c r="AD49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AC49" s="4" t="s">
+      <c r="AE49" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AD49" s="2" t="s">
+      <c r="AF49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AE49" s="2" t="s">
+      <c r="AG49" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="AF49" s="2" t="s">
+      <c r="AH49" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG49" s="2" t="s">
+      <c r="AI49" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -5325,45 +5587,48 @@
         <v>139</v>
       </c>
       <c r="S50" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="Y50" s="4">
+        <v>200</v>
+      </c>
+      <c r="Z50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>30</v>
+      </c>
+      <c r="AC50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="T50" s="4"/>
-      <c r="U50" s="4"/>
-      <c r="W50" s="4">
-        <v>200</v>
-      </c>
-      <c r="X50" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="Z50" s="4">
-        <v>30</v>
-      </c>
-      <c r="AA50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="AC50" s="4" t="s">
+      <c r="AE50" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AD50" s="2" t="s">
+      <c r="AF50" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AE50" s="2" t="s">
+      <c r="AG50" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AF50" s="2" t="s">
+      <c r="AH50" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG50" s="2" t="s">
+      <c r="AI50" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -5406,45 +5671,48 @@
       <c r="Q51" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="T51" s="4">
-        <v>240</v>
-      </c>
-      <c r="U51" s="4"/>
-      <c r="W51" s="4">
+      <c r="U51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V51" s="4">
+        <v>80</v>
+      </c>
+      <c r="W51" s="4"/>
+      <c r="Y51" s="4">
         <v>400</v>
       </c>
-      <c r="X51" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB51" s="4">
         <v>30</v>
       </c>
-      <c r="AA51" s="4">
+      <c r="AC51" s="4">
         <v>3</v>
       </c>
-      <c r="AB51" s="4" t="s">
+      <c r="AD51" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AC51" s="4" t="s">
+      <c r="AE51" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AD51" s="2" t="s">
+      <c r="AF51" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AE51" s="2" t="s">
+      <c r="AG51" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AF51" s="2" t="s">
+      <c r="AH51" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG51" s="2" t="s">
+      <c r="AI51" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -5487,45 +5755,48 @@
       <c r="Q52" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="T52" s="4">
-        <v>180</v>
-      </c>
-      <c r="U52" s="4"/>
-      <c r="W52" s="4">
+      <c r="U52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V52" s="4">
+        <v>60</v>
+      </c>
+      <c r="W52" s="4"/>
+      <c r="Y52" s="4">
         <v>400</v>
       </c>
-      <c r="X52" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB52" s="4">
         <v>30</v>
       </c>
-      <c r="AA52" s="4">
+      <c r="AC52" s="4">
         <v>3</v>
       </c>
-      <c r="AB52" s="4" t="s">
+      <c r="AD52" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AC52" s="4" t="s">
+      <c r="AE52" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AD52" s="2" t="s">
+      <c r="AF52" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AE52" s="2" t="s">
+      <c r="AG52" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AF52" s="2" t="s">
+      <c r="AH52" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG52" s="2" t="s">
+      <c r="AI52" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -5565,43 +5836,46 @@
       <c r="Q53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="T53" s="4">
-        <v>60</v>
-      </c>
-      <c r="U53" s="4"/>
-      <c r="W53" s="4">
+      <c r="U53" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V53" s="4">
+        <v>20</v>
+      </c>
+      <c r="W53" s="4"/>
+      <c r="Y53" s="4">
         <v>50</v>
       </c>
-      <c r="X53" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z53" s="4">
         <v>0</v>
       </c>
-      <c r="AA53" s="4">
+      <c r="AA53" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="4">
         <v>3</v>
       </c>
-      <c r="AB53" s="4" t="s">
+      <c r="AD53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="2" t="s">
+      <c r="AE53" s="4"/>
+      <c r="AF53" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AE53" s="2" t="s">
+      <c r="AG53" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="AF53" s="2" t="s">
+      <c r="AH53" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG53" s="2" t="s">
+      <c r="AI53" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -5644,48 +5918,51 @@
       <c r="Q54" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4">
-        <v>1600</v>
-      </c>
+      <c r="U54" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V54" s="4"/>
       <c r="W54" s="4">
+        <v>200</v>
+      </c>
+      <c r="Y54" s="4">
         <v>400</v>
       </c>
-      <c r="X54" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB54" s="4">
         <v>30</v>
       </c>
-      <c r="AA54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="4" t="s">
+      <c r="AC54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AC54" s="4" t="s">
+      <c r="AE54" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AD54" s="2" t="s">
+      <c r="AF54" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AE54" s="2" t="s">
+      <c r="AG54" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="AF54" s="2" t="s">
+      <c r="AH54" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG54" s="2" t="s">
+      <c r="AI54" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AH54" s="2" t="s">
+      <c r="AJ54" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -5728,43 +6005,46 @@
       <c r="Q55" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="T55" s="4">
-        <v>90</v>
-      </c>
-      <c r="U55" s="4"/>
-      <c r="W55" s="4">
+      <c r="U55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V55" s="4">
+        <v>30</v>
+      </c>
+      <c r="W55" s="4"/>
+      <c r="Y55" s="4">
         <v>200</v>
       </c>
-      <c r="X55" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB55" s="4">
         <v>20</v>
       </c>
-      <c r="AA55" s="4">
+      <c r="AC55" s="4">
         <v>3</v>
       </c>
-      <c r="AB55" s="4" t="s">
+      <c r="AD55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="2" t="s">
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AE55" s="2" t="s">
+      <c r="AG55" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AF55" s="2" t="s">
+      <c r="AH55" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG55" s="2" t="s">
+      <c r="AI55" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -5804,43 +6084,46 @@
       <c r="Q56" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="T56" s="4">
-        <v>120</v>
-      </c>
-      <c r="U56" s="4"/>
-      <c r="W56" s="4">
+      <c r="U56" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V56" s="4">
+        <v>40</v>
+      </c>
+      <c r="W56" s="4"/>
+      <c r="Y56" s="4">
         <v>200</v>
       </c>
-      <c r="X56" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB56" s="4">
         <v>20</v>
       </c>
-      <c r="AA56" s="4">
+      <c r="AC56" s="4">
         <v>3</v>
       </c>
-      <c r="AB56" s="4" t="s">
+      <c r="AD56" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="2" t="s">
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AE56" s="2" t="s">
+      <c r="AG56" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="AF56" s="2" t="s">
+      <c r="AH56" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG56" s="2" t="s">
+      <c r="AI56" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -5883,43 +6166,46 @@
       <c r="Q57" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4">
-        <v>1200</v>
-      </c>
+      <c r="U57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V57" s="4"/>
       <c r="W57" s="4">
+        <v>140</v>
+      </c>
+      <c r="Y57" s="4">
         <v>200</v>
       </c>
-      <c r="X57" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB57" s="4">
         <v>20</v>
       </c>
-      <c r="AA57" s="4">
+      <c r="AC57" s="4">
         <v>3</v>
       </c>
-      <c r="AB57" s="4" t="s">
+      <c r="AD57" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="2" t="s">
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AE57" s="2" t="s">
+      <c r="AG57" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AF57" s="2" t="s">
+      <c r="AH57" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG57" s="2" t="s">
+      <c r="AI57" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -5959,43 +6245,46 @@
       <c r="Q58" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4">
-        <v>1600</v>
-      </c>
+      <c r="U58" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="V58" s="4"/>
       <c r="W58" s="4">
+        <v>180</v>
+      </c>
+      <c r="Y58" s="4">
         <v>200</v>
       </c>
-      <c r="X58" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB58" s="4">
         <v>20</v>
       </c>
-      <c r="AA58" s="4">
+      <c r="AC58" s="4">
         <v>3</v>
       </c>
-      <c r="AB58" s="4" t="s">
+      <c r="AD58" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="2" t="s">
+      <c r="AE58" s="4"/>
+      <c r="AF58" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AE58" s="2" t="s">
+      <c r="AG58" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AF58" s="2" t="s">
+      <c r="AH58" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG58" s="2" t="s">
+      <c r="AI58" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -6039,46 +6328,52 @@
         <v>138</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>279</v>
+        <v>311</v>
       </c>
       <c r="S59" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="W59" s="4">
+        <v>285</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="Y59" s="4">
         <v>200</v>
       </c>
-      <c r="X59" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB59" s="4">
         <v>20</v>
       </c>
-      <c r="AA59" s="4">
+      <c r="AC59" s="4">
         <v>4</v>
       </c>
-      <c r="AB59" s="4" t="s">
+      <c r="AD59" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="2" t="s">
+      <c r="AE59" s="4"/>
+      <c r="AF59" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AE59" s="2" t="s">
+      <c r="AG59" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AF59" s="2" t="s">
+      <c r="AH59" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG59" s="2" t="s">
+      <c r="AI59" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -6119,46 +6414,52 @@
         <v>139</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="W60" s="4">
+        <v>285</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="Y60" s="4">
         <v>200</v>
       </c>
-      <c r="X60" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB60" s="4">
         <v>20</v>
       </c>
-      <c r="AA60" s="4">
+      <c r="AC60" s="4">
         <v>4</v>
       </c>
-      <c r="AB60" s="4" t="s">
+      <c r="AD60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="2" t="s">
+      <c r="AE60" s="4"/>
+      <c r="AF60" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AE60" s="2" t="s">
+      <c r="AG60" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AF60" s="2" t="s">
+      <c r="AH60" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG60" s="2" t="s">
+      <c r="AI60" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B61" s="4">
         <v>57</v>
       </c>
@@ -6202,46 +6503,52 @@
         <v>138</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="S61" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="W61" s="4">
+        <v>281</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="Y61" s="4">
         <v>200</v>
       </c>
-      <c r="X61" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB61" s="4">
         <v>20</v>
       </c>
-      <c r="AA61" s="4">
+      <c r="AC61" s="4">
         <v>2</v>
       </c>
-      <c r="AB61" s="4" t="s">
+      <c r="AD61" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="2" t="s">
+      <c r="AE61" s="4"/>
+      <c r="AF61" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AE61" s="2" t="s">
+      <c r="AG61" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AF61" s="2" t="s">
+      <c r="AH61" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG61" s="2" t="s">
+      <c r="AI61" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B62" s="4">
         <v>58</v>
       </c>
@@ -6282,46 +6589,52 @@
         <v>139</v>
       </c>
       <c r="R62" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="S62" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="S62" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="W62" s="4">
+      <c r="T62" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="Y62" s="4">
         <v>200</v>
       </c>
-      <c r="X62" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB62" s="4">
         <v>20</v>
       </c>
-      <c r="AA62" s="4">
+      <c r="AC62" s="4">
         <v>2</v>
       </c>
-      <c r="AB62" s="4" t="s">
+      <c r="AD62" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AC62" s="4"/>
-      <c r="AD62" s="2" t="s">
+      <c r="AE62" s="4"/>
+      <c r="AF62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AE62" s="2" t="s">
+      <c r="AG62" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="AF62" s="2" t="s">
+      <c r="AH62" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG62" s="2" t="s">
+      <c r="AI62" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B63" s="4">
         <v>59</v>
       </c>
@@ -6365,47 +6678,53 @@
         <v>138</v>
       </c>
       <c r="R63" s="2" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="S63" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
+        <v>282</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="V63" s="4"/>
-      <c r="W63" s="4">
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4">
         <v>200</v>
       </c>
-      <c r="X63" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB63" s="4">
         <v>20</v>
       </c>
-      <c r="AA63" s="4">
+      <c r="AC63" s="4">
         <v>2</v>
       </c>
-      <c r="AB63" s="4" t="s">
+      <c r="AD63" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AC63" s="4"/>
-      <c r="AD63" s="2" t="s">
+      <c r="AE63" s="4"/>
+      <c r="AF63" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AE63" s="2" t="s">
+      <c r="AG63" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AF63" s="2" t="s">
+      <c r="AH63" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG63" s="2" t="s">
+      <c r="AI63" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B64" s="4">
         <v>60</v>
       </c>
@@ -6447,47 +6766,53 @@
         <v>139</v>
       </c>
       <c r="R64" s="2" t="s">
-        <v>281</v>
+        <v>135</v>
       </c>
       <c r="S64" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="T64" s="4"/>
-      <c r="U64" s="4"/>
+        <v>282</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>307</v>
+      </c>
       <c r="V64" s="4"/>
-      <c r="W64" s="4">
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4">
         <v>200</v>
       </c>
-      <c r="X64" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y64" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z64" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB64" s="4">
         <v>20</v>
       </c>
-      <c r="AA64" s="4">
+      <c r="AC64" s="4">
         <v>2</v>
       </c>
-      <c r="AB64" s="4" t="s">
+      <c r="AD64" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AC64" s="4"/>
-      <c r="AD64" s="2" t="s">
+      <c r="AE64" s="4"/>
+      <c r="AF64" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AE64" s="2" t="s">
+      <c r="AG64" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="AF64" s="2" t="s">
+      <c r="AH64" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG64" s="2" t="s">
+      <c r="AI64" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B65" s="4">
         <v>61</v>
       </c>
@@ -6531,46 +6856,52 @@
         <v>138</v>
       </c>
       <c r="R65" s="2" t="s">
-        <v>279</v>
+        <v>138</v>
       </c>
       <c r="S65" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="W65" s="4">
+        <v>283</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="Y65" s="4">
         <v>200</v>
       </c>
-      <c r="X65" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y65" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z65" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB65" s="4">
         <v>30</v>
       </c>
-      <c r="AA65" s="4">
+      <c r="AC65" s="4">
         <v>2</v>
       </c>
-      <c r="AB65" s="4" t="s">
+      <c r="AD65" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AC65" s="4"/>
-      <c r="AD65" s="2" t="s">
+      <c r="AE65" s="4"/>
+      <c r="AF65" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AE65" s="2" t="s">
+      <c r="AG65" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AF65" s="2" t="s">
+      <c r="AH65" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG65" s="2" t="s">
+      <c r="AI65" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="66" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B66" s="4">
         <v>62</v>
       </c>
@@ -6611,46 +6942,52 @@
         <v>139</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="S66" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="W66" s="4">
+        <v>283</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="Y66" s="4">
         <v>200</v>
       </c>
-      <c r="X66" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y66" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z66" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB66" s="4">
         <v>30</v>
       </c>
-      <c r="AA66" s="4">
+      <c r="AC66" s="4">
         <v>2</v>
       </c>
-      <c r="AB66" s="4" t="s">
+      <c r="AD66" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AC66" s="4"/>
-      <c r="AD66" s="2" t="s">
+      <c r="AE66" s="4"/>
+      <c r="AF66" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AE66" s="2" t="s">
+      <c r="AG66" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="AF66" s="2" t="s">
+      <c r="AH66" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG66" s="2" t="s">
+      <c r="AI66" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="67" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B67" s="4">
         <v>63</v>
       </c>
@@ -6694,46 +7031,52 @@
         <v>138</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>279</v>
+        <v>138</v>
       </c>
       <c r="S67" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="W67" s="4">
+        <v>284</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="Y67" s="4">
         <v>200</v>
       </c>
-      <c r="X67" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y67" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB67" s="4">
         <v>30</v>
       </c>
-      <c r="AA67" s="4">
+      <c r="AC67" s="4">
         <v>2</v>
       </c>
-      <c r="AB67" s="4" t="s">
+      <c r="AD67" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AC67" s="4"/>
-      <c r="AD67" s="2" t="s">
+      <c r="AE67" s="4"/>
+      <c r="AF67" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AE67" s="2" t="s">
+      <c r="AG67" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AF67" s="2" t="s">
+      <c r="AH67" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG67" s="2" t="s">
+      <c r="AI67" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B68" s="4">
         <v>64</v>
       </c>
@@ -6774,62 +7117,68 @@
         <v>139</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>281</v>
+        <v>138</v>
       </c>
       <c r="S68" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="W68" s="4">
+        <v>284</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="U68" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="Y68" s="4">
         <v>200</v>
       </c>
-      <c r="X68" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y68" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="Z68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB68" s="4">
         <v>30</v>
       </c>
-      <c r="AA68" s="4">
+      <c r="AC68" s="4">
         <v>2</v>
       </c>
-      <c r="AB68" s="4" t="s">
+      <c r="AD68" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AC68" s="4"/>
-      <c r="AD68" s="2" t="s">
+      <c r="AE68" s="4"/>
+      <c r="AF68" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AE68" s="2" t="s">
+      <c r="AG68" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="AF68" s="2" t="s">
+      <c r="AH68" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="AG68" s="2" t="s">
+      <c r="AI68" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="2:36" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="T69" s="4"/>
-      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
       <c r="Z69" s="4"/>
-      <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
-    </row>
-    <row r="70" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+    </row>
+    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -6840,18 +7189,20 @@
       <c r="Q70" s="6"/>
       <c r="R70" s="6"/>
       <c r="S70" s="6"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
-      <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
-      <c r="AJ70" s="4"/>
-    </row>
-    <row r="71" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AL70" s="4"/>
+    </row>
+    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -6861,16 +7212,18 @@
       <c r="Q71" s="6"/>
       <c r="R71" s="6"/>
       <c r="S71" s="6"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
-      <c r="AJ71" s="4"/>
-    </row>
-    <row r="72" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AL71" s="4"/>
+    </row>
+    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -6880,16 +7233,18 @@
       <c r="Q72" s="6"/>
       <c r="R72" s="6"/>
       <c r="S72" s="6"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
-      <c r="AB72" s="4"/>
-      <c r="AC72" s="4"/>
-      <c r="AJ72" s="4"/>
-    </row>
-    <row r="73" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AL72" s="4"/>
+    </row>
+    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -6899,16 +7254,18 @@
       <c r="Q73" s="6"/>
       <c r="R73" s="6"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="4"/>
-      <c r="U73" s="4"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
-      <c r="AB73" s="4"/>
-      <c r="AC73" s="4"/>
-      <c r="AJ73" s="4"/>
-    </row>
-    <row r="74" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AL73" s="4"/>
+    </row>
+    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -6918,16 +7275,18 @@
       <c r="Q74" s="6"/>
       <c r="R74" s="6"/>
       <c r="S74" s="6"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
-      <c r="AJ74" s="4"/>
-    </row>
-    <row r="75" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AL74" s="4"/>
+    </row>
+    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -6937,16 +7296,18 @@
       <c r="Q75" s="6"/>
       <c r="R75" s="6"/>
       <c r="S75" s="6"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
       <c r="V75" s="4"/>
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
-      <c r="AB75" s="4"/>
-      <c r="AC75" s="4"/>
-      <c r="AJ75" s="4"/>
-    </row>
-    <row r="76" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AD75" s="4"/>
+      <c r="AE75" s="4"/>
+      <c r="AL75" s="4"/>
+    </row>
+    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -6956,16 +7317,18 @@
       <c r="Q76" s="6"/>
       <c r="R76" s="6"/>
       <c r="S76" s="6"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
       <c r="V76" s="4"/>
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AJ76" s="4"/>
-    </row>
-    <row r="77" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AD76" s="4"/>
+      <c r="AE76" s="4"/>
+      <c r="AL76" s="4"/>
+    </row>
+    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -6975,16 +7338,18 @@
       <c r="Q77" s="6"/>
       <c r="R77" s="6"/>
       <c r="S77" s="6"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
       <c r="V77" s="4"/>
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AJ77" s="4"/>
-    </row>
-    <row r="78" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AD77" s="4"/>
+      <c r="AE77" s="4"/>
+      <c r="AL77" s="4"/>
+    </row>
+    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -6994,16 +7359,18 @@
       <c r="Q78" s="6"/>
       <c r="R78" s="6"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
       <c r="V78" s="4"/>
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
-      <c r="AB78" s="4"/>
-      <c r="AC78" s="4"/>
-      <c r="AJ78" s="4"/>
-    </row>
-    <row r="79" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AD78" s="4"/>
+      <c r="AE78" s="4"/>
+      <c r="AL78" s="4"/>
+    </row>
+    <row r="79" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -7013,16 +7380,18 @@
       <c r="Q79" s="6"/>
       <c r="R79" s="6"/>
       <c r="S79" s="6"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
       <c r="V79" s="4"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
-      <c r="AB79" s="4"/>
-      <c r="AC79" s="4"/>
-      <c r="AJ79" s="4"/>
-    </row>
-    <row r="80" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AL79" s="4"/>
+    </row>
+    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -7032,16 +7401,18 @@
       <c r="Q80" s="6"/>
       <c r="R80" s="6"/>
       <c r="S80" s="6"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
       <c r="V80" s="4"/>
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
-      <c r="AB80" s="4"/>
-      <c r="AC80" s="4"/>
-      <c r="AJ80" s="4"/>
-    </row>
-    <row r="81" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AD80" s="4"/>
+      <c r="AE80" s="4"/>
+      <c r="AL80" s="4"/>
+    </row>
+    <row r="81" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -7051,16 +7422,18 @@
       <c r="Q81" s="6"/>
       <c r="R81" s="6"/>
       <c r="S81" s="6"/>
-      <c r="T81" s="4"/>
-      <c r="U81" s="4"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
       <c r="V81" s="4"/>
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
-      <c r="AB81" s="4"/>
-      <c r="AC81" s="4"/>
-      <c r="AJ81" s="4"/>
-    </row>
-    <row r="82" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AL81" s="4"/>
+    </row>
+    <row r="82" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -7070,16 +7443,18 @@
       <c r="Q82" s="6"/>
       <c r="R82" s="6"/>
       <c r="S82" s="6"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
       <c r="V82" s="4"/>
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AC82" s="4"/>
-      <c r="AJ82" s="4"/>
-    </row>
-    <row r="83" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AL82" s="4"/>
+    </row>
+    <row r="83" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -7089,16 +7464,18 @@
       <c r="Q83" s="6"/>
       <c r="R83" s="6"/>
       <c r="S83" s="6"/>
-      <c r="T83" s="4"/>
-      <c r="U83" s="4"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
       <c r="V83" s="4"/>
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
-      <c r="AB83" s="4"/>
-      <c r="AC83" s="4"/>
-      <c r="AJ83" s="4"/>
-    </row>
-    <row r="84" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AD83" s="4"/>
+      <c r="AE83" s="4"/>
+      <c r="AL83" s="4"/>
+    </row>
+    <row r="84" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -7108,16 +7485,18 @@
       <c r="Q84" s="6"/>
       <c r="R84" s="6"/>
       <c r="S84" s="6"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="4"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
       <c r="V84" s="4"/>
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
-      <c r="AB84" s="4"/>
-      <c r="AC84" s="4"/>
-      <c r="AJ84" s="4"/>
-    </row>
-    <row r="85" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AD84" s="4"/>
+      <c r="AE84" s="4"/>
+      <c r="AL84" s="4"/>
+    </row>
+    <row r="85" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -7127,16 +7506,18 @@
       <c r="Q85" s="6"/>
       <c r="R85" s="6"/>
       <c r="S85" s="6"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
       <c r="V85" s="4"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
-      <c r="AB85" s="4"/>
-      <c r="AC85" s="4"/>
-      <c r="AJ85" s="4"/>
-    </row>
-    <row r="86" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AD85" s="4"/>
+      <c r="AE85" s="4"/>
+      <c r="AL85" s="4"/>
+    </row>
+    <row r="86" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -7146,16 +7527,18 @@
       <c r="Q86" s="6"/>
       <c r="R86" s="6"/>
       <c r="S86" s="6"/>
-      <c r="T86" s="4"/>
-      <c r="U86" s="4"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
       <c r="V86" s="4"/>
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
-      <c r="AB86" s="4"/>
-      <c r="AC86" s="4"/>
-      <c r="AJ86" s="4"/>
-    </row>
-    <row r="87" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+      <c r="AD86" s="4"/>
+      <c r="AE86" s="4"/>
+      <c r="AL86" s="4"/>
+    </row>
+    <row r="87" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -7165,16 +7548,18 @@
       <c r="Q87" s="6"/>
       <c r="R87" s="6"/>
       <c r="S87" s="6"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
       <c r="V87" s="4"/>
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
-      <c r="AB87" s="4"/>
-      <c r="AC87" s="4"/>
-      <c r="AJ87" s="4"/>
-    </row>
-    <row r="88" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AD87" s="4"/>
+      <c r="AE87" s="4"/>
+      <c r="AL87" s="4"/>
+    </row>
+    <row r="88" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -7184,16 +7569,18 @@
       <c r="Q88" s="6"/>
       <c r="R88" s="6"/>
       <c r="S88" s="6"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
       <c r="V88" s="4"/>
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
-      <c r="AB88" s="4"/>
-      <c r="AC88" s="4"/>
-      <c r="AJ88" s="4"/>
-    </row>
-    <row r="89" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
+      <c r="AD88" s="4"/>
+      <c r="AE88" s="4"/>
+      <c r="AL88" s="4"/>
+    </row>
+    <row r="89" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -7203,16 +7590,18 @@
       <c r="Q89" s="6"/>
       <c r="R89" s="6"/>
       <c r="S89" s="6"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
-      <c r="AB89" s="4"/>
-      <c r="AC89" s="4"/>
-      <c r="AJ89" s="4"/>
-    </row>
-    <row r="90" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AD89" s="4"/>
+      <c r="AE89" s="4"/>
+      <c r="AL89" s="4"/>
+    </row>
+    <row r="90" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -7222,16 +7611,18 @@
       <c r="Q90" s="6"/>
       <c r="R90" s="6"/>
       <c r="S90" s="6"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
       <c r="V90" s="4"/>
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
-      <c r="AB90" s="4"/>
-      <c r="AC90" s="4"/>
-      <c r="AJ90" s="4"/>
-    </row>
-    <row r="91" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AD90" s="4"/>
+      <c r="AE90" s="4"/>
+      <c r="AL90" s="4"/>
+    </row>
+    <row r="91" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -7241,16 +7632,18 @@
       <c r="Q91" s="6"/>
       <c r="R91" s="6"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="4"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
       <c r="V91" s="4"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
-      <c r="AB91" s="4"/>
-      <c r="AC91" s="4"/>
-      <c r="AJ91" s="4"/>
-    </row>
-    <row r="92" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AD91" s="4"/>
+      <c r="AE91" s="4"/>
+      <c r="AL91" s="4"/>
+    </row>
+    <row r="92" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -7260,369 +7653,389 @@
       <c r="Q92" s="6"/>
       <c r="R92" s="6"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="4"/>
-      <c r="U92" s="4"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
       <c r="V92" s="4"/>
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
-      <c r="AB92" s="4"/>
-      <c r="AC92" s="4"/>
-      <c r="AJ92" s="4"/>
-    </row>
-    <row r="93" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AD92" s="4"/>
+      <c r="AE92" s="4"/>
+      <c r="AL92" s="4"/>
+    </row>
+    <row r="93" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
       <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
-      <c r="AB93" s="4"/>
-      <c r="AC93" s="4"/>
-      <c r="AJ93" s="4"/>
-    </row>
-    <row r="94" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AD93" s="4"/>
+      <c r="AE93" s="4"/>
+      <c r="AL93" s="4"/>
+    </row>
+    <row r="94" spans="2:38" x14ac:dyDescent="0.25">
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
       <c r="R94" s="6"/>
       <c r="S94" s="6"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="4"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
       <c r="V94" s="4"/>
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
-      <c r="AB94" s="4"/>
-      <c r="AC94" s="4"/>
-      <c r="AJ94" s="4"/>
-    </row>
-    <row r="95" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AD94" s="4"/>
+      <c r="AE94" s="4"/>
+      <c r="AL94" s="4"/>
+    </row>
+    <row r="95" spans="2:38" x14ac:dyDescent="0.25">
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="4"/>
-      <c r="U95" s="4"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
       <c r="V95" s="4"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
-      <c r="AB95" s="4"/>
-      <c r="AC95" s="4"/>
-      <c r="AJ95" s="4"/>
-    </row>
-    <row r="96" spans="2:36" x14ac:dyDescent="0.15">
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AD95" s="4"/>
+      <c r="AE95" s="4"/>
+      <c r="AL95" s="4"/>
+    </row>
+    <row r="96" spans="2:38" x14ac:dyDescent="0.25">
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
-      <c r="T96" s="4"/>
-      <c r="U96" s="4"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
       <c r="V96" s="4"/>
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
-      <c r="AB96" s="4"/>
-      <c r="AC96" s="4"/>
-      <c r="AJ96" s="4"/>
-    </row>
-    <row r="97" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AD96" s="4"/>
+      <c r="AE96" s="4"/>
+      <c r="AL96" s="4"/>
+    </row>
+    <row r="97" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
       <c r="R97" s="6"/>
       <c r="S97" s="6"/>
-      <c r="T97" s="4"/>
-      <c r="U97" s="4"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
       <c r="V97" s="4"/>
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
-      <c r="AB97" s="4"/>
-      <c r="AC97" s="4"/>
-      <c r="AJ97" s="4"/>
-    </row>
-    <row r="98" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AD97" s="4"/>
+      <c r="AE97" s="4"/>
+      <c r="AL97" s="4"/>
+    </row>
+    <row r="98" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
       <c r="R98" s="6"/>
       <c r="S98" s="6"/>
-      <c r="T98" s="4"/>
-      <c r="U98" s="4"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
       <c r="V98" s="4"/>
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
-      <c r="AB98" s="4"/>
-      <c r="AC98" s="4"/>
-      <c r="AJ98" s="4"/>
-    </row>
-    <row r="99" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AD98" s="4"/>
+      <c r="AE98" s="4"/>
+      <c r="AL98" s="4"/>
+    </row>
+    <row r="99" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
       <c r="R99" s="6"/>
       <c r="S99" s="6"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
       <c r="V99" s="4"/>
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
-      <c r="AB99" s="4"/>
-      <c r="AC99" s="4"/>
-      <c r="AJ99" s="4"/>
-    </row>
-    <row r="100" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AD99" s="4"/>
+      <c r="AE99" s="4"/>
+      <c r="AL99" s="4"/>
+    </row>
+    <row r="100" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
       <c r="R100" s="6"/>
       <c r="S100" s="6"/>
-      <c r="T100" s="4"/>
-      <c r="U100" s="4"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
       <c r="V100" s="4"/>
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
-      <c r="AB100" s="4"/>
-      <c r="AC100" s="4"/>
-      <c r="AJ100" s="4"/>
-    </row>
-    <row r="101" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
+      <c r="AD100" s="4"/>
+      <c r="AE100" s="4"/>
+      <c r="AL100" s="4"/>
+    </row>
+    <row r="101" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
       <c r="R101" s="6"/>
       <c r="S101" s="6"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
       <c r="V101" s="4"/>
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
-      <c r="AB101" s="4"/>
-      <c r="AC101" s="4"/>
-      <c r="AJ101" s="4"/>
-    </row>
-    <row r="102" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AD101" s="4"/>
+      <c r="AE101" s="4"/>
+      <c r="AL101" s="4"/>
+    </row>
+    <row r="102" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
       <c r="R102" s="6"/>
       <c r="S102" s="6"/>
-      <c r="T102" s="4"/>
-      <c r="U102" s="4"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
       <c r="V102" s="4"/>
       <c r="W102" s="4"/>
       <c r="X102" s="4"/>
-      <c r="AB102" s="4"/>
-      <c r="AC102" s="4"/>
-      <c r="AJ102" s="4"/>
-    </row>
-    <row r="103" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+      <c r="AD102" s="4"/>
+      <c r="AE102" s="4"/>
+      <c r="AL102" s="4"/>
+    </row>
+    <row r="103" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
       <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="4"/>
-      <c r="AB103" s="4"/>
-      <c r="AC103" s="4"/>
-    </row>
-    <row r="104" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AD103" s="4"/>
+      <c r="AE103" s="4"/>
+    </row>
+    <row r="104" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
       <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="4"/>
-      <c r="AB104" s="4"/>
-      <c r="AC104" s="4"/>
-    </row>
-    <row r="105" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
+      <c r="AD104" s="4"/>
+      <c r="AE104" s="4"/>
+    </row>
+    <row r="105" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
       <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="4"/>
-      <c r="AB105" s="4"/>
-      <c r="AC105" s="4"/>
-    </row>
-    <row r="106" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AD105" s="4"/>
+      <c r="AE105" s="4"/>
+    </row>
+    <row r="106" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
       <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="4"/>
-      <c r="AB106" s="4"/>
-      <c r="AC106" s="4"/>
-    </row>
-    <row r="107" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
+      <c r="AD106" s="4"/>
+      <c r="AE106" s="4"/>
+    </row>
+    <row r="107" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="T107" s="4"/>
-      <c r="U107" s="4"/>
       <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
-      <c r="AB107" s="4"/>
-      <c r="AC107" s="4"/>
-    </row>
-    <row r="108" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4"/>
+      <c r="AD107" s="4"/>
+      <c r="AE107" s="4"/>
+    </row>
+    <row r="108" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="4"/>
       <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="4"/>
-      <c r="AB108" s="4"/>
-      <c r="AC108" s="4"/>
-    </row>
-    <row r="109" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
+      <c r="AD108" s="4"/>
+      <c r="AE108" s="4"/>
+    </row>
+    <row r="109" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="T109" s="4"/>
-      <c r="U109" s="4"/>
       <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
-      <c r="AB109" s="4"/>
-      <c r="AC109" s="4"/>
-    </row>
-    <row r="110" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+      <c r="AD109" s="4"/>
+      <c r="AE109" s="4"/>
+    </row>
+    <row r="110" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="T110" s="4"/>
-      <c r="U110" s="4"/>
       <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
-      <c r="AB110" s="4"/>
-      <c r="AC110" s="4"/>
-    </row>
-    <row r="111" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+      <c r="AD110" s="4"/>
+      <c r="AE110" s="4"/>
+    </row>
+    <row r="111" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="T111" s="4"/>
-      <c r="U111" s="4"/>
       <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
-      <c r="AB111" s="4"/>
-      <c r="AC111" s="4"/>
-    </row>
-    <row r="112" spans="5:36" x14ac:dyDescent="0.15">
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AD111" s="4"/>
+      <c r="AE111" s="4"/>
+    </row>
+    <row r="112" spans="5:38" x14ac:dyDescent="0.25">
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="T112" s="4"/>
-      <c r="U112" s="4"/>
       <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
-      <c r="AB112" s="4"/>
-      <c r="AC112" s="4"/>
-    </row>
-    <row r="113" spans="5:29" x14ac:dyDescent="0.15">
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AD112" s="4"/>
+      <c r="AE112" s="4"/>
+    </row>
+    <row r="113" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="T113" s="4"/>
-      <c r="U113" s="4"/>
       <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
-      <c r="AB113" s="4"/>
-      <c r="AC113" s="4"/>
-    </row>
-    <row r="114" spans="5:29" x14ac:dyDescent="0.15">
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+      <c r="AD113" s="4"/>
+      <c r="AE113" s="4"/>
+    </row>
+    <row r="114" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="T114" s="4"/>
-      <c r="U114" s="4"/>
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
-      <c r="AB114" s="4"/>
-      <c r="AC114" s="4"/>
-    </row>
-    <row r="115" spans="5:29" x14ac:dyDescent="0.15">
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AD114" s="4"/>
+      <c r="AE114" s="4"/>
+    </row>
+    <row r="115" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="T115" s="4"/>
-      <c r="U115" s="4"/>
       <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
-      <c r="AB115" s="4"/>
-      <c r="AC115" s="4"/>
-    </row>
-    <row r="116" spans="5:29" x14ac:dyDescent="0.15">
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+      <c r="AD115" s="4"/>
+      <c r="AE115" s="4"/>
+    </row>
+    <row r="116" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="T116" s="4"/>
-      <c r="U116" s="4"/>
       <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
-      <c r="AB116" s="4"/>
-      <c r="AC116" s="4"/>
-    </row>
-    <row r="117" spans="5:29" x14ac:dyDescent="0.15">
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+      <c r="AD116" s="4"/>
+      <c r="AE116" s="4"/>
+    </row>
+    <row r="117" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="T117" s="4"/>
-      <c r="U117" s="4"/>
       <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
-      <c r="AB117" s="4"/>
-      <c r="AC117" s="4"/>
-    </row>
-    <row r="118" spans="5:29" x14ac:dyDescent="0.15">
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+      <c r="AD117" s="4"/>
+      <c r="AE117" s="4"/>
+    </row>
+    <row r="118" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
       <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
-      <c r="AB118" s="4"/>
-      <c r="AC118" s="4"/>
-    </row>
-    <row r="119" spans="5:29" x14ac:dyDescent="0.15">
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+      <c r="AD118" s="4"/>
+      <c r="AE118" s="4"/>
+    </row>
+    <row r="119" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="T119" s="4"/>
-      <c r="U119" s="4"/>
       <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
-      <c r="AB119" s="4"/>
-      <c r="AC119" s="4"/>
-    </row>
-    <row r="120" spans="5:29" x14ac:dyDescent="0.15">
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4"/>
+      <c r="AD119" s="4"/>
+      <c r="AE119" s="4"/>
+    </row>
+    <row r="120" spans="5:31" x14ac:dyDescent="0.25">
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="T120" s="4"/>
-      <c r="U120" s="4"/>
       <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
-      <c r="AB120" s="4"/>
-      <c r="AC120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4"/>
+      <c r="AD120" s="4"/>
+      <c r="AE120" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Data/Export/Common/BuildingType_建筑类型.xlsx
+++ b/Data/Export/Common/BuildingType_建筑类型.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr updateLinks="always" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sango_infinity\Data\Export\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0A63FE-08B7-4450-8B9D-8BC9120A863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741DD973-2F00-4BBE-85D5-EF8893300CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="923" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BuildingTypes" sheetId="36" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="318">
   <si>
     <t>0</t>
   </si>
@@ -1110,10 +1110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>165</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1126,23 +1122,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>productFactor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产出倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
+    <t>闲置产出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>emptyProduct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>240</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>580</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jobId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出工作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1150,19 +1182,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1665,45 +1689,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B0F1D98-4B0B-4096-90A4-E28636B1D41A}">
-  <dimension ref="A1:AM120"/>
+  <dimension ref="A1:AN120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="P29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="P5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="U45" sqref="U45"/>
+      <selection pane="bottomRight" activeCell="W54" sqref="W54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
     <col min="2" max="2" width="9" style="2"/>
-    <col min="3" max="5" width="16.08984375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.6328125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.08984375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="19.453125" style="2" customWidth="1"/>
-    <col min="16" max="21" width="17" style="2" customWidth="1"/>
-    <col min="22" max="23" width="10.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.26953125" style="2" customWidth="1"/>
-    <col min="28" max="28" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="71.90625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="21.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="37.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="37.90625" style="2" customWidth="1"/>
-    <col min="35" max="35" width="37.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="102.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="16384" width="9" style="2"/>
+    <col min="3" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="19.5" style="2" customWidth="1"/>
+    <col min="16" max="22" width="17" style="2" customWidth="1"/>
+    <col min="23" max="24" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.25" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="71.875" style="2" customWidth="1"/>
+    <col min="33" max="33" width="21.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="37.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="37.875" style="2" customWidth="1"/>
+    <col min="36" max="36" width="37.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="102.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="10" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="12"/>
       <c r="B1" s="9" t="s">
         <v>2</v>
@@ -1750,52 +1774,52 @@
         <v>277</v>
       </c>
       <c r="R1" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="T1" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="U1" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="T1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="U1" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="AA1" s="18" t="s">
+      <c r="AB1" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AD1" s="20" t="s">
         <v>289</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="AF1" s="9" t="s">
+      <c r="AG1" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="AH1" s="9" t="s">
         <v>52</v>
@@ -1803,12 +1827,15 @@
       <c r="AI1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="7"/>
-    </row>
-    <row r="2" spans="1:39" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="7"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="7"/>
+    </row>
+    <row r="2" spans="1:40" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1832,17 +1859,17 @@
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
-      <c r="V2"/>
+      <c r="V2" s="2"/>
       <c r="W2"/>
       <c r="X2"/>
       <c r="Y2"/>
       <c r="Z2"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2"/>
+      <c r="AA2"/>
+      <c r="AB2" s="19"/>
       <c r="AC2"/>
       <c r="AD2"/>
       <c r="AE2"/>
-      <c r="AF2" s="2"/>
+      <c r="AF2"/>
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
       <c r="AI2" s="2"/>
@@ -1850,8 +1877,9 @@
       <c r="AK2" s="2"/>
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
-    </row>
-    <row r="3" spans="1:39" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN2" s="2"/>
+    </row>
+    <row r="3" spans="1:40" s="5" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1902,67 +1930,70 @@
         <v>278</v>
       </c>
       <c r="R3" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T3" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="U3" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="V3" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="U3" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="V3" s="8" t="s">
+      <c r="W3" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X3" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y3" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z3" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA3" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB3" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC3" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD3" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="AE3" s="8" t="s">
+      <c r="AF3" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="AF3" s="13" t="s">
+      <c r="AG3" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="AG3" s="13" t="s">
+      <c r="AH3" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="AH3" s="13" t="s">
+      <c r="AI3" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="AI3" s="13" t="s">
+      <c r="AJ3" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="AJ3" s="8" t="s">
+      <c r="AK3" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="AK3" s="8"/>
       <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
-    </row>
-    <row r="4" spans="1:39" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN3" s="8"/>
+    </row>
+    <row r="4" spans="1:40" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -2018,45 +2049,45 @@
         <v>8</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="T4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="U4" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="V4" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="V4" s="15" t="s">
-        <v>6</v>
       </c>
       <c r="W4" s="15" t="s">
         <v>6</v>
       </c>
       <c r="X4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Z4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="AA4" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="AA4" s="15" t="s">
+      <c r="AB4" s="15" t="s">
         <v>202</v>
-      </c>
-      <c r="AB4" s="15" t="s">
-        <v>8</v>
       </c>
       <c r="AC4" s="15" t="s">
         <v>8</v>
       </c>
       <c r="AD4" s="15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AE4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="AF4" s="11" t="s">
+      <c r="AF4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="AG4" s="11" t="s">
@@ -2069,10 +2100,13 @@
         <v>5</v>
       </c>
       <c r="AJ4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK4" s="11" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -2114,40 +2148,41 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6">
-        <v>1</v>
-      </c>
-      <c r="V5" s="4">
+      <c r="T5" s="6">
+        <v>21</v>
+      </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="4">
         <v>200</v>
       </c>
-      <c r="W5" s="4">
+      <c r="X5" s="4">
         <v>650</v>
       </c>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4">
-        <v>0</v>
-      </c>
+      <c r="Y5" s="4"/>
       <c r="Z5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB5" s="4">
+      <c r="AC5" s="4">
         <v>250</v>
       </c>
-      <c r="AC5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4" t="s">
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
-      <c r="AL5" s="4"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG5" s="4"/>
+      <c r="AM5" s="4"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="4">
         <v>2</v>
@@ -2190,40 +2225,41 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6">
-        <v>1</v>
-      </c>
-      <c r="V6" s="4">
+      <c r="T6" s="6">
+        <v>21</v>
+      </c>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="4">
         <v>80</v>
       </c>
-      <c r="W6" s="4">
+      <c r="X6" s="4">
         <v>270</v>
       </c>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4">
-        <v>0</v>
-      </c>
+      <c r="Y6" s="4"/>
       <c r="Z6" s="4">
         <v>0</v>
       </c>
-      <c r="AA6" s="2" t="s">
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB6" s="4">
+      <c r="AC6" s="4">
         <v>100</v>
       </c>
-      <c r="AC6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
-      <c r="AL6" s="4"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG6" s="4"/>
+      <c r="AM6" s="4"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B7" s="4">
         <v>3</v>
       </c>
@@ -2265,40 +2301,41 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4">
+      <c r="T7" s="6">
+        <v>21</v>
+      </c>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="4">
         <v>100</v>
       </c>
-      <c r="W7" s="4">
+      <c r="X7" s="4">
         <v>310</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4">
-        <v>0</v>
-      </c>
+      <c r="Y7" s="4"/>
       <c r="Z7" s="4">
         <v>0</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB7" s="4">
+      <c r="AC7" s="4">
         <v>50</v>
       </c>
-      <c r="AC7" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AD7" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
-      <c r="AL7" s="4"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG7" s="4"/>
+      <c r="AM7" s="4"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B8" s="4">
         <v>4</v>
       </c>
@@ -2340,47 +2377,48 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6">
-        <v>1</v>
-      </c>
-      <c r="V8" s="4"/>
+      <c r="T8" s="6">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="4">
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4">
         <v>600</v>
       </c>
-      <c r="Z8" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB8" s="4">
-        <v>0</v>
+      <c r="AA8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AC8" s="4">
         <v>0</v>
       </c>
-      <c r="AD8" s="4" t="s">
+      <c r="AD8" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="AE8" s="4"/>
-      <c r="AF8" s="2" t="s">
+      <c r="AF8" s="4"/>
+      <c r="AG8" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="AH8" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="AI8" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AL8" s="4"/>
-    </row>
-    <row r="9" spans="1:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM8" s="4"/>
+    </row>
+    <row r="9" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4">
         <v>5</v>
       </c>
@@ -2422,47 +2460,48 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6">
-        <v>1</v>
-      </c>
-      <c r="V9" s="4"/>
+      <c r="T9" s="6">
+        <v>21</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="4">
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4">
         <v>900</v>
       </c>
-      <c r="Z9" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB9" s="4">
-        <v>0</v>
+      <c r="AA9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AC9" s="4">
         <v>0</v>
       </c>
-      <c r="AD9" s="4" t="s">
+      <c r="AD9" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AE9" s="4"/>
-      <c r="AF9" s="2" t="s">
+      <c r="AF9" s="4"/>
+      <c r="AG9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="AG9" s="2" t="s">
+      <c r="AH9" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="AH9" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="AI9" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AL9" s="4"/>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM9" s="4"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B10" s="4">
         <v>6</v>
       </c>
@@ -2506,47 +2545,48 @@
       </c>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6">
-        <v>1</v>
-      </c>
-      <c r="V10" s="4"/>
+      <c r="T10" s="6">
+        <v>21</v>
+      </c>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="4">
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4">
         <v>1200</v>
       </c>
-      <c r="Z10" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB10" s="4">
-        <v>0</v>
+      <c r="AA10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AC10" s="4">
         <v>0</v>
       </c>
-      <c r="AD10" s="4" t="s">
+      <c r="AD10" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="AE10" s="4"/>
-      <c r="AF10" s="2" t="s">
+      <c r="AF10" s="4"/>
+      <c r="AG10" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AH10" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="AI10" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AL10" s="4"/>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="AM10" s="4"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B11" s="4">
         <v>7</v>
       </c>
@@ -2590,47 +2630,48 @@
       </c>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6">
-        <v>1</v>
-      </c>
-      <c r="V11" s="4"/>
+      <c r="T11" s="6">
+        <v>21</v>
+      </c>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="4">
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4">
         <v>600</v>
       </c>
-      <c r="Z11" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB11" s="4">
-        <v>0</v>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AC11" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="2" t="s">
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="AH11" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="AI11" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AL11" s="4"/>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM11" s="4"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B12" s="4">
         <v>8</v>
       </c>
@@ -2674,47 +2715,48 @@
       </c>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6">
-        <v>1</v>
-      </c>
-      <c r="V12" s="4"/>
+      <c r="T12" s="6">
+        <v>1</v>
+      </c>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="4">
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4">
         <v>600</v>
       </c>
-      <c r="Z12" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB12" s="4">
-        <v>0</v>
+      <c r="AA12" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AC12" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="2" t="s">
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AH12" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="AH12" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="AI12" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="AL12" s="4"/>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AM12" s="4"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B13" s="4">
         <v>9</v>
       </c>
@@ -2756,36 +2798,37 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="6">
-        <v>1</v>
-      </c>
-      <c r="V13" s="4"/>
+      <c r="T13" s="6">
+        <v>1</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="4">
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4">
         <v>300</v>
       </c>
-      <c r="Z13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2" t="s">
+      <c r="AA13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB13" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4" t="s">
+      <c r="AC13" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="2" t="s">
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="AL13" s="4"/>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM13" s="4"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B14" s="4">
         <v>10</v>
       </c>
@@ -2827,36 +2870,37 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6">
-        <v>1</v>
-      </c>
-      <c r="V14" s="4"/>
+      <c r="T14" s="6">
+        <v>1</v>
+      </c>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="4">
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4">
         <v>300</v>
       </c>
-      <c r="Z14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AA14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB14" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4" t="s">
+      <c r="AC14" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="2" t="s">
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="AL14" s="4"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM14" s="4"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B15" s="4">
         <v>11</v>
       </c>
@@ -2900,38 +2944,39 @@
       </c>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6">
-        <v>1</v>
-      </c>
-      <c r="V15" s="4"/>
+      <c r="T15" s="6">
+        <v>21</v>
+      </c>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="4">
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4">
         <v>800</v>
       </c>
-      <c r="Z15" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB15" s="4">
-        <v>0</v>
+      <c r="AA15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AC15" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="4">
         <v>2</v>
       </c>
-      <c r="AD15" s="4" t="s">
+      <c r="AE15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="2" t="s">
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AL15" s="4"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM15" s="4"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.15">
       <c r="B16" s="4">
         <v>12</v>
       </c>
@@ -2975,38 +3020,39 @@
       </c>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6">
-        <v>1</v>
-      </c>
-      <c r="V16" s="4"/>
+      <c r="T16" s="6">
+        <v>21</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4">
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4">
         <v>500</v>
       </c>
-      <c r="Z16" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB16" s="4">
-        <v>0</v>
+      <c r="AA16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AC16" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="4">
         <v>2</v>
       </c>
-      <c r="AD16" s="4" t="s">
+      <c r="AE16" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="2" t="s">
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AL16" s="4"/>
-    </row>
-    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AM16" s="4"/>
+    </row>
+    <row r="17" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B17" s="4">
         <v>13</v>
       </c>
@@ -3050,38 +3096,39 @@
       </c>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="6"/>
-      <c r="U17" s="6">
-        <v>1</v>
-      </c>
-      <c r="V17" s="4"/>
+      <c r="T17" s="6">
+        <v>21</v>
+      </c>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="4">
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4">
         <v>800</v>
       </c>
-      <c r="Z17" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB17" s="4">
-        <v>0</v>
+      <c r="AA17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AC17" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="4">
         <v>2</v>
       </c>
-      <c r="AD17" s="4" t="s">
+      <c r="AE17" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="2" t="s">
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AL17" s="4"/>
-    </row>
-    <row r="18" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM17" s="4"/>
+    </row>
+    <row r="18" spans="2:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="4">
         <v>14</v>
       </c>
@@ -3125,38 +3172,39 @@
       </c>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6">
-        <v>1</v>
-      </c>
-      <c r="V18" s="4"/>
+      <c r="T18" s="6">
+        <v>21</v>
+      </c>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="4">
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4">
         <v>1200</v>
       </c>
-      <c r="Z18" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AA18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB18" s="4">
-        <v>0</v>
-      </c>
       <c r="AC18" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4">
         <v>2</v>
       </c>
-      <c r="AD18" s="4" t="s">
+      <c r="AE18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="2" t="s">
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AL18" s="4"/>
-    </row>
-    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AM18" s="4"/>
+    </row>
+    <row r="19" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B19" s="4">
         <v>15</v>
       </c>
@@ -3198,32 +3246,33 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6">
-        <v>1</v>
-      </c>
-      <c r="V19" s="4"/>
+      <c r="T19" s="6">
+        <v>1</v>
+      </c>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
-      <c r="Z19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB19" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4" t="s">
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC19" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4"/>
+      <c r="AE19" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-      <c r="AL19" s="4"/>
-    </row>
-    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG19" s="4"/>
+      <c r="AM19" s="4"/>
+    </row>
+    <row r="20" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B20" s="4">
         <v>16</v>
       </c>
@@ -3265,32 +3314,33 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="6">
-        <v>1</v>
-      </c>
-      <c r="V20" s="4"/>
+      <c r="T20" s="6">
+        <v>1</v>
+      </c>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
-      <c r="Z20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB20" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="4"/>
-      <c r="AD20" s="4" t="s">
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-      <c r="AL20" s="4"/>
-    </row>
-    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG20" s="4"/>
+      <c r="AM20" s="4"/>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B21" s="4">
         <v>17</v>
       </c>
@@ -3332,36 +3382,37 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6">
-        <v>1</v>
-      </c>
-      <c r="V21" s="4"/>
+      <c r="T21" s="6">
+        <v>1</v>
+      </c>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="4">
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4">
         <v>200</v>
       </c>
-      <c r="Z21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB21" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4" t="s">
+      <c r="AA21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4"/>
+      <c r="AE21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="2" t="s">
+      <c r="AF21" s="4"/>
+      <c r="AG21" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AL21" s="4"/>
-    </row>
-    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AM21" s="4"/>
+    </row>
+    <row r="22" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B22" s="4">
         <v>18</v>
       </c>
@@ -3403,36 +3454,37 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="6">
-        <v>1</v>
-      </c>
-      <c r="V22" s="4"/>
+      <c r="T22" s="6">
+        <v>1</v>
+      </c>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
       <c r="W22" s="4"/>
       <c r="X22" s="4"/>
-      <c r="Y22" s="4">
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4">
         <v>200</v>
       </c>
-      <c r="Z22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB22" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4" t="s">
+      <c r="AA22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC22" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="2" t="s">
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AL22" s="4"/>
-    </row>
-    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AM22" s="4"/>
+    </row>
+    <row r="23" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B23" s="4">
         <v>19</v>
       </c>
@@ -3474,36 +3526,37 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6">
-        <v>1</v>
-      </c>
-      <c r="V23" s="4"/>
+      <c r="T23" s="6">
+        <v>1</v>
+      </c>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
       <c r="W23" s="4"/>
       <c r="X23" s="4"/>
-      <c r="Y23" s="4">
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4">
         <v>200</v>
       </c>
-      <c r="Z23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB23" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4" t="s">
+      <c r="AA23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4"/>
+      <c r="AE23" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="2" t="s">
+      <c r="AF23" s="4"/>
+      <c r="AG23" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AL23" s="4"/>
-    </row>
-    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AM23" s="4"/>
+    </row>
+    <row r="24" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B24" s="4">
         <v>20</v>
       </c>
@@ -3545,36 +3598,37 @@
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="6">
-        <v>1</v>
-      </c>
-      <c r="V24" s="4"/>
+      <c r="T24" s="6">
+        <v>1</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
       <c r="W24" s="4"/>
       <c r="X24" s="4"/>
-      <c r="Y24" s="4">
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4">
         <v>200</v>
       </c>
-      <c r="Z24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB24" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4" t="s">
+      <c r="AA24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="2" t="s">
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AL24" s="4"/>
-    </row>
-    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AM24" s="4"/>
+    </row>
+    <row r="25" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B25" s="4">
         <v>21</v>
       </c>
@@ -3616,36 +3670,37 @@
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6">
-        <v>1</v>
-      </c>
-      <c r="V25" s="4"/>
+      <c r="T25" s="6">
+        <v>1</v>
+      </c>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
       <c r="W25" s="4"/>
       <c r="X25" s="4"/>
-      <c r="Y25" s="4">
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4">
         <v>200</v>
       </c>
-      <c r="Z25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB25" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4" t="s">
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4"/>
+      <c r="AE25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="2" t="s">
+      <c r="AF25" s="4"/>
+      <c r="AG25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="AL25" s="4"/>
-    </row>
-    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AM25" s="4"/>
+    </row>
+    <row r="26" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B26" s="4">
         <v>22</v>
       </c>
@@ -3687,36 +3742,37 @@
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6">
-        <v>1</v>
-      </c>
-      <c r="V26" s="4"/>
+      <c r="T26" s="6">
+        <v>1</v>
+      </c>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
       <c r="W26" s="4"/>
       <c r="X26" s="4"/>
-      <c r="Y26" s="4">
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4">
         <v>200</v>
       </c>
-      <c r="Z26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB26" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4" t="s">
+      <c r="AA26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="2" t="s">
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AL26" s="4"/>
-    </row>
-    <row r="27" spans="2:38" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AM26" s="4"/>
+    </row>
+    <row r="27" spans="2:39" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="4">
         <v>23</v>
       </c>
@@ -3758,36 +3814,37 @@
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6">
-        <v>1</v>
-      </c>
-      <c r="V27" s="4"/>
+      <c r="T27" s="6">
+        <v>1</v>
+      </c>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
       <c r="W27" s="4"/>
       <c r="X27" s="4"/>
-      <c r="Y27" s="4">
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4">
         <v>200</v>
       </c>
-      <c r="Z27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB27" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4" t="s">
+      <c r="AA27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="2" t="s">
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AL27" s="4"/>
-    </row>
-    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AM27" s="4"/>
+    </row>
+    <row r="28" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B28" s="4">
         <v>24</v>
       </c>
@@ -3829,32 +3886,33 @@
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6">
-        <v>1</v>
-      </c>
-      <c r="V28" s="4"/>
+      <c r="T28" s="6">
+        <v>1</v>
+      </c>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
       <c r="W28" s="4"/>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="2" t="s">
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB28" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4" t="s">
+      <c r="AC28" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AE28" s="4"/>
       <c r="AF28" s="4"/>
-      <c r="AL28" s="4"/>
-    </row>
-    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG28" s="4"/>
+      <c r="AM28" s="4"/>
+    </row>
+    <row r="29" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B29" s="4">
         <v>25</v>
       </c>
@@ -3896,32 +3954,33 @@
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6">
-        <v>1</v>
-      </c>
-      <c r="V29" s="4"/>
+      <c r="T29" s="6">
+        <v>1</v>
+      </c>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
       <c r="W29" s="4"/>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="2" t="s">
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4" t="s">
+      <c r="AC29" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AE29" s="4"/>
       <c r="AF29" s="4"/>
-      <c r="AL29" s="4"/>
-    </row>
-    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG29" s="4"/>
+      <c r="AM29" s="4"/>
+    </row>
+    <row r="30" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B30" s="4">
         <v>26</v>
       </c>
@@ -3961,32 +4020,33 @@
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6">
-        <v>1</v>
-      </c>
-      <c r="V30" s="4"/>
+      <c r="T30" s="6">
+        <v>1</v>
+      </c>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
       <c r="W30" s="4"/>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="2" t="s">
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="4"/>
-      <c r="AD30" s="4" t="s">
+      <c r="AC30" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
-      <c r="AL30" s="4"/>
-    </row>
-    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG30" s="4"/>
+      <c r="AM30" s="4"/>
+    </row>
+    <row r="31" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B31" s="4">
         <v>27</v>
       </c>
@@ -4028,32 +4088,33 @@
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6">
-        <v>1</v>
-      </c>
-      <c r="V31" s="4"/>
+      <c r="T31" s="6">
+        <v>1</v>
+      </c>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
       <c r="W31" s="4"/>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="2" t="s">
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB31" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4" t="s">
+      <c r="AC31" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
-      <c r="AL31" s="4"/>
-    </row>
-    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG31" s="4"/>
+      <c r="AM31" s="4"/>
+    </row>
+    <row r="32" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B32" s="4">
         <v>28</v>
       </c>
@@ -4093,32 +4154,33 @@
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6">
-        <v>1</v>
-      </c>
-      <c r="V32" s="4"/>
+      <c r="T32" s="6">
+        <v>1</v>
+      </c>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
       <c r="W32" s="4"/>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="2" t="s">
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AB32" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4" t="s">
+      <c r="AC32" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
-      <c r="AL32" s="4"/>
-    </row>
-    <row r="33" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG32" s="4"/>
+      <c r="AM32" s="4"/>
+    </row>
+    <row r="33" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B33" s="4">
         <v>29</v>
       </c>
@@ -4160,32 +4222,33 @@
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6">
-        <v>1</v>
-      </c>
-      <c r="V33" s="4"/>
+      <c r="T33" s="6">
+        <v>1</v>
+      </c>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
       <c r="W33" s="4"/>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB33" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4" t="s">
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC33" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
-      <c r="AL33" s="4"/>
-    </row>
-    <row r="34" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG33" s="4"/>
+      <c r="AM33" s="4"/>
+    </row>
+    <row r="34" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B34" s="4">
         <v>30</v>
       </c>
@@ -4227,32 +4290,33 @@
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6">
-        <v>1</v>
-      </c>
-      <c r="V34" s="4"/>
+      <c r="T34" s="6">
+        <v>1</v>
+      </c>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
       <c r="W34" s="4"/>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB34" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4" t="s">
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC34" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
-      <c r="AL34" s="4"/>
-    </row>
-    <row r="35" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG34" s="4"/>
+      <c r="AM34" s="4"/>
+    </row>
+    <row r="35" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B35" s="4">
         <v>31</v>
       </c>
@@ -4294,36 +4358,37 @@
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6">
-        <v>1</v>
-      </c>
-      <c r="V35" s="4"/>
+      <c r="T35" s="6">
+        <v>1</v>
+      </c>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
       <c r="W35" s="4"/>
       <c r="X35" s="4"/>
-      <c r="Y35" s="4">
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4">
         <v>1500</v>
       </c>
-      <c r="Z35" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB35" s="4">
+      <c r="AA35" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC35" s="4">
         <v>100</v>
       </c>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4" t="s">
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AE35" s="4" t="s">
+      <c r="AF35" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="AF35" s="4"/>
-      <c r="AL35" s="4"/>
-    </row>
-    <row r="36" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AG35" s="4"/>
+      <c r="AM35" s="4"/>
+    </row>
+    <row r="36" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B36" s="4">
         <v>32</v>
       </c>
@@ -4369,51 +4434,52 @@
       </c>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6">
-        <v>1</v>
-      </c>
-      <c r="V36" s="4">
-        <v>25</v>
-      </c>
-      <c r="W36" s="4"/>
+      <c r="T36" s="6">
+        <v>2</v>
+      </c>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="4">
+        <v>15</v>
+      </c>
       <c r="X36" s="4"/>
-      <c r="Y36" s="4">
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4">
         <v>200</v>
       </c>
-      <c r="Z36" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB36" s="4">
+      <c r="AA36" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC36" s="4">
         <v>30</v>
       </c>
-      <c r="AC36" s="4">
+      <c r="AD36" s="4">
         <v>3</v>
       </c>
-      <c r="AD36" s="4" t="s">
+      <c r="AE36" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AE36" s="4" t="s">
+      <c r="AF36" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AF36" s="2" t="s">
+      <c r="AG36" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AG36" s="2" t="s">
+      <c r="AH36" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="AH36" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="AI36" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AL36" s="4"/>
-    </row>
-    <row r="37" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ36" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM36" s="4"/>
+    </row>
+    <row r="37" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B37" s="4">
         <v>33</v>
       </c>
@@ -4459,51 +4525,52 @@
       </c>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6">
-        <v>1</v>
-      </c>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4">
-        <v>110</v>
-      </c>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4">
+      <c r="T37" s="6">
+        <v>1</v>
+      </c>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4">
+        <v>225</v>
+      </c>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4">
         <v>200</v>
       </c>
-      <c r="Z37" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB37" s="4">
+      <c r="AA37" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC37" s="4">
         <v>30</v>
       </c>
-      <c r="AC37" s="4">
+      <c r="AD37" s="4">
         <v>3</v>
       </c>
-      <c r="AD37" s="4" t="s">
+      <c r="AE37" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AE37" s="4" t="s">
+      <c r="AF37" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AF37" s="2" t="s">
+      <c r="AG37" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AG37" s="2" t="s">
+      <c r="AH37" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="AH37" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="AI37" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AL37" s="4"/>
-    </row>
-    <row r="38" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ37" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="AM37" s="4"/>
+    </row>
+    <row r="38" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B38" s="4">
         <v>34</v>
       </c>
@@ -4544,57 +4611,57 @@
         <v>222</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="S38" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="U38" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="U38" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V38" s="4"/>
+      <c r="V38" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W38" s="4"/>
-      <c r="Y38" s="4">
+      <c r="X38" s="4"/>
+      <c r="Z38" s="4">
         <v>300</v>
       </c>
-      <c r="Z38" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB38" s="4">
+      <c r="AA38" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC38" s="4">
         <v>30</v>
       </c>
-      <c r="AC38" s="4">
+      <c r="AD38" s="4">
         <v>4</v>
       </c>
-      <c r="AD38" s="4" t="s">
+      <c r="AE38" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AE38" s="4" t="s">
+      <c r="AF38" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AF38" s="2" t="s">
+      <c r="AG38" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AG38" s="2" t="s">
+      <c r="AH38" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="AH38" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI38" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="39" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ38" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B39" s="4">
         <v>35</v>
       </c>
@@ -4635,57 +4702,57 @@
         <v>222</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R39" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="S39" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="U39" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="T39" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="U39" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V39" s="4"/>
+      <c r="V39" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="W39" s="4"/>
-      <c r="Y39" s="4">
+      <c r="X39" s="4"/>
+      <c r="Z39" s="4">
         <v>300</v>
       </c>
-      <c r="Z39" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB39" s="4">
+      <c r="AA39" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC39" s="4">
         <v>30</v>
       </c>
-      <c r="AC39" s="4">
+      <c r="AD39" s="4">
         <v>2</v>
       </c>
-      <c r="AD39" s="4" t="s">
+      <c r="AE39" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AE39" s="4" t="s">
+      <c r="AF39" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AF39" s="2" t="s">
+      <c r="AG39" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AG39" s="2" t="s">
+      <c r="AH39" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="AH39" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI39" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="40" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ39" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B40" s="4">
         <v>36</v>
       </c>
@@ -4726,57 +4793,57 @@
         <v>222</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="S40" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="U40" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="V40" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Z40" s="4">
         <v>300</v>
       </c>
-      <c r="U40" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V40" s="4"/>
-      <c r="W40" s="4"/>
-      <c r="Y40" s="4">
-        <v>300</v>
-      </c>
-      <c r="Z40" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB40" s="4">
+      <c r="AA40" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC40" s="4">
         <v>30</v>
       </c>
-      <c r="AC40" s="4">
+      <c r="AD40" s="4">
         <v>2</v>
       </c>
-      <c r="AD40" s="4" t="s">
+      <c r="AE40" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AE40" s="4" t="s">
+      <c r="AF40" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AF40" s="2" t="s">
+      <c r="AG40" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AG40" s="2" t="s">
+      <c r="AH40" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="AH40" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI40" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="41" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ40" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B41" s="4">
         <v>37</v>
       </c>
@@ -4817,57 +4884,57 @@
         <v>222</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S41" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="U41" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="T41" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="V41" s="4"/>
+      <c r="V41" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W41" s="4"/>
-      <c r="Y41" s="4">
+      <c r="X41" s="4"/>
+      <c r="Z41" s="4">
         <v>300</v>
       </c>
-      <c r="Z41" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB41" s="4">
+      <c r="AA41" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC41" s="4">
         <v>30</v>
       </c>
-      <c r="AC41" s="4">
+      <c r="AD41" s="4">
         <v>2</v>
       </c>
-      <c r="AD41" s="4" t="s">
+      <c r="AE41" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AE41" s="4" t="s">
+      <c r="AF41" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AF41" s="2" t="s">
+      <c r="AG41" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AG41" s="2" t="s">
+      <c r="AH41" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="AH41" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI41" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="42" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ41" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B42" s="4">
         <v>38</v>
       </c>
@@ -4908,57 +4975,57 @@
         <v>222</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R42" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S42" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="U42" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="T42" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="V42" s="4"/>
+      <c r="V42" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W42" s="4"/>
-      <c r="Y42" s="4">
+      <c r="X42" s="4"/>
+      <c r="Z42" s="4">
         <v>300</v>
       </c>
-      <c r="Z42" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB42" s="4">
+      <c r="AA42" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC42" s="4">
         <v>30</v>
       </c>
-      <c r="AC42" s="4">
+      <c r="AD42" s="4">
         <v>2</v>
       </c>
-      <c r="AD42" s="4" t="s">
+      <c r="AE42" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AE42" s="4" t="s">
+      <c r="AF42" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="AF42" s="2" t="s">
+      <c r="AG42" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AG42" s="2" t="s">
+      <c r="AH42" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="AH42" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI42" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="43" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ42" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="43" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B43" s="4">
         <v>39</v>
       </c>
@@ -4998,47 +5065,47 @@
       <c r="Q43" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="U43" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V43" s="4"/>
+      <c r="T43" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="W43" s="4"/>
-      <c r="Y43" s="4">
+      <c r="X43" s="4"/>
+      <c r="Z43" s="4">
         <v>400</v>
       </c>
-      <c r="Z43" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB43" s="4">
+      <c r="AA43" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC43" s="4">
         <v>30</v>
       </c>
-      <c r="AC43" s="4">
+      <c r="AD43" s="4">
         <v>3</v>
       </c>
-      <c r="AD43" s="4" t="s">
+      <c r="AE43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="2" t="s">
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="AG43" s="2" t="s">
+      <c r="AH43" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="AH43" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI43" s="2" t="s">
         <v>251</v>
       </c>
       <c r="AJ43" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK43" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="44" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B44" s="4">
         <v>40</v>
       </c>
@@ -5078,47 +5145,47 @@
       <c r="Q44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="U44" s="2" t="s">
+      <c r="T44" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-      <c r="Y44" s="4">
+      <c r="X44" s="4"/>
+      <c r="Z44" s="4">
         <v>400</v>
       </c>
-      <c r="Z44" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB44" s="4">
+      <c r="AA44" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC44" s="4">
         <v>30</v>
       </c>
-      <c r="AC44" s="4">
+      <c r="AD44" s="4">
         <v>3</v>
       </c>
-      <c r="AD44" s="4" t="s">
+      <c r="AE44" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AE44" s="4"/>
-      <c r="AF44" s="2" t="s">
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AG44" s="2" t="s">
+      <c r="AH44" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="AH44" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI44" s="2" t="s">
         <v>251</v>
       </c>
       <c r="AJ44" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK44" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="45" spans="2:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B45" s="4">
         <v>41</v>
       </c>
@@ -5161,46 +5228,46 @@
       <c r="Q45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="U45" s="2" t="s">
+      <c r="T45" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-      <c r="Y45" s="4">
+      <c r="X45" s="4"/>
+      <c r="Z45" s="4">
         <v>200</v>
       </c>
-      <c r="Z45" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB45" s="4">
+      <c r="AA45" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC45" s="4">
         <v>30</v>
       </c>
-      <c r="AC45" s="4">
+      <c r="AD45" s="4">
         <v>2</v>
       </c>
-      <c r="AD45" s="4" t="s">
+      <c r="AE45" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="AE45" s="4" t="s">
+      <c r="AF45" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AF45" s="2" t="s">
+      <c r="AG45" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AG45" s="2" t="s">
+      <c r="AH45" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="AH45" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI45" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="46" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ45" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B46" s="4">
         <v>42</v>
       </c>
@@ -5241,57 +5308,57 @@
         <v>122</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R46" s="2" t="s">
         <v>139</v>
       </c>
       <c r="S46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="U46" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="T46" s="2" t="s">
+      <c r="V46" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="U46" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V46" s="4"/>
       <c r="W46" s="4"/>
-      <c r="Y46" s="4">
+      <c r="X46" s="4"/>
+      <c r="Z46" s="4">
         <v>200</v>
       </c>
-      <c r="Z46" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB46" s="4">
+      <c r="AA46" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC46" s="4">
         <v>30</v>
       </c>
-      <c r="AC46" s="4">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="4" t="s">
+      <c r="AD46" s="4">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="AE46" s="4" t="s">
+      <c r="AF46" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AF46" s="2" t="s">
+      <c r="AG46" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AG46" s="2" t="s">
+      <c r="AH46" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="AH46" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI46" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="47" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ46" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="47" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B47" s="4">
         <v>43</v>
       </c>
@@ -5334,49 +5401,49 @@
       <c r="Q47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R47" s="2" t="s">
+      <c r="S47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="U47" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="V47" s="4"/>
+      <c r="T47" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="W47" s="4"/>
-      <c r="Y47" s="4">
+      <c r="X47" s="4"/>
+      <c r="Z47" s="4">
         <v>200</v>
       </c>
-      <c r="Z47" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB47" s="4">
+      <c r="AA47" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC47" s="4">
         <v>30</v>
       </c>
-      <c r="AC47" s="4">
+      <c r="AD47" s="4">
         <v>2</v>
       </c>
-      <c r="AD47" s="4" t="s">
+      <c r="AE47" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="AE47" s="4" t="s">
+      <c r="AF47" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AF47" s="2" t="s">
+      <c r="AG47" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AG47" s="2" t="s">
+      <c r="AH47" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="AH47" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI47" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="48" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ47" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="48" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B48" s="4">
         <v>44</v>
       </c>
@@ -5419,46 +5486,46 @@
       <c r="Q48" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="U48" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V48" s="4"/>
+      <c r="T48" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="W48" s="4"/>
-      <c r="Y48" s="4">
+      <c r="X48" s="4"/>
+      <c r="Z48" s="4">
         <v>200</v>
       </c>
-      <c r="Z48" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB48" s="4">
+      <c r="AA48" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC48" s="4">
         <v>30</v>
       </c>
-      <c r="AC48" s="4">
+      <c r="AD48" s="4">
         <v>3</v>
       </c>
-      <c r="AD48" s="4" t="s">
+      <c r="AE48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AE48" s="4" t="s">
+      <c r="AF48" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AF48" s="2" t="s">
+      <c r="AG48" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AG48" s="2" t="s">
+      <c r="AH48" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="AH48" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI48" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="49" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ48" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="49" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B49" s="4">
         <v>45</v>
       </c>
@@ -5501,46 +5568,46 @@
       <c r="Q49" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="U49" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V49" s="4"/>
+      <c r="T49" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="W49" s="4"/>
-      <c r="Y49" s="4">
+      <c r="X49" s="4"/>
+      <c r="Z49" s="4">
         <v>200</v>
       </c>
-      <c r="Z49" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB49" s="4">
+      <c r="AA49" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC49" s="4">
         <v>30</v>
       </c>
-      <c r="AC49" s="4">
+      <c r="AD49" s="4">
         <v>2</v>
       </c>
-      <c r="AD49" s="4" t="s">
+      <c r="AE49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AE49" s="4" t="s">
+      <c r="AF49" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AF49" s="2" t="s">
+      <c r="AG49" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AG49" s="2" t="s">
+      <c r="AH49" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="AH49" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI49" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="50" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ49" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B50" s="4">
         <v>46</v>
       </c>
@@ -5581,54 +5648,54 @@
         <v>122</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="R50" s="2" t="s">
         <v>139</v>
       </c>
       <c r="S50" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="U50" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="U50" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V50" s="4"/>
       <c r="W50" s="4"/>
-      <c r="Y50" s="4">
+      <c r="X50" s="4"/>
+      <c r="Z50" s="4">
         <v>200</v>
       </c>
-      <c r="Z50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB50" s="4">
+      <c r="AA50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC50" s="4">
         <v>30</v>
       </c>
-      <c r="AC50" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="4" t="s">
+      <c r="AD50" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="AE50" s="4" t="s">
+      <c r="AF50" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AF50" s="2" t="s">
+      <c r="AG50" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AG50" s="2" t="s">
+      <c r="AH50" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="AH50" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI50" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="51" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ50" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B51" s="4">
         <v>47</v>
       </c>
@@ -5671,48 +5738,48 @@
       <c r="Q51" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="U51" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V51" s="4">
-        <v>80</v>
-      </c>
-      <c r="W51" s="4"/>
-      <c r="Y51" s="4">
+      <c r="T51" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="W51" s="4">
+        <v>60</v>
+      </c>
+      <c r="X51" s="4"/>
+      <c r="Z51" s="4">
         <v>400</v>
       </c>
-      <c r="Z51" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB51" s="4">
+      <c r="AA51" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC51" s="4">
         <v>30</v>
       </c>
-      <c r="AC51" s="4">
+      <c r="AD51" s="4">
         <v>3</v>
       </c>
-      <c r="AD51" s="4" t="s">
+      <c r="AE51" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AE51" s="4" t="s">
+      <c r="AF51" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="AF51" s="2" t="s">
+      <c r="AG51" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AG51" s="2" t="s">
+      <c r="AH51" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="AH51" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI51" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="52" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ51" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B52" s="4">
         <v>48</v>
       </c>
@@ -5755,48 +5822,48 @@
       <c r="Q52" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="U52" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V52" s="4">
+      <c r="T52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="W52" s="4">
         <v>60</v>
       </c>
-      <c r="W52" s="4"/>
-      <c r="Y52" s="4">
+      <c r="X52" s="4"/>
+      <c r="Z52" s="4">
         <v>400</v>
       </c>
-      <c r="Z52" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB52" s="4">
+      <c r="AA52" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC52" s="4">
         <v>30</v>
       </c>
-      <c r="AC52" s="4">
+      <c r="AD52" s="4">
         <v>3</v>
       </c>
-      <c r="AD52" s="4" t="s">
+      <c r="AE52" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AE52" s="4" t="s">
+      <c r="AF52" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="AF52" s="2" t="s">
+      <c r="AG52" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AG52" s="2" t="s">
+      <c r="AH52" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="AH52" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI52" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="53" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ52" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="53" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B53" s="4">
         <v>49</v>
       </c>
@@ -5836,46 +5903,46 @@
       <c r="Q53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="U53" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V53" s="4">
-        <v>20</v>
-      </c>
-      <c r="W53" s="4"/>
-      <c r="Y53" s="4">
+      <c r="T53" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="W53" s="4">
+        <v>12</v>
+      </c>
+      <c r="X53" s="4"/>
+      <c r="Z53" s="4">
         <v>50</v>
       </c>
-      <c r="Z53" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB53" s="4">
-        <v>0</v>
+      <c r="AA53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="AC53" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="4">
         <v>3</v>
       </c>
-      <c r="AD53" s="4" t="s">
+      <c r="AE53" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="2" t="s">
+      <c r="AF53" s="4"/>
+      <c r="AG53" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AG53" s="2" t="s">
+      <c r="AH53" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="AH53" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI53" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="54" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ53" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="54" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B54" s="4">
         <v>50</v>
       </c>
@@ -5918,51 +5985,51 @@
       <c r="Q54" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="U54" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4">
-        <v>200</v>
-      </c>
-      <c r="Y54" s="4">
+      <c r="T54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4">
+        <v>250</v>
+      </c>
+      <c r="Z54" s="4">
         <v>400</v>
       </c>
-      <c r="Z54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB54" s="4">
+      <c r="AA54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC54" s="4">
         <v>30</v>
       </c>
-      <c r="AC54" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="4" t="s">
+      <c r="AD54" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AE54" s="4" t="s">
+      <c r="AF54" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="AF54" s="2" t="s">
+      <c r="AG54" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="AG54" s="2" t="s">
+      <c r="AH54" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="AH54" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI54" s="2" t="s">
         <v>251</v>
       </c>
       <c r="AJ54" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AK54" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="55" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B55" s="4">
         <v>51</v>
       </c>
@@ -6003,48 +6070,48 @@
         <v>222</v>
       </c>
       <c r="Q55" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="U55" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V55" s="4">
-        <v>30</v>
-      </c>
-      <c r="W55" s="4"/>
-      <c r="Y55" s="4">
+        <v>122</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W55" s="4">
+        <v>25</v>
+      </c>
+      <c r="X55" s="4"/>
+      <c r="Z55" s="4">
         <v>200</v>
       </c>
-      <c r="Z55" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB55" s="4">
+      <c r="AA55" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC55" s="4">
         <v>20</v>
       </c>
-      <c r="AC55" s="4">
+      <c r="AD55" s="4">
         <v>3</v>
       </c>
-      <c r="AD55" s="4" t="s">
+      <c r="AE55" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="2" t="s">
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AG55" s="2" t="s">
+      <c r="AH55" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="AH55" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI55" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="56" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ55" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="56" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B56" s="4">
         <v>52</v>
       </c>
@@ -6082,48 +6149,48 @@
         <v>222</v>
       </c>
       <c r="Q56" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U56" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V56" s="4">
-        <v>40</v>
-      </c>
-      <c r="W56" s="4"/>
-      <c r="Y56" s="4">
+        <v>122</v>
+      </c>
+      <c r="T56" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="W56" s="4">
+        <v>30</v>
+      </c>
+      <c r="X56" s="4"/>
+      <c r="Z56" s="4">
         <v>200</v>
       </c>
-      <c r="Z56" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB56" s="4">
+      <c r="AA56" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC56" s="4">
         <v>20</v>
       </c>
-      <c r="AC56" s="4">
+      <c r="AD56" s="4">
         <v>3</v>
       </c>
-      <c r="AD56" s="4" t="s">
+      <c r="AE56" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="2" t="s">
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="AG56" s="2" t="s">
+      <c r="AH56" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="AH56" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI56" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="57" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ56" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="57" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B57" s="4">
         <v>53</v>
       </c>
@@ -6164,48 +6231,48 @@
         <v>222</v>
       </c>
       <c r="Q57" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="T57" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="U57" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4">
-        <v>140</v>
-      </c>
-      <c r="Y57" s="4">
+      <c r="W57" s="4"/>
+      <c r="X57" s="4">
+        <v>300</v>
+      </c>
+      <c r="Z57" s="4">
         <v>200</v>
       </c>
-      <c r="Z57" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB57" s="4">
+      <c r="AA57" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC57" s="4">
         <v>20</v>
       </c>
-      <c r="AC57" s="4">
+      <c r="AD57" s="4">
         <v>3</v>
       </c>
-      <c r="AD57" s="4" t="s">
+      <c r="AE57" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="2" t="s">
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AG57" s="2" t="s">
+      <c r="AH57" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="AH57" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI57" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="58" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ57" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B58" s="4">
         <v>54</v>
       </c>
@@ -6243,48 +6310,48 @@
         <v>222</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="U58" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4">
-        <v>180</v>
-      </c>
-      <c r="Y58" s="4">
+        <v>122</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4">
+        <v>350</v>
+      </c>
+      <c r="Z58" s="4">
         <v>200</v>
       </c>
-      <c r="Z58" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB58" s="4">
+      <c r="AA58" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC58" s="4">
         <v>20</v>
       </c>
-      <c r="AC58" s="4">
+      <c r="AD58" s="4">
         <v>3</v>
       </c>
-      <c r="AD58" s="4" t="s">
+      <c r="AE58" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="2" t="s">
+      <c r="AF58" s="4"/>
+      <c r="AG58" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="AG58" s="2" t="s">
+      <c r="AH58" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="AH58" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI58" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="59" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ58" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="59" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B59" s="4">
         <v>55</v>
       </c>
@@ -6325,55 +6392,55 @@
         <v>222</v>
       </c>
       <c r="Q59" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>311</v>
+        <v>139</v>
       </c>
       <c r="S59" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="U59" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="T59" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V59" s="4"/>
+      <c r="V59" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W59" s="4"/>
-      <c r="Y59" s="4">
+      <c r="X59" s="4"/>
+      <c r="Z59" s="4">
         <v>200</v>
       </c>
-      <c r="Z59" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB59" s="4">
+      <c r="AA59" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC59" s="4">
         <v>20</v>
       </c>
-      <c r="AC59" s="4">
+      <c r="AD59" s="4">
         <v>4</v>
       </c>
-      <c r="AD59" s="4" t="s">
+      <c r="AE59" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="2" t="s">
+      <c r="AF59" s="4"/>
+      <c r="AG59" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AG59" s="2" t="s">
+      <c r="AH59" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="AH59" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI59" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="60" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ59" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B60" s="4">
         <v>56</v>
       </c>
@@ -6413,53 +6480,53 @@
       <c r="Q60" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R60" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="S60" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="U60" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="T60" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U60" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V60" s="4"/>
+      <c r="V60" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W60" s="4"/>
-      <c r="Y60" s="4">
+      <c r="X60" s="4"/>
+      <c r="Z60" s="4">
         <v>200</v>
       </c>
-      <c r="Z60" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB60" s="4">
+      <c r="AA60" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC60" s="4">
         <v>20</v>
       </c>
-      <c r="AC60" s="4">
+      <c r="AD60" s="4">
         <v>4</v>
       </c>
-      <c r="AD60" s="4" t="s">
+      <c r="AE60" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="2" t="s">
+      <c r="AF60" s="4"/>
+      <c r="AG60" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="AG60" s="2" t="s">
+      <c r="AH60" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="AH60" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI60" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="61" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ60" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B61" s="4">
         <v>57</v>
       </c>
@@ -6500,55 +6567,55 @@
         <v>222</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R61" s="2" t="s">
-        <v>308</v>
+        <v>139</v>
       </c>
       <c r="S61" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="U61" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="T61" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="U61" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V61" s="4"/>
+      <c r="V61" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="W61" s="4"/>
-      <c r="Y61" s="4">
+      <c r="X61" s="4"/>
+      <c r="Z61" s="4">
         <v>200</v>
       </c>
-      <c r="Z61" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB61" s="4">
+      <c r="AA61" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC61" s="4">
         <v>20</v>
       </c>
-      <c r="AC61" s="4">
+      <c r="AD61" s="4">
         <v>2</v>
       </c>
-      <c r="AD61" s="4" t="s">
+      <c r="AE61" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="2" t="s">
+      <c r="AF61" s="4"/>
+      <c r="AG61" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AG61" s="2" t="s">
+      <c r="AH61" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="AH61" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI61" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="62" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ61" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B62" s="4">
         <v>58</v>
       </c>
@@ -6588,53 +6655,53 @@
       <c r="Q62" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R62" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="S62" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="U62" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="T62" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="U62" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V62" s="4"/>
+      <c r="V62" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="W62" s="4"/>
-      <c r="Y62" s="4">
+      <c r="X62" s="4"/>
+      <c r="Z62" s="4">
         <v>200</v>
       </c>
-      <c r="Z62" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA62" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB62" s="4">
+      <c r="AA62" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC62" s="4">
         <v>20</v>
       </c>
-      <c r="AC62" s="4">
+      <c r="AD62" s="4">
         <v>2</v>
       </c>
-      <c r="AD62" s="4" t="s">
+      <c r="AE62" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="2" t="s">
+      <c r="AF62" s="4"/>
+      <c r="AG62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="AG62" s="2" t="s">
+      <c r="AH62" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="AH62" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI62" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="63" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ62" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="63" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B63" s="4">
         <v>59</v>
       </c>
@@ -6675,56 +6742,56 @@
         <v>222</v>
       </c>
       <c r="Q63" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R63" s="2" t="s">
-        <v>310</v>
+        <v>139</v>
       </c>
       <c r="S63" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="U63" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="T63" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="U63" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V63" s="4"/>
+      <c r="V63" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="W63" s="4"/>
       <c r="X63" s="4"/>
-      <c r="Y63" s="4">
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4">
         <v>200</v>
       </c>
-      <c r="Z63" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA63" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB63" s="4">
+      <c r="AA63" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC63" s="4">
         <v>20</v>
       </c>
-      <c r="AC63" s="4">
+      <c r="AD63" s="4">
         <v>2</v>
       </c>
-      <c r="AD63" s="4" t="s">
+      <c r="AE63" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AE63" s="4"/>
-      <c r="AF63" s="2" t="s">
+      <c r="AF63" s="4"/>
+      <c r="AG63" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AG63" s="2" t="s">
+      <c r="AH63" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="AH63" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI63" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="64" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="AJ63" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="64" spans="2:37" x14ac:dyDescent="0.15">
       <c r="B64" s="4">
         <v>60</v>
       </c>
@@ -6765,54 +6832,54 @@
       <c r="Q64" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R64" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="S64" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="T64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="U64" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="T64" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="U64" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="V64" s="4"/>
+      <c r="V64" s="2" t="s">
+        <v>299</v>
+      </c>
       <c r="W64" s="4"/>
       <c r="X64" s="4"/>
-      <c r="Y64" s="4">
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4">
         <v>200</v>
       </c>
-      <c r="Z64" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB64" s="4">
+      <c r="AA64" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC64" s="4">
         <v>20</v>
       </c>
-      <c r="AC64" s="4">
+      <c r="AD64" s="4">
         <v>2</v>
       </c>
-      <c r="AD64" s="4" t="s">
+      <c r="AE64" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AE64" s="4"/>
-      <c r="AF64" s="2" t="s">
+      <c r="AF64" s="4"/>
+      <c r="AG64" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AG64" s="2" t="s">
+      <c r="AH64" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="AH64" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI64" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="65" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ64" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="65" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B65" s="4">
         <v>61</v>
       </c>
@@ -6853,55 +6920,55 @@
         <v>222</v>
       </c>
       <c r="Q65" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R65" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="U65" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="T65" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U65" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="V65" s="4"/>
+      <c r="V65" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W65" s="4"/>
-      <c r="Y65" s="4">
+      <c r="X65" s="4"/>
+      <c r="Z65" s="4">
         <v>200</v>
       </c>
-      <c r="Z65" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB65" s="4">
+      <c r="AA65" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC65" s="4">
         <v>30</v>
       </c>
-      <c r="AC65" s="4">
+      <c r="AD65" s="4">
         <v>2</v>
       </c>
-      <c r="AD65" s="4" t="s">
+      <c r="AE65" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AE65" s="4"/>
-      <c r="AF65" s="2" t="s">
+      <c r="AF65" s="4"/>
+      <c r="AG65" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AG65" s="2" t="s">
+      <c r="AH65" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="AH65" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI65" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="66" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ65" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="66" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B66" s="4">
         <v>62</v>
       </c>
@@ -6941,53 +7008,53 @@
       <c r="Q66" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R66" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="S66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="U66" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="T66" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U66" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="V66" s="4"/>
+      <c r="V66" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W66" s="4"/>
-      <c r="Y66" s="4">
+      <c r="X66" s="4"/>
+      <c r="Z66" s="4">
         <v>200</v>
       </c>
-      <c r="Z66" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA66" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB66" s="4">
+      <c r="AA66" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC66" s="4">
         <v>30</v>
       </c>
-      <c r="AC66" s="4">
+      <c r="AD66" s="4">
         <v>2</v>
       </c>
-      <c r="AD66" s="4" t="s">
+      <c r="AE66" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AE66" s="4"/>
-      <c r="AF66" s="2" t="s">
+      <c r="AF66" s="4"/>
+      <c r="AG66" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="AG66" s="2" t="s">
+      <c r="AH66" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="AH66" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI66" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ66" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="67" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B67" s="4">
         <v>63</v>
       </c>
@@ -7028,55 +7095,55 @@
         <v>222</v>
       </c>
       <c r="Q67" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="S67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="U67" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="T67" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U67" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="V67" s="4"/>
+      <c r="V67" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W67" s="4"/>
-      <c r="Y67" s="4">
+      <c r="X67" s="4"/>
+      <c r="Z67" s="4">
         <v>200</v>
       </c>
-      <c r="Z67" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA67" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB67" s="4">
+      <c r="AA67" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC67" s="4">
         <v>30</v>
       </c>
-      <c r="AC67" s="4">
+      <c r="AD67" s="4">
         <v>2</v>
       </c>
-      <c r="AD67" s="4" t="s">
+      <c r="AE67" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AE67" s="4"/>
-      <c r="AF67" s="2" t="s">
+      <c r="AF67" s="4"/>
+      <c r="AG67" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AG67" s="2" t="s">
+      <c r="AH67" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="AH67" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI67" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="68" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ67" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B68" s="4">
         <v>64</v>
       </c>
@@ -7116,69 +7183,69 @@
       <c r="Q68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="R68" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="S68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="T68" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="U68" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="T68" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="U68" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="V68" s="4"/>
+      <c r="V68" s="2" t="s">
+        <v>300</v>
+      </c>
       <c r="W68" s="4"/>
-      <c r="Y68" s="4">
+      <c r="X68" s="4"/>
+      <c r="Z68" s="4">
         <v>200</v>
       </c>
-      <c r="Z68" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA68" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB68" s="4">
+      <c r="AA68" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC68" s="4">
         <v>30</v>
       </c>
-      <c r="AC68" s="4">
+      <c r="AD68" s="4">
         <v>2</v>
       </c>
-      <c r="AD68" s="4" t="s">
+      <c r="AE68" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AE68" s="4"/>
-      <c r="AF68" s="2" t="s">
+      <c r="AF68" s="4"/>
+      <c r="AG68" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AG68" s="2" t="s">
+      <c r="AH68" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="AH68" s="2" t="s">
-        <v>251</v>
       </c>
       <c r="AI68" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="69" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AJ68" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="V69" s="4"/>
       <c r="W69" s="4"/>
-      <c r="Y69" s="4"/>
+      <c r="X69" s="4"/>
       <c r="Z69" s="4"/>
-      <c r="AB69" s="4"/>
+      <c r="AA69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
-    </row>
-    <row r="70" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF69" s="4"/>
+    </row>
+    <row r="70" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
@@ -7191,18 +7258,19 @@
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
-      <c r="V70" s="4"/>
+      <c r="V70" s="6"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
       <c r="Z70" s="4"/>
-      <c r="AB70" s="4"/>
+      <c r="AA70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
-      <c r="AL70" s="4"/>
-    </row>
-    <row r="71" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF70" s="4"/>
+      <c r="AM70" s="4"/>
+    </row>
+    <row r="71" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
@@ -7214,16 +7282,17 @@
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
-      <c r="V71" s="4"/>
+      <c r="V71" s="6"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
       <c r="Z71" s="4"/>
-      <c r="AD71" s="4"/>
+      <c r="AA71" s="4"/>
       <c r="AE71" s="4"/>
-      <c r="AL71" s="4"/>
-    </row>
-    <row r="72" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF71" s="4"/>
+      <c r="AM71" s="4"/>
+    </row>
+    <row r="72" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
@@ -7235,16 +7304,17 @@
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
-      <c r="V72" s="4"/>
+      <c r="V72" s="6"/>
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
       <c r="Z72" s="4"/>
-      <c r="AD72" s="4"/>
+      <c r="AA72" s="4"/>
       <c r="AE72" s="4"/>
-      <c r="AL72" s="4"/>
-    </row>
-    <row r="73" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF72" s="4"/>
+      <c r="AM72" s="4"/>
+    </row>
+    <row r="73" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
@@ -7256,16 +7326,17 @@
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
-      <c r="V73" s="4"/>
+      <c r="V73" s="6"/>
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
       <c r="Z73" s="4"/>
-      <c r="AD73" s="4"/>
+      <c r="AA73" s="4"/>
       <c r="AE73" s="4"/>
-      <c r="AL73" s="4"/>
-    </row>
-    <row r="74" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF73" s="4"/>
+      <c r="AM73" s="4"/>
+    </row>
+    <row r="74" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
@@ -7277,16 +7348,17 @@
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
-      <c r="V74" s="4"/>
+      <c r="V74" s="6"/>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
       <c r="Z74" s="4"/>
-      <c r="AD74" s="4"/>
+      <c r="AA74" s="4"/>
       <c r="AE74" s="4"/>
-      <c r="AL74" s="4"/>
-    </row>
-    <row r="75" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF74" s="4"/>
+      <c r="AM74" s="4"/>
+    </row>
+    <row r="75" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
@@ -7298,16 +7370,17 @@
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
-      <c r="V75" s="4"/>
+      <c r="V75" s="6"/>
       <c r="W75" s="4"/>
       <c r="X75" s="4"/>
       <c r="Y75" s="4"/>
       <c r="Z75" s="4"/>
-      <c r="AD75" s="4"/>
+      <c r="AA75" s="4"/>
       <c r="AE75" s="4"/>
-      <c r="AL75" s="4"/>
-    </row>
-    <row r="76" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF75" s="4"/>
+      <c r="AM75" s="4"/>
+    </row>
+    <row r="76" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
@@ -7319,16 +7392,17 @@
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
-      <c r="V76" s="4"/>
+      <c r="V76" s="6"/>
       <c r="W76" s="4"/>
       <c r="X76" s="4"/>
       <c r="Y76" s="4"/>
       <c r="Z76" s="4"/>
-      <c r="AD76" s="4"/>
+      <c r="AA76" s="4"/>
       <c r="AE76" s="4"/>
-      <c r="AL76" s="4"/>
-    </row>
-    <row r="77" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF76" s="4"/>
+      <c r="AM76" s="4"/>
+    </row>
+    <row r="77" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
@@ -7340,16 +7414,17 @@
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
-      <c r="V77" s="4"/>
+      <c r="V77" s="6"/>
       <c r="W77" s="4"/>
       <c r="X77" s="4"/>
       <c r="Y77" s="4"/>
       <c r="Z77" s="4"/>
-      <c r="AD77" s="4"/>
+      <c r="AA77" s="4"/>
       <c r="AE77" s="4"/>
-      <c r="AL77" s="4"/>
-    </row>
-    <row r="78" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF77" s="4"/>
+      <c r="AM77" s="4"/>
+    </row>
+    <row r="78" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
@@ -7361,16 +7436,17 @@
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
-      <c r="V78" s="4"/>
+      <c r="V78" s="6"/>
       <c r="W78" s="4"/>
       <c r="X78" s="4"/>
       <c r="Y78" s="4"/>
       <c r="Z78" s="4"/>
-      <c r="AD78" s="4"/>
+      <c r="AA78" s="4"/>
       <c r="AE78" s="4"/>
-      <c r="AL78" s="4"/>
-    </row>
-    <row r="79" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF78" s="4"/>
+      <c r="AM78" s="4"/>
+    </row>
+    <row r="79" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
@@ -7382,16 +7458,17 @@
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
-      <c r="V79" s="4"/>
+      <c r="V79" s="6"/>
       <c r="W79" s="4"/>
       <c r="X79" s="4"/>
       <c r="Y79" s="4"/>
       <c r="Z79" s="4"/>
-      <c r="AD79" s="4"/>
+      <c r="AA79" s="4"/>
       <c r="AE79" s="4"/>
-      <c r="AL79" s="4"/>
-    </row>
-    <row r="80" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF79" s="4"/>
+      <c r="AM79" s="4"/>
+    </row>
+    <row r="80" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
@@ -7403,16 +7480,17 @@
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
-      <c r="V80" s="4"/>
+      <c r="V80" s="6"/>
       <c r="W80" s="4"/>
       <c r="X80" s="4"/>
       <c r="Y80" s="4"/>
       <c r="Z80" s="4"/>
-      <c r="AD80" s="4"/>
+      <c r="AA80" s="4"/>
       <c r="AE80" s="4"/>
-      <c r="AL80" s="4"/>
-    </row>
-    <row r="81" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF80" s="4"/>
+      <c r="AM80" s="4"/>
+    </row>
+    <row r="81" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
@@ -7424,16 +7502,17 @@
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
-      <c r="V81" s="4"/>
+      <c r="V81" s="6"/>
       <c r="W81" s="4"/>
       <c r="X81" s="4"/>
       <c r="Y81" s="4"/>
       <c r="Z81" s="4"/>
-      <c r="AD81" s="4"/>
+      <c r="AA81" s="4"/>
       <c r="AE81" s="4"/>
-      <c r="AL81" s="4"/>
-    </row>
-    <row r="82" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF81" s="4"/>
+      <c r="AM81" s="4"/>
+    </row>
+    <row r="82" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
@@ -7445,16 +7524,17 @@
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
-      <c r="V82" s="4"/>
+      <c r="V82" s="6"/>
       <c r="W82" s="4"/>
       <c r="X82" s="4"/>
       <c r="Y82" s="4"/>
       <c r="Z82" s="4"/>
-      <c r="AD82" s="4"/>
+      <c r="AA82" s="4"/>
       <c r="AE82" s="4"/>
-      <c r="AL82" s="4"/>
-    </row>
-    <row r="83" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF82" s="4"/>
+      <c r="AM82" s="4"/>
+    </row>
+    <row r="83" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
@@ -7466,16 +7546,17 @@
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
-      <c r="V83" s="4"/>
+      <c r="V83" s="6"/>
       <c r="W83" s="4"/>
       <c r="X83" s="4"/>
       <c r="Y83" s="4"/>
       <c r="Z83" s="4"/>
-      <c r="AD83" s="4"/>
+      <c r="AA83" s="4"/>
       <c r="AE83" s="4"/>
-      <c r="AL83" s="4"/>
-    </row>
-    <row r="84" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF83" s="4"/>
+      <c r="AM83" s="4"/>
+    </row>
+    <row r="84" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
@@ -7487,16 +7568,17 @@
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
-      <c r="V84" s="4"/>
+      <c r="V84" s="6"/>
       <c r="W84" s="4"/>
       <c r="X84" s="4"/>
       <c r="Y84" s="4"/>
       <c r="Z84" s="4"/>
-      <c r="AD84" s="4"/>
+      <c r="AA84" s="4"/>
       <c r="AE84" s="4"/>
-      <c r="AL84" s="4"/>
-    </row>
-    <row r="85" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF84" s="4"/>
+      <c r="AM84" s="4"/>
+    </row>
+    <row r="85" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
@@ -7508,16 +7590,17 @@
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
-      <c r="V85" s="4"/>
+      <c r="V85" s="6"/>
       <c r="W85" s="4"/>
       <c r="X85" s="4"/>
       <c r="Y85" s="4"/>
       <c r="Z85" s="4"/>
-      <c r="AD85" s="4"/>
+      <c r="AA85" s="4"/>
       <c r="AE85" s="4"/>
-      <c r="AL85" s="4"/>
-    </row>
-    <row r="86" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF85" s="4"/>
+      <c r="AM85" s="4"/>
+    </row>
+    <row r="86" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
@@ -7529,16 +7612,17 @@
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
-      <c r="V86" s="4"/>
+      <c r="V86" s="6"/>
       <c r="W86" s="4"/>
       <c r="X86" s="4"/>
       <c r="Y86" s="4"/>
       <c r="Z86" s="4"/>
-      <c r="AD86" s="4"/>
+      <c r="AA86" s="4"/>
       <c r="AE86" s="4"/>
-      <c r="AL86" s="4"/>
-    </row>
-    <row r="87" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF86" s="4"/>
+      <c r="AM86" s="4"/>
+    </row>
+    <row r="87" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
@@ -7550,16 +7634,17 @@
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
-      <c r="V87" s="4"/>
+      <c r="V87" s="6"/>
       <c r="W87" s="4"/>
       <c r="X87" s="4"/>
       <c r="Y87" s="4"/>
       <c r="Z87" s="4"/>
-      <c r="AD87" s="4"/>
+      <c r="AA87" s="4"/>
       <c r="AE87" s="4"/>
-      <c r="AL87" s="4"/>
-    </row>
-    <row r="88" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF87" s="4"/>
+      <c r="AM87" s="4"/>
+    </row>
+    <row r="88" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
@@ -7571,16 +7656,17 @@
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
-      <c r="V88" s="4"/>
+      <c r="V88" s="6"/>
       <c r="W88" s="4"/>
       <c r="X88" s="4"/>
       <c r="Y88" s="4"/>
       <c r="Z88" s="4"/>
-      <c r="AD88" s="4"/>
+      <c r="AA88" s="4"/>
       <c r="AE88" s="4"/>
-      <c r="AL88" s="4"/>
-    </row>
-    <row r="89" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF88" s="4"/>
+      <c r="AM88" s="4"/>
+    </row>
+    <row r="89" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
@@ -7592,16 +7678,17 @@
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
-      <c r="V89" s="4"/>
+      <c r="V89" s="6"/>
       <c r="W89" s="4"/>
       <c r="X89" s="4"/>
       <c r="Y89" s="4"/>
       <c r="Z89" s="4"/>
-      <c r="AD89" s="4"/>
+      <c r="AA89" s="4"/>
       <c r="AE89" s="4"/>
-      <c r="AL89" s="4"/>
-    </row>
-    <row r="90" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF89" s="4"/>
+      <c r="AM89" s="4"/>
+    </row>
+    <row r="90" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
@@ -7613,16 +7700,17 @@
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
-      <c r="V90" s="4"/>
+      <c r="V90" s="6"/>
       <c r="W90" s="4"/>
       <c r="X90" s="4"/>
       <c r="Y90" s="4"/>
       <c r="Z90" s="4"/>
-      <c r="AD90" s="4"/>
+      <c r="AA90" s="4"/>
       <c r="AE90" s="4"/>
-      <c r="AL90" s="4"/>
-    </row>
-    <row r="91" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF90" s="4"/>
+      <c r="AM90" s="4"/>
+    </row>
+    <row r="91" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
@@ -7634,16 +7722,17 @@
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
-      <c r="V91" s="4"/>
+      <c r="V91" s="6"/>
       <c r="W91" s="4"/>
       <c r="X91" s="4"/>
       <c r="Y91" s="4"/>
       <c r="Z91" s="4"/>
-      <c r="AD91" s="4"/>
+      <c r="AA91" s="4"/>
       <c r="AE91" s="4"/>
-      <c r="AL91" s="4"/>
-    </row>
-    <row r="92" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF91" s="4"/>
+      <c r="AM91" s="4"/>
+    </row>
+    <row r="92" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
@@ -7655,29 +7744,30 @@
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
-      <c r="V92" s="4"/>
+      <c r="V92" s="6"/>
       <c r="W92" s="4"/>
       <c r="X92" s="4"/>
       <c r="Y92" s="4"/>
       <c r="Z92" s="4"/>
-      <c r="AD92" s="4"/>
+      <c r="AA92" s="4"/>
       <c r="AE92" s="4"/>
-      <c r="AL92" s="4"/>
-    </row>
-    <row r="93" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF92" s="4"/>
+      <c r="AM92" s="4"/>
+    </row>
+    <row r="93" spans="2:39" x14ac:dyDescent="0.15">
       <c r="B93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
-      <c r="V93" s="4"/>
       <c r="W93" s="4"/>
       <c r="X93" s="4"/>
       <c r="Y93" s="4"/>
       <c r="Z93" s="4"/>
-      <c r="AD93" s="4"/>
+      <c r="AA93" s="4"/>
       <c r="AE93" s="4"/>
-      <c r="AL93" s="4"/>
-    </row>
-    <row r="94" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF93" s="4"/>
+      <c r="AM93" s="4"/>
+    </row>
+    <row r="94" spans="2:39" x14ac:dyDescent="0.15">
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="P94" s="6"/>
@@ -7686,16 +7776,17 @@
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
-      <c r="V94" s="4"/>
+      <c r="V94" s="6"/>
       <c r="W94" s="4"/>
       <c r="X94" s="4"/>
       <c r="Y94" s="4"/>
       <c r="Z94" s="4"/>
-      <c r="AD94" s="4"/>
+      <c r="AA94" s="4"/>
       <c r="AE94" s="4"/>
-      <c r="AL94" s="4"/>
-    </row>
-    <row r="95" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF94" s="4"/>
+      <c r="AM94" s="4"/>
+    </row>
+    <row r="95" spans="2:39" x14ac:dyDescent="0.15">
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="P95" s="6"/>
@@ -7704,16 +7795,17 @@
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
-      <c r="V95" s="4"/>
+      <c r="V95" s="6"/>
       <c r="W95" s="4"/>
       <c r="X95" s="4"/>
       <c r="Y95" s="4"/>
       <c r="Z95" s="4"/>
-      <c r="AD95" s="4"/>
+      <c r="AA95" s="4"/>
       <c r="AE95" s="4"/>
-      <c r="AL95" s="4"/>
-    </row>
-    <row r="96" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="AF95" s="4"/>
+      <c r="AM95" s="4"/>
+    </row>
+    <row r="96" spans="2:39" x14ac:dyDescent="0.15">
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="P96" s="6"/>
@@ -7722,16 +7814,17 @@
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
-      <c r="V96" s="4"/>
+      <c r="V96" s="6"/>
       <c r="W96" s="4"/>
       <c r="X96" s="4"/>
       <c r="Y96" s="4"/>
       <c r="Z96" s="4"/>
-      <c r="AD96" s="4"/>
+      <c r="AA96" s="4"/>
       <c r="AE96" s="4"/>
-      <c r="AL96" s="4"/>
-    </row>
-    <row r="97" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF96" s="4"/>
+      <c r="AM96" s="4"/>
+    </row>
+    <row r="97" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="P97" s="6"/>
@@ -7740,16 +7833,17 @@
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
-      <c r="V97" s="4"/>
+      <c r="V97" s="6"/>
       <c r="W97" s="4"/>
       <c r="X97" s="4"/>
       <c r="Y97" s="4"/>
       <c r="Z97" s="4"/>
-      <c r="AD97" s="4"/>
+      <c r="AA97" s="4"/>
       <c r="AE97" s="4"/>
-      <c r="AL97" s="4"/>
-    </row>
-    <row r="98" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF97" s="4"/>
+      <c r="AM97" s="4"/>
+    </row>
+    <row r="98" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="P98" s="6"/>
@@ -7758,16 +7852,17 @@
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
-      <c r="V98" s="4"/>
+      <c r="V98" s="6"/>
       <c r="W98" s="4"/>
       <c r="X98" s="4"/>
       <c r="Y98" s="4"/>
       <c r="Z98" s="4"/>
-      <c r="AD98" s="4"/>
+      <c r="AA98" s="4"/>
       <c r="AE98" s="4"/>
-      <c r="AL98" s="4"/>
-    </row>
-    <row r="99" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF98" s="4"/>
+      <c r="AM98" s="4"/>
+    </row>
+    <row r="99" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="P99" s="6"/>
@@ -7776,16 +7871,17 @@
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
-      <c r="V99" s="4"/>
+      <c r="V99" s="6"/>
       <c r="W99" s="4"/>
       <c r="X99" s="4"/>
       <c r="Y99" s="4"/>
       <c r="Z99" s="4"/>
-      <c r="AD99" s="4"/>
+      <c r="AA99" s="4"/>
       <c r="AE99" s="4"/>
-      <c r="AL99" s="4"/>
-    </row>
-    <row r="100" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF99" s="4"/>
+      <c r="AM99" s="4"/>
+    </row>
+    <row r="100" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="P100" s="6"/>
@@ -7794,16 +7890,17 @@
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
-      <c r="V100" s="4"/>
+      <c r="V100" s="6"/>
       <c r="W100" s="4"/>
       <c r="X100" s="4"/>
       <c r="Y100" s="4"/>
       <c r="Z100" s="4"/>
-      <c r="AD100" s="4"/>
+      <c r="AA100" s="4"/>
       <c r="AE100" s="4"/>
-      <c r="AL100" s="4"/>
-    </row>
-    <row r="101" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF100" s="4"/>
+      <c r="AM100" s="4"/>
+    </row>
+    <row r="101" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="P101" s="6"/>
@@ -7812,16 +7909,17 @@
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
-      <c r="V101" s="4"/>
+      <c r="V101" s="6"/>
       <c r="W101" s="4"/>
       <c r="X101" s="4"/>
       <c r="Y101" s="4"/>
       <c r="Z101" s="4"/>
-      <c r="AD101" s="4"/>
+      <c r="AA101" s="4"/>
       <c r="AE101" s="4"/>
-      <c r="AL101" s="4"/>
-    </row>
-    <row r="102" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF101" s="4"/>
+      <c r="AM101" s="4"/>
+    </row>
+    <row r="102" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="P102" s="6"/>
@@ -7830,212 +7928,213 @@
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
-      <c r="V102" s="4"/>
+      <c r="V102" s="6"/>
       <c r="W102" s="4"/>
       <c r="X102" s="4"/>
       <c r="Y102" s="4"/>
       <c r="Z102" s="4"/>
-      <c r="AD102" s="4"/>
+      <c r="AA102" s="4"/>
       <c r="AE102" s="4"/>
-      <c r="AL102" s="4"/>
-    </row>
-    <row r="103" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF102" s="4"/>
+      <c r="AM102" s="4"/>
+    </row>
+    <row r="103" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
-      <c r="V103" s="4"/>
       <c r="W103" s="4"/>
       <c r="X103" s="4"/>
       <c r="Y103" s="4"/>
       <c r="Z103" s="4"/>
-      <c r="AD103" s="4"/>
+      <c r="AA103" s="4"/>
       <c r="AE103" s="4"/>
-    </row>
-    <row r="104" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF103" s="4"/>
+    </row>
+    <row r="104" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
-      <c r="V104" s="4"/>
       <c r="W104" s="4"/>
       <c r="X104" s="4"/>
       <c r="Y104" s="4"/>
       <c r="Z104" s="4"/>
-      <c r="AD104" s="4"/>
+      <c r="AA104" s="4"/>
       <c r="AE104" s="4"/>
-    </row>
-    <row r="105" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF104" s="4"/>
+    </row>
+    <row r="105" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="V105" s="4"/>
       <c r="W105" s="4"/>
       <c r="X105" s="4"/>
       <c r="Y105" s="4"/>
       <c r="Z105" s="4"/>
-      <c r="AD105" s="4"/>
+      <c r="AA105" s="4"/>
       <c r="AE105" s="4"/>
-    </row>
-    <row r="106" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF105" s="4"/>
+    </row>
+    <row r="106" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="V106" s="4"/>
       <c r="W106" s="4"/>
       <c r="X106" s="4"/>
       <c r="Y106" s="4"/>
       <c r="Z106" s="4"/>
-      <c r="AD106" s="4"/>
+      <c r="AA106" s="4"/>
       <c r="AE106" s="4"/>
-    </row>
-    <row r="107" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF106" s="4"/>
+    </row>
+    <row r="107" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="V107" s="4"/>
       <c r="W107" s="4"/>
       <c r="X107" s="4"/>
       <c r="Y107" s="4"/>
       <c r="Z107" s="4"/>
-      <c r="AD107" s="4"/>
+      <c r="AA107" s="4"/>
       <c r="AE107" s="4"/>
-    </row>
-    <row r="108" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF107" s="4"/>
+    </row>
+    <row r="108" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="V108" s="4"/>
       <c r="W108" s="4"/>
       <c r="X108" s="4"/>
       <c r="Y108" s="4"/>
       <c r="Z108" s="4"/>
-      <c r="AD108" s="4"/>
+      <c r="AA108" s="4"/>
       <c r="AE108" s="4"/>
-    </row>
-    <row r="109" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF108" s="4"/>
+    </row>
+    <row r="109" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="V109" s="4"/>
       <c r="W109" s="4"/>
       <c r="X109" s="4"/>
       <c r="Y109" s="4"/>
       <c r="Z109" s="4"/>
-      <c r="AD109" s="4"/>
+      <c r="AA109" s="4"/>
       <c r="AE109" s="4"/>
-    </row>
-    <row r="110" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF109" s="4"/>
+    </row>
+    <row r="110" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="V110" s="4"/>
       <c r="W110" s="4"/>
       <c r="X110" s="4"/>
       <c r="Y110" s="4"/>
       <c r="Z110" s="4"/>
-      <c r="AD110" s="4"/>
+      <c r="AA110" s="4"/>
       <c r="AE110" s="4"/>
-    </row>
-    <row r="111" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF110" s="4"/>
+    </row>
+    <row r="111" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="V111" s="4"/>
       <c r="W111" s="4"/>
       <c r="X111" s="4"/>
       <c r="Y111" s="4"/>
       <c r="Z111" s="4"/>
-      <c r="AD111" s="4"/>
+      <c r="AA111" s="4"/>
       <c r="AE111" s="4"/>
-    </row>
-    <row r="112" spans="5:38" x14ac:dyDescent="0.25">
+      <c r="AF111" s="4"/>
+    </row>
+    <row r="112" spans="5:39" x14ac:dyDescent="0.15">
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
-      <c r="V112" s="4"/>
       <c r="W112" s="4"/>
       <c r="X112" s="4"/>
       <c r="Y112" s="4"/>
       <c r="Z112" s="4"/>
-      <c r="AD112" s="4"/>
+      <c r="AA112" s="4"/>
       <c r="AE112" s="4"/>
-    </row>
-    <row r="113" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF112" s="4"/>
+    </row>
+    <row r="113" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
-      <c r="V113" s="4"/>
       <c r="W113" s="4"/>
       <c r="X113" s="4"/>
       <c r="Y113" s="4"/>
       <c r="Z113" s="4"/>
-      <c r="AD113" s="4"/>
+      <c r="AA113" s="4"/>
       <c r="AE113" s="4"/>
-    </row>
-    <row r="114" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF113" s="4"/>
+    </row>
+    <row r="114" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
-      <c r="V114" s="4"/>
       <c r="W114" s="4"/>
       <c r="X114" s="4"/>
       <c r="Y114" s="4"/>
       <c r="Z114" s="4"/>
-      <c r="AD114" s="4"/>
+      <c r="AA114" s="4"/>
       <c r="AE114" s="4"/>
-    </row>
-    <row r="115" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF114" s="4"/>
+    </row>
+    <row r="115" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
-      <c r="V115" s="4"/>
       <c r="W115" s="4"/>
       <c r="X115" s="4"/>
       <c r="Y115" s="4"/>
       <c r="Z115" s="4"/>
-      <c r="AD115" s="4"/>
+      <c r="AA115" s="4"/>
       <c r="AE115" s="4"/>
-    </row>
-    <row r="116" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF115" s="4"/>
+    </row>
+    <row r="116" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
-      <c r="V116" s="4"/>
       <c r="W116" s="4"/>
       <c r="X116" s="4"/>
       <c r="Y116" s="4"/>
       <c r="Z116" s="4"/>
-      <c r="AD116" s="4"/>
+      <c r="AA116" s="4"/>
       <c r="AE116" s="4"/>
-    </row>
-    <row r="117" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF116" s="4"/>
+    </row>
+    <row r="117" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
-      <c r="V117" s="4"/>
       <c r="W117" s="4"/>
       <c r="X117" s="4"/>
       <c r="Y117" s="4"/>
       <c r="Z117" s="4"/>
-      <c r="AD117" s="4"/>
+      <c r="AA117" s="4"/>
       <c r="AE117" s="4"/>
-    </row>
-    <row r="118" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF117" s="4"/>
+    </row>
+    <row r="118" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
-      <c r="V118" s="4"/>
       <c r="W118" s="4"/>
       <c r="X118" s="4"/>
       <c r="Y118" s="4"/>
       <c r="Z118" s="4"/>
-      <c r="AD118" s="4"/>
+      <c r="AA118" s="4"/>
       <c r="AE118" s="4"/>
-    </row>
-    <row r="119" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF118" s="4"/>
+    </row>
+    <row r="119" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="V119" s="4"/>
       <c r="W119" s="4"/>
       <c r="X119" s="4"/>
       <c r="Y119" s="4"/>
       <c r="Z119" s="4"/>
-      <c r="AD119" s="4"/>
+      <c r="AA119" s="4"/>
       <c r="AE119" s="4"/>
-    </row>
-    <row r="120" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="AF119" s="4"/>
+    </row>
+    <row r="120" spans="5:32" x14ac:dyDescent="0.15">
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="V120" s="4"/>
       <c r="W120" s="4"/>
       <c r="X120" s="4"/>
       <c r="Y120" s="4"/>
       <c r="Z120" s="4"/>
-      <c r="AD120" s="4"/>
+      <c r="AA120" s="4"/>
       <c r="AE120" s="4"/>
+      <c r="AF120" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
